--- a/src/extraResources/2022.xlsx
+++ b/src/extraResources/2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\academic-plan-editor\src\extraResources\plan-templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\academic-plan-editor\src\extraResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="173">
   <si>
     <t>Психология и когнитивные науки</t>
   </si>
@@ -543,6 +543,9 @@
   </si>
   <si>
     <t>Заголовок</t>
+  </si>
+  <si>
+    <t>Количество учебных недель</t>
   </si>
 </sst>
 </file>
@@ -642,7 +645,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -775,11 +778,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -905,18 +930,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -951,9 +967,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -988,9 +1001,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1003,41 +1013,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1051,8 +1040,109 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1334,17 +1424,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL43"/>
+  <dimension ref="A1:BL45"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A2" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="64.33203125" style="55" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="55" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="52" customWidth="1"/>
     <col min="4" max="4" width="5.33203125" style="29" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" style="29" customWidth="1"/>
     <col min="6" max="7" width="6.5546875" style="29" customWidth="1"/>
@@ -1357,10 +1447,10 @@
       <c r="C1" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
       <c r="H1" s="27"/>
       <c r="I1" s="27"/>
     </row>
@@ -1371,7 +1461,7 @@
       <c r="B2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="55" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="28" t="s">
@@ -1433,7 +1523,7 @@
       <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="81" t="s">
         <v>122</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1450,7 +1540,7 @@
       <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A7" s="85"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="8" t="s">
         <v>123</v>
       </c>
@@ -1465,7 +1555,7 @@
       <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="81" t="s">
         <v>124</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1482,7 +1572,7 @@
       <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="85"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="8" t="s">
         <v>125</v>
       </c>
@@ -1548,7 +1638,7 @@
       <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="81" t="s">
         <v>129</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1565,7 +1655,7 @@
       <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="85"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="8" t="s">
         <v>130</v>
       </c>
@@ -1578,7 +1668,7 @@
       <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="85"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="8" t="s">
         <v>131</v>
       </c>
@@ -1591,7 +1681,7 @@
       <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="85"/>
+      <c r="A16" s="81"/>
       <c r="B16" s="8" t="s">
         <v>132</v>
       </c>
@@ -1601,65 +1691,65 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="27"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="69"/>
-      <c r="AK16" s="69"/>
-      <c r="AL16" s="69"/>
-      <c r="AM16" s="69"/>
-      <c r="AN16" s="69"/>
-      <c r="AO16" s="69"/>
-      <c r="AP16" s="69"/>
-      <c r="AQ16" s="69"/>
-      <c r="AR16" s="69"/>
-      <c r="AS16" s="69"/>
-      <c r="AT16" s="69"/>
-      <c r="AU16" s="69"/>
-      <c r="AV16" s="69"/>
-      <c r="AW16" s="69"/>
-      <c r="AX16" s="69"/>
-      <c r="AY16" s="69"/>
-      <c r="AZ16" s="69"/>
-      <c r="BA16" s="69"/>
-      <c r="BB16" s="69"/>
-      <c r="BC16" s="69"/>
-      <c r="BD16" s="69"/>
-      <c r="BE16" s="69"/>
-      <c r="BF16" s="69"/>
-      <c r="BG16" s="69"/>
-      <c r="BH16" s="69"/>
-      <c r="BI16" s="69"/>
-      <c r="BJ16" s="69"/>
-      <c r="BK16" s="69"/>
-      <c r="BL16" s="69"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="65"/>
+      <c r="AE16" s="65"/>
+      <c r="AF16" s="65"/>
+      <c r="AG16" s="65"/>
+      <c r="AH16" s="65"/>
+      <c r="AI16" s="65"/>
+      <c r="AJ16" s="65"/>
+      <c r="AK16" s="65"/>
+      <c r="AL16" s="65"/>
+      <c r="AM16" s="65"/>
+      <c r="AN16" s="65"/>
+      <c r="AO16" s="65"/>
+      <c r="AP16" s="65"/>
+      <c r="AQ16" s="65"/>
+      <c r="AR16" s="65"/>
+      <c r="AS16" s="65"/>
+      <c r="AT16" s="65"/>
+      <c r="AU16" s="65"/>
+      <c r="AV16" s="65"/>
+      <c r="AW16" s="65"/>
+      <c r="AX16" s="65"/>
+      <c r="AY16" s="65"/>
+      <c r="AZ16" s="65"/>
+      <c r="BA16" s="65"/>
+      <c r="BB16" s="65"/>
+      <c r="BC16" s="65"/>
+      <c r="BD16" s="65"/>
+      <c r="BE16" s="65"/>
+      <c r="BF16" s="65"/>
+      <c r="BG16" s="65"/>
+      <c r="BH16" s="65"/>
+      <c r="BI16" s="65"/>
+      <c r="BJ16" s="65"/>
+      <c r="BK16" s="65"/>
+      <c r="BL16" s="65"/>
     </row>
     <row r="17" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="85"/>
+      <c r="A17" s="81"/>
       <c r="B17" s="8" t="s">
         <v>133</v>
       </c>
@@ -1669,65 +1759,65 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="27"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="69"/>
-      <c r="Z17" s="69"/>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="69"/>
-      <c r="AC17" s="69"/>
-      <c r="AD17" s="69"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="69"/>
-      <c r="AG17" s="69"/>
-      <c r="AH17" s="69"/>
-      <c r="AI17" s="69"/>
-      <c r="AJ17" s="69"/>
-      <c r="AK17" s="69"/>
-      <c r="AL17" s="69"/>
-      <c r="AM17" s="69"/>
-      <c r="AN17" s="69"/>
-      <c r="AO17" s="69"/>
-      <c r="AP17" s="69"/>
-      <c r="AQ17" s="69"/>
-      <c r="AR17" s="69"/>
-      <c r="AS17" s="69"/>
-      <c r="AT17" s="69"/>
-      <c r="AU17" s="69"/>
-      <c r="AV17" s="69"/>
-      <c r="AW17" s="69"/>
-      <c r="AX17" s="69"/>
-      <c r="AY17" s="69"/>
-      <c r="AZ17" s="69"/>
-      <c r="BA17" s="69"/>
-      <c r="BB17" s="69"/>
-      <c r="BC17" s="69"/>
-      <c r="BD17" s="69"/>
-      <c r="BE17" s="69"/>
-      <c r="BF17" s="69"/>
-      <c r="BG17" s="69"/>
-      <c r="BH17" s="69"/>
-      <c r="BI17" s="69"/>
-      <c r="BJ17" s="69"/>
-      <c r="BK17" s="69"/>
-      <c r="BL17" s="69"/>
-    </row>
-    <row r="18" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="85"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="65"/>
+      <c r="AF17" s="65"/>
+      <c r="AG17" s="65"/>
+      <c r="AH17" s="65"/>
+      <c r="AI17" s="65"/>
+      <c r="AJ17" s="65"/>
+      <c r="AK17" s="65"/>
+      <c r="AL17" s="65"/>
+      <c r="AM17" s="65"/>
+      <c r="AN17" s="65"/>
+      <c r="AO17" s="65"/>
+      <c r="AP17" s="65"/>
+      <c r="AQ17" s="65"/>
+      <c r="AR17" s="65"/>
+      <c r="AS17" s="65"/>
+      <c r="AT17" s="65"/>
+      <c r="AU17" s="65"/>
+      <c r="AV17" s="65"/>
+      <c r="AW17" s="65"/>
+      <c r="AX17" s="65"/>
+      <c r="AY17" s="65"/>
+      <c r="AZ17" s="65"/>
+      <c r="BA17" s="65"/>
+      <c r="BB17" s="65"/>
+      <c r="BC17" s="65"/>
+      <c r="BD17" s="65"/>
+      <c r="BE17" s="65"/>
+      <c r="BF17" s="65"/>
+      <c r="BG17" s="65"/>
+      <c r="BH17" s="65"/>
+      <c r="BI17" s="65"/>
+      <c r="BJ17" s="65"/>
+      <c r="BK17" s="65"/>
+      <c r="BL17" s="65"/>
+    </row>
+    <row r="18" spans="1:64" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="81"/>
       <c r="B18" s="8" t="s">
         <v>134</v>
       </c>
@@ -1737,65 +1827,65 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="27"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="69"/>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="69"/>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="69"/>
-      <c r="AJ18" s="69"/>
-      <c r="AK18" s="69"/>
-      <c r="AL18" s="69"/>
-      <c r="AM18" s="69"/>
-      <c r="AN18" s="69"/>
-      <c r="AO18" s="69"/>
-      <c r="AP18" s="69"/>
-      <c r="AQ18" s="69"/>
-      <c r="AR18" s="69"/>
-      <c r="AS18" s="69"/>
-      <c r="AT18" s="69"/>
-      <c r="AU18" s="69"/>
-      <c r="AV18" s="69"/>
-      <c r="AW18" s="69"/>
-      <c r="AX18" s="69"/>
-      <c r="AY18" s="69"/>
-      <c r="AZ18" s="69"/>
-      <c r="BA18" s="69"/>
-      <c r="BB18" s="69"/>
-      <c r="BC18" s="69"/>
-      <c r="BD18" s="69"/>
-      <c r="BE18" s="69"/>
-      <c r="BF18" s="69"/>
-      <c r="BG18" s="69"/>
-      <c r="BH18" s="69"/>
-      <c r="BI18" s="69"/>
-      <c r="BJ18" s="69"/>
-      <c r="BK18" s="69"/>
-      <c r="BL18" s="69"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="65"/>
+      <c r="AE18" s="65"/>
+      <c r="AF18" s="65"/>
+      <c r="AG18" s="65"/>
+      <c r="AH18" s="65"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="65"/>
+      <c r="AK18" s="65"/>
+      <c r="AL18" s="65"/>
+      <c r="AM18" s="65"/>
+      <c r="AN18" s="65"/>
+      <c r="AO18" s="65"/>
+      <c r="AP18" s="65"/>
+      <c r="AQ18" s="65"/>
+      <c r="AR18" s="65"/>
+      <c r="AS18" s="65"/>
+      <c r="AT18" s="65"/>
+      <c r="AU18" s="65"/>
+      <c r="AV18" s="65"/>
+      <c r="AW18" s="65"/>
+      <c r="AX18" s="65"/>
+      <c r="AY18" s="65"/>
+      <c r="AZ18" s="65"/>
+      <c r="BA18" s="65"/>
+      <c r="BB18" s="65"/>
+      <c r="BC18" s="65"/>
+      <c r="BD18" s="65"/>
+      <c r="BE18" s="65"/>
+      <c r="BF18" s="65"/>
+      <c r="BG18" s="65"/>
+      <c r="BH18" s="65"/>
+      <c r="BI18" s="65"/>
+      <c r="BJ18" s="65"/>
+      <c r="BK18" s="65"/>
+      <c r="BL18" s="65"/>
     </row>
     <row r="19" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="85"/>
+      <c r="A19" s="81"/>
       <c r="B19" s="8" t="s">
         <v>135</v>
       </c>
@@ -1805,65 +1895,65 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="27"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="69"/>
-      <c r="AB19" s="69"/>
-      <c r="AC19" s="69"/>
-      <c r="AD19" s="69"/>
-      <c r="AE19" s="69"/>
-      <c r="AF19" s="69"/>
-      <c r="AG19" s="69"/>
-      <c r="AH19" s="69"/>
-      <c r="AI19" s="69"/>
-      <c r="AJ19" s="69"/>
-      <c r="AK19" s="69"/>
-      <c r="AL19" s="69"/>
-      <c r="AM19" s="69"/>
-      <c r="AN19" s="69"/>
-      <c r="AO19" s="69"/>
-      <c r="AP19" s="69"/>
-      <c r="AQ19" s="69"/>
-      <c r="AR19" s="69"/>
-      <c r="AS19" s="69"/>
-      <c r="AT19" s="69"/>
-      <c r="AU19" s="69"/>
-      <c r="AV19" s="69"/>
-      <c r="AW19" s="69"/>
-      <c r="AX19" s="69"/>
-      <c r="AY19" s="69"/>
-      <c r="AZ19" s="69"/>
-      <c r="BA19" s="69"/>
-      <c r="BB19" s="69"/>
-      <c r="BC19" s="69"/>
-      <c r="BD19" s="69"/>
-      <c r="BE19" s="69"/>
-      <c r="BF19" s="69"/>
-      <c r="BG19" s="69"/>
-      <c r="BH19" s="69"/>
-      <c r="BI19" s="69"/>
-      <c r="BJ19" s="69"/>
-      <c r="BK19" s="69"/>
-      <c r="BL19" s="69"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="65"/>
+      <c r="AE19" s="65"/>
+      <c r="AF19" s="65"/>
+      <c r="AG19" s="65"/>
+      <c r="AH19" s="65"/>
+      <c r="AI19" s="65"/>
+      <c r="AJ19" s="65"/>
+      <c r="AK19" s="65"/>
+      <c r="AL19" s="65"/>
+      <c r="AM19" s="65"/>
+      <c r="AN19" s="65"/>
+      <c r="AO19" s="65"/>
+      <c r="AP19" s="65"/>
+      <c r="AQ19" s="65"/>
+      <c r="AR19" s="65"/>
+      <c r="AS19" s="65"/>
+      <c r="AT19" s="65"/>
+      <c r="AU19" s="65"/>
+      <c r="AV19" s="65"/>
+      <c r="AW19" s="65"/>
+      <c r="AX19" s="65"/>
+      <c r="AY19" s="65"/>
+      <c r="AZ19" s="65"/>
+      <c r="BA19" s="65"/>
+      <c r="BB19" s="65"/>
+      <c r="BC19" s="65"/>
+      <c r="BD19" s="65"/>
+      <c r="BE19" s="65"/>
+      <c r="BF19" s="65"/>
+      <c r="BG19" s="65"/>
+      <c r="BH19" s="65"/>
+      <c r="BI19" s="65"/>
+      <c r="BJ19" s="65"/>
+      <c r="BK19" s="65"/>
+      <c r="BL19" s="65"/>
     </row>
     <row r="20" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="85" t="s">
+      <c r="A20" s="81" t="s">
         <v>105</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1877,65 +1967,65 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="27"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="69"/>
-      <c r="Z20" s="69"/>
-      <c r="AA20" s="69"/>
-      <c r="AB20" s="69"/>
-      <c r="AC20" s="69"/>
-      <c r="AD20" s="69"/>
-      <c r="AE20" s="69"/>
-      <c r="AF20" s="69"/>
-      <c r="AG20" s="69"/>
-      <c r="AH20" s="69"/>
-      <c r="AI20" s="69"/>
-      <c r="AJ20" s="69"/>
-      <c r="AK20" s="69"/>
-      <c r="AL20" s="69"/>
-      <c r="AM20" s="69"/>
-      <c r="AN20" s="69"/>
-      <c r="AO20" s="69"/>
-      <c r="AP20" s="69"/>
-      <c r="AQ20" s="69"/>
-      <c r="AR20" s="69"/>
-      <c r="AS20" s="69"/>
-      <c r="AT20" s="69"/>
-      <c r="AU20" s="69"/>
-      <c r="AV20" s="69"/>
-      <c r="AW20" s="69"/>
-      <c r="AX20" s="69"/>
-      <c r="AY20" s="69"/>
-      <c r="AZ20" s="69"/>
-      <c r="BA20" s="69"/>
-      <c r="BB20" s="69"/>
-      <c r="BC20" s="69"/>
-      <c r="BD20" s="69"/>
-      <c r="BE20" s="69"/>
-      <c r="BF20" s="69"/>
-      <c r="BG20" s="69"/>
-      <c r="BH20" s="69"/>
-      <c r="BI20" s="69"/>
-      <c r="BJ20" s="69"/>
-      <c r="BK20" s="69"/>
-      <c r="BL20" s="69"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="65"/>
+      <c r="AF20" s="65"/>
+      <c r="AG20" s="65"/>
+      <c r="AH20" s="65"/>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="65"/>
+      <c r="AK20" s="65"/>
+      <c r="AL20" s="65"/>
+      <c r="AM20" s="65"/>
+      <c r="AN20" s="65"/>
+      <c r="AO20" s="65"/>
+      <c r="AP20" s="65"/>
+      <c r="AQ20" s="65"/>
+      <c r="AR20" s="65"/>
+      <c r="AS20" s="65"/>
+      <c r="AT20" s="65"/>
+      <c r="AU20" s="65"/>
+      <c r="AV20" s="65"/>
+      <c r="AW20" s="65"/>
+      <c r="AX20" s="65"/>
+      <c r="AY20" s="65"/>
+      <c r="AZ20" s="65"/>
+      <c r="BA20" s="65"/>
+      <c r="BB20" s="65"/>
+      <c r="BC20" s="65"/>
+      <c r="BD20" s="65"/>
+      <c r="BE20" s="65"/>
+      <c r="BF20" s="65"/>
+      <c r="BG20" s="65"/>
+      <c r="BH20" s="65"/>
+      <c r="BI20" s="65"/>
+      <c r="BJ20" s="65"/>
+      <c r="BK20" s="65"/>
+      <c r="BL20" s="65"/>
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A21" s="85"/>
+      <c r="A21" s="81"/>
       <c r="B21" s="8" t="s">
         <v>107</v>
       </c>
@@ -1947,62 +2037,62 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="27"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="69"/>
-      <c r="Z21" s="69"/>
-      <c r="AA21" s="69"/>
-      <c r="AB21" s="69"/>
-      <c r="AC21" s="69"/>
-      <c r="AD21" s="69"/>
-      <c r="AE21" s="69"/>
-      <c r="AF21" s="69"/>
-      <c r="AG21" s="69"/>
-      <c r="AH21" s="69"/>
-      <c r="AI21" s="69"/>
-      <c r="AJ21" s="69"/>
-      <c r="AK21" s="69"/>
-      <c r="AL21" s="69"/>
-      <c r="AM21" s="69"/>
-      <c r="AN21" s="69"/>
-      <c r="AO21" s="69"/>
-      <c r="AP21" s="69"/>
-      <c r="AQ21" s="69"/>
-      <c r="AR21" s="69"/>
-      <c r="AS21" s="69"/>
-      <c r="AT21" s="69"/>
-      <c r="AU21" s="69"/>
-      <c r="AV21" s="69"/>
-      <c r="AW21" s="69"/>
-      <c r="AX21" s="69"/>
-      <c r="AY21" s="69"/>
-      <c r="AZ21" s="69"/>
-      <c r="BA21" s="69"/>
-      <c r="BB21" s="69"/>
-      <c r="BC21" s="69"/>
-      <c r="BD21" s="69"/>
-      <c r="BE21" s="69"/>
-      <c r="BF21" s="69"/>
-      <c r="BG21" s="69"/>
-      <c r="BH21" s="69"/>
-      <c r="BI21" s="69"/>
-      <c r="BJ21" s="69"/>
-      <c r="BK21" s="69"/>
-      <c r="BL21" s="69"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="65"/>
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="65"/>
+      <c r="AE21" s="65"/>
+      <c r="AF21" s="65"/>
+      <c r="AG21" s="65"/>
+      <c r="AH21" s="65"/>
+      <c r="AI21" s="65"/>
+      <c r="AJ21" s="65"/>
+      <c r="AK21" s="65"/>
+      <c r="AL21" s="65"/>
+      <c r="AM21" s="65"/>
+      <c r="AN21" s="65"/>
+      <c r="AO21" s="65"/>
+      <c r="AP21" s="65"/>
+      <c r="AQ21" s="65"/>
+      <c r="AR21" s="65"/>
+      <c r="AS21" s="65"/>
+      <c r="AT21" s="65"/>
+      <c r="AU21" s="65"/>
+      <c r="AV21" s="65"/>
+      <c r="AW21" s="65"/>
+      <c r="AX21" s="65"/>
+      <c r="AY21" s="65"/>
+      <c r="AZ21" s="65"/>
+      <c r="BA21" s="65"/>
+      <c r="BB21" s="65"/>
+      <c r="BC21" s="65"/>
+      <c r="BD21" s="65"/>
+      <c r="BE21" s="65"/>
+      <c r="BF21" s="65"/>
+      <c r="BG21" s="65"/>
+      <c r="BH21" s="65"/>
+      <c r="BI21" s="65"/>
+      <c r="BJ21" s="65"/>
+      <c r="BK21" s="65"/>
+      <c r="BL21" s="65"/>
     </row>
     <row r="22" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
@@ -2019,62 +2109,62 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="27"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="69"/>
-      <c r="Z22" s="69"/>
-      <c r="AA22" s="69"/>
-      <c r="AB22" s="69"/>
-      <c r="AC22" s="69"/>
-      <c r="AD22" s="69"/>
-      <c r="AE22" s="69"/>
-      <c r="AF22" s="69"/>
-      <c r="AG22" s="69"/>
-      <c r="AH22" s="69"/>
-      <c r="AI22" s="69"/>
-      <c r="AJ22" s="69"/>
-      <c r="AK22" s="69"/>
-      <c r="AL22" s="69"/>
-      <c r="AM22" s="69"/>
-      <c r="AN22" s="69"/>
-      <c r="AO22" s="69"/>
-      <c r="AP22" s="69"/>
-      <c r="AQ22" s="69"/>
-      <c r="AR22" s="69"/>
-      <c r="AS22" s="69"/>
-      <c r="AT22" s="69"/>
-      <c r="AU22" s="69"/>
-      <c r="AV22" s="69"/>
-      <c r="AW22" s="69"/>
-      <c r="AX22" s="69"/>
-      <c r="AY22" s="69"/>
-      <c r="AZ22" s="69"/>
-      <c r="BA22" s="69"/>
-      <c r="BB22" s="69"/>
-      <c r="BC22" s="69"/>
-      <c r="BD22" s="69"/>
-      <c r="BE22" s="69"/>
-      <c r="BF22" s="69"/>
-      <c r="BG22" s="69"/>
-      <c r="BH22" s="69"/>
-      <c r="BI22" s="69"/>
-      <c r="BJ22" s="69"/>
-      <c r="BK22" s="69"/>
-      <c r="BL22" s="69"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="65"/>
+      <c r="AE22" s="65"/>
+      <c r="AF22" s="65"/>
+      <c r="AG22" s="65"/>
+      <c r="AH22" s="65"/>
+      <c r="AI22" s="65"/>
+      <c r="AJ22" s="65"/>
+      <c r="AK22" s="65"/>
+      <c r="AL22" s="65"/>
+      <c r="AM22" s="65"/>
+      <c r="AN22" s="65"/>
+      <c r="AO22" s="65"/>
+      <c r="AP22" s="65"/>
+      <c r="AQ22" s="65"/>
+      <c r="AR22" s="65"/>
+      <c r="AS22" s="65"/>
+      <c r="AT22" s="65"/>
+      <c r="AU22" s="65"/>
+      <c r="AV22" s="65"/>
+      <c r="AW22" s="65"/>
+      <c r="AX22" s="65"/>
+      <c r="AY22" s="65"/>
+      <c r="AZ22" s="65"/>
+      <c r="BA22" s="65"/>
+      <c r="BB22" s="65"/>
+      <c r="BC22" s="65"/>
+      <c r="BD22" s="65"/>
+      <c r="BE22" s="65"/>
+      <c r="BF22" s="65"/>
+      <c r="BG22" s="65"/>
+      <c r="BH22" s="65"/>
+      <c r="BI22" s="65"/>
+      <c r="BJ22" s="65"/>
+      <c r="BK22" s="65"/>
+      <c r="BL22" s="65"/>
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
@@ -2091,62 +2181,62 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="27"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="69"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="69"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="69"/>
-      <c r="Y23" s="69"/>
-      <c r="Z23" s="69"/>
-      <c r="AA23" s="69"/>
-      <c r="AB23" s="69"/>
-      <c r="AC23" s="69"/>
-      <c r="AD23" s="69"/>
-      <c r="AE23" s="69"/>
-      <c r="AF23" s="69"/>
-      <c r="AG23" s="69"/>
-      <c r="AH23" s="69"/>
-      <c r="AI23" s="69"/>
-      <c r="AJ23" s="69"/>
-      <c r="AK23" s="69"/>
-      <c r="AL23" s="69"/>
-      <c r="AM23" s="69"/>
-      <c r="AN23" s="69"/>
-      <c r="AO23" s="69"/>
-      <c r="AP23" s="69"/>
-      <c r="AQ23" s="69"/>
-      <c r="AR23" s="69"/>
-      <c r="AS23" s="69"/>
-      <c r="AT23" s="69"/>
-      <c r="AU23" s="69"/>
-      <c r="AV23" s="69"/>
-      <c r="AW23" s="69"/>
-      <c r="AX23" s="69"/>
-      <c r="AY23" s="69"/>
-      <c r="AZ23" s="69"/>
-      <c r="BA23" s="69"/>
-      <c r="BB23" s="69"/>
-      <c r="BC23" s="69"/>
-      <c r="BD23" s="69"/>
-      <c r="BE23" s="69"/>
-      <c r="BF23" s="69"/>
-      <c r="BG23" s="69"/>
-      <c r="BH23" s="69"/>
-      <c r="BI23" s="69"/>
-      <c r="BJ23" s="69"/>
-      <c r="BK23" s="69"/>
-      <c r="BL23" s="69"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="65"/>
+      <c r="AF23" s="65"/>
+      <c r="AG23" s="65"/>
+      <c r="AH23" s="65"/>
+      <c r="AI23" s="65"/>
+      <c r="AJ23" s="65"/>
+      <c r="AK23" s="65"/>
+      <c r="AL23" s="65"/>
+      <c r="AM23" s="65"/>
+      <c r="AN23" s="65"/>
+      <c r="AO23" s="65"/>
+      <c r="AP23" s="65"/>
+      <c r="AQ23" s="65"/>
+      <c r="AR23" s="65"/>
+      <c r="AS23" s="65"/>
+      <c r="AT23" s="65"/>
+      <c r="AU23" s="65"/>
+      <c r="AV23" s="65"/>
+      <c r="AW23" s="65"/>
+      <c r="AX23" s="65"/>
+      <c r="AY23" s="65"/>
+      <c r="AZ23" s="65"/>
+      <c r="BA23" s="65"/>
+      <c r="BB23" s="65"/>
+      <c r="BC23" s="65"/>
+      <c r="BD23" s="65"/>
+      <c r="BE23" s="65"/>
+      <c r="BF23" s="65"/>
+      <c r="BG23" s="65"/>
+      <c r="BH23" s="65"/>
+      <c r="BI23" s="65"/>
+      <c r="BJ23" s="65"/>
+      <c r="BK23" s="65"/>
+      <c r="BL23" s="65"/>
     </row>
     <row r="24" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
@@ -2157,62 +2247,62 @@
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
       <c r="H24" s="38"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="69"/>
-      <c r="Z24" s="69"/>
-      <c r="AA24" s="69"/>
-      <c r="AB24" s="69"/>
-      <c r="AC24" s="69"/>
-      <c r="AD24" s="69"/>
-      <c r="AE24" s="69"/>
-      <c r="AF24" s="69"/>
-      <c r="AG24" s="69"/>
-      <c r="AH24" s="69"/>
-      <c r="AI24" s="69"/>
-      <c r="AJ24" s="69"/>
-      <c r="AK24" s="69"/>
-      <c r="AL24" s="69"/>
-      <c r="AM24" s="69"/>
-      <c r="AN24" s="69"/>
-      <c r="AO24" s="69"/>
-      <c r="AP24" s="69"/>
-      <c r="AQ24" s="69"/>
-      <c r="AR24" s="69"/>
-      <c r="AS24" s="69"/>
-      <c r="AT24" s="69"/>
-      <c r="AU24" s="69"/>
-      <c r="AV24" s="69"/>
-      <c r="AW24" s="69"/>
-      <c r="AX24" s="69"/>
-      <c r="AY24" s="69"/>
-      <c r="AZ24" s="69"/>
-      <c r="BA24" s="69"/>
-      <c r="BB24" s="69"/>
-      <c r="BC24" s="69"/>
-      <c r="BD24" s="69"/>
-      <c r="BE24" s="69"/>
-      <c r="BF24" s="69"/>
-      <c r="BG24" s="69"/>
-      <c r="BH24" s="69"/>
-      <c r="BI24" s="69"/>
-      <c r="BJ24" s="69"/>
-      <c r="BK24" s="69"/>
-      <c r="BL24" s="69"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="65"/>
+      <c r="AH24" s="65"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="65"/>
+      <c r="AK24" s="65"/>
+      <c r="AL24" s="65"/>
+      <c r="AM24" s="65"/>
+      <c r="AN24" s="65"/>
+      <c r="AO24" s="65"/>
+      <c r="AP24" s="65"/>
+      <c r="AQ24" s="65"/>
+      <c r="AR24" s="65"/>
+      <c r="AS24" s="65"/>
+      <c r="AT24" s="65"/>
+      <c r="AU24" s="65"/>
+      <c r="AV24" s="65"/>
+      <c r="AW24" s="65"/>
+      <c r="AX24" s="65"/>
+      <c r="AY24" s="65"/>
+      <c r="AZ24" s="65"/>
+      <c r="BA24" s="65"/>
+      <c r="BB24" s="65"/>
+      <c r="BC24" s="65"/>
+      <c r="BD24" s="65"/>
+      <c r="BE24" s="65"/>
+      <c r="BF24" s="65"/>
+      <c r="BG24" s="65"/>
+      <c r="BH24" s="65"/>
+      <c r="BI24" s="65"/>
+      <c r="BJ24" s="65"/>
+      <c r="BK24" s="65"/>
+      <c r="BL24" s="65"/>
     </row>
     <row r="25" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -2225,62 +2315,62 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="27"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="69"/>
-      <c r="AA25" s="69"/>
-      <c r="AB25" s="69"/>
-      <c r="AC25" s="69"/>
-      <c r="AD25" s="69"/>
-      <c r="AE25" s="69"/>
-      <c r="AF25" s="69"/>
-      <c r="AG25" s="69"/>
-      <c r="AH25" s="69"/>
-      <c r="AI25" s="69"/>
-      <c r="AJ25" s="69"/>
-      <c r="AK25" s="69"/>
-      <c r="AL25" s="69"/>
-      <c r="AM25" s="69"/>
-      <c r="AN25" s="69"/>
-      <c r="AO25" s="69"/>
-      <c r="AP25" s="69"/>
-      <c r="AQ25" s="69"/>
-      <c r="AR25" s="69"/>
-      <c r="AS25" s="69"/>
-      <c r="AT25" s="69"/>
-      <c r="AU25" s="69"/>
-      <c r="AV25" s="69"/>
-      <c r="AW25" s="69"/>
-      <c r="AX25" s="69"/>
-      <c r="AY25" s="69"/>
-      <c r="AZ25" s="69"/>
-      <c r="BA25" s="69"/>
-      <c r="BB25" s="69"/>
-      <c r="BC25" s="69"/>
-      <c r="BD25" s="69"/>
-      <c r="BE25" s="69"/>
-      <c r="BF25" s="69"/>
-      <c r="BG25" s="69"/>
-      <c r="BH25" s="69"/>
-      <c r="BI25" s="69"/>
-      <c r="BJ25" s="69"/>
-      <c r="BK25" s="69"/>
-      <c r="BL25" s="69"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="65"/>
+      <c r="AF25" s="65"/>
+      <c r="AG25" s="65"/>
+      <c r="AH25" s="65"/>
+      <c r="AI25" s="65"/>
+      <c r="AJ25" s="65"/>
+      <c r="AK25" s="65"/>
+      <c r="AL25" s="65"/>
+      <c r="AM25" s="65"/>
+      <c r="AN25" s="65"/>
+      <c r="AO25" s="65"/>
+      <c r="AP25" s="65"/>
+      <c r="AQ25" s="65"/>
+      <c r="AR25" s="65"/>
+      <c r="AS25" s="65"/>
+      <c r="AT25" s="65"/>
+      <c r="AU25" s="65"/>
+      <c r="AV25" s="65"/>
+      <c r="AW25" s="65"/>
+      <c r="AX25" s="65"/>
+      <c r="AY25" s="65"/>
+      <c r="AZ25" s="65"/>
+      <c r="BA25" s="65"/>
+      <c r="BB25" s="65"/>
+      <c r="BC25" s="65"/>
+      <c r="BD25" s="65"/>
+      <c r="BE25" s="65"/>
+      <c r="BF25" s="65"/>
+      <c r="BG25" s="65"/>
+      <c r="BH25" s="65"/>
+      <c r="BI25" s="65"/>
+      <c r="BJ25" s="65"/>
+      <c r="BK25" s="65"/>
+      <c r="BL25" s="65"/>
     </row>
     <row r="26" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22"/>
@@ -2291,62 +2381,62 @@
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="38"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="69"/>
-      <c r="Y26" s="69"/>
-      <c r="Z26" s="69"/>
-      <c r="AA26" s="69"/>
-      <c r="AB26" s="69"/>
-      <c r="AC26" s="69"/>
-      <c r="AD26" s="69"/>
-      <c r="AE26" s="69"/>
-      <c r="AF26" s="69"/>
-      <c r="AG26" s="69"/>
-      <c r="AH26" s="69"/>
-      <c r="AI26" s="69"/>
-      <c r="AJ26" s="69"/>
-      <c r="AK26" s="69"/>
-      <c r="AL26" s="69"/>
-      <c r="AM26" s="69"/>
-      <c r="AN26" s="69"/>
-      <c r="AO26" s="69"/>
-      <c r="AP26" s="69"/>
-      <c r="AQ26" s="69"/>
-      <c r="AR26" s="69"/>
-      <c r="AS26" s="69"/>
-      <c r="AT26" s="69"/>
-      <c r="AU26" s="69"/>
-      <c r="AV26" s="69"/>
-      <c r="AW26" s="69"/>
-      <c r="AX26" s="69"/>
-      <c r="AY26" s="69"/>
-      <c r="AZ26" s="69"/>
-      <c r="BA26" s="69"/>
-      <c r="BB26" s="69"/>
-      <c r="BC26" s="69"/>
-      <c r="BD26" s="69"/>
-      <c r="BE26" s="69"/>
-      <c r="BF26" s="69"/>
-      <c r="BG26" s="69"/>
-      <c r="BH26" s="69"/>
-      <c r="BI26" s="69"/>
-      <c r="BJ26" s="69"/>
-      <c r="BK26" s="69"/>
-      <c r="BL26" s="69"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="65"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="65"/>
+      <c r="AD26" s="65"/>
+      <c r="AE26" s="65"/>
+      <c r="AF26" s="65"/>
+      <c r="AG26" s="65"/>
+      <c r="AH26" s="65"/>
+      <c r="AI26" s="65"/>
+      <c r="AJ26" s="65"/>
+      <c r="AK26" s="65"/>
+      <c r="AL26" s="65"/>
+      <c r="AM26" s="65"/>
+      <c r="AN26" s="65"/>
+      <c r="AO26" s="65"/>
+      <c r="AP26" s="65"/>
+      <c r="AQ26" s="65"/>
+      <c r="AR26" s="65"/>
+      <c r="AS26" s="65"/>
+      <c r="AT26" s="65"/>
+      <c r="AU26" s="65"/>
+      <c r="AV26" s="65"/>
+      <c r="AW26" s="65"/>
+      <c r="AX26" s="65"/>
+      <c r="AY26" s="65"/>
+      <c r="AZ26" s="65"/>
+      <c r="BA26" s="65"/>
+      <c r="BB26" s="65"/>
+      <c r="BC26" s="65"/>
+      <c r="BD26" s="65"/>
+      <c r="BE26" s="65"/>
+      <c r="BF26" s="65"/>
+      <c r="BG26" s="65"/>
+      <c r="BH26" s="65"/>
+      <c r="BI26" s="65"/>
+      <c r="BJ26" s="65"/>
+      <c r="BK26" s="65"/>
+      <c r="BL26" s="65"/>
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
@@ -2359,768 +2449,782 @@
       <c r="F27" s="44"/>
       <c r="G27" s="44"/>
       <c r="H27" s="44"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="69"/>
-      <c r="AC27" s="69"/>
-      <c r="AD27" s="69"/>
-      <c r="AE27" s="69"/>
-      <c r="AF27" s="69"/>
-      <c r="AG27" s="69"/>
-      <c r="AH27" s="69"/>
-      <c r="AI27" s="69"/>
-      <c r="AJ27" s="69"/>
-      <c r="AK27" s="69"/>
-      <c r="AL27" s="69"/>
-      <c r="AM27" s="69"/>
-      <c r="AN27" s="69"/>
-      <c r="AO27" s="69"/>
-      <c r="AP27" s="69"/>
-      <c r="AQ27" s="69"/>
-      <c r="AR27" s="69"/>
-      <c r="AS27" s="69"/>
-      <c r="AT27" s="69"/>
-      <c r="AU27" s="69"/>
-      <c r="AV27" s="69"/>
-      <c r="AW27" s="69"/>
-      <c r="AX27" s="69"/>
-      <c r="AY27" s="69"/>
-      <c r="AZ27" s="69"/>
-      <c r="BA27" s="69"/>
-      <c r="BB27" s="69"/>
-      <c r="BC27" s="69"/>
-      <c r="BD27" s="69"/>
-      <c r="BE27" s="69"/>
-      <c r="BF27" s="69"/>
-      <c r="BG27" s="69"/>
-      <c r="BH27" s="69"/>
-      <c r="BI27" s="69"/>
-      <c r="BJ27" s="69"/>
-      <c r="BK27" s="69"/>
-      <c r="BL27" s="69"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="65"/>
+      <c r="Y27" s="65"/>
+      <c r="Z27" s="65"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="65"/>
+      <c r="AD27" s="65"/>
+      <c r="AE27" s="65"/>
+      <c r="AF27" s="65"/>
+      <c r="AG27" s="65"/>
+      <c r="AH27" s="65"/>
+      <c r="AI27" s="65"/>
+      <c r="AJ27" s="65"/>
+      <c r="AK27" s="65"/>
+      <c r="AL27" s="65"/>
+      <c r="AM27" s="65"/>
+      <c r="AN27" s="65"/>
+      <c r="AO27" s="65"/>
+      <c r="AP27" s="65"/>
+      <c r="AQ27" s="65"/>
+      <c r="AR27" s="65"/>
+      <c r="AS27" s="65"/>
+      <c r="AT27" s="65"/>
+      <c r="AU27" s="65"/>
+      <c r="AV27" s="65"/>
+      <c r="AW27" s="65"/>
+      <c r="AX27" s="65"/>
+      <c r="AY27" s="65"/>
+      <c r="AZ27" s="65"/>
+      <c r="BA27" s="65"/>
+      <c r="BB27" s="65"/>
+      <c r="BC27" s="65"/>
+      <c r="BD27" s="65"/>
+      <c r="BE27" s="65"/>
+      <c r="BF27" s="65"/>
+      <c r="BG27" s="65"/>
+      <c r="BH27" s="65"/>
+      <c r="BI27" s="65"/>
+      <c r="BJ27" s="65"/>
+      <c r="BK27" s="65"/>
+      <c r="BL27" s="65"/>
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="106" t="s">
         <v>171</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="112" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="118"/>
       <c r="D28" s="44"/>
       <c r="E28" s="44"/>
       <c r="F28" s="44"/>
       <c r="G28" s="44"/>
       <c r="H28" s="44"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69"/>
-      <c r="T28" s="69"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="69"/>
-      <c r="W28" s="69"/>
-      <c r="X28" s="69"/>
-      <c r="Y28" s="69"/>
-      <c r="Z28" s="69"/>
-      <c r="AA28" s="69"/>
-      <c r="AB28" s="69"/>
-      <c r="AC28" s="69"/>
-      <c r="AD28" s="69"/>
-      <c r="AE28" s="69"/>
-      <c r="AF28" s="69"/>
-      <c r="AG28" s="69"/>
-      <c r="AH28" s="69"/>
-      <c r="AI28" s="69"/>
-      <c r="AJ28" s="69"/>
-      <c r="AK28" s="69"/>
-      <c r="AL28" s="69"/>
-      <c r="AM28" s="69"/>
-      <c r="AN28" s="69"/>
-      <c r="AO28" s="69"/>
-      <c r="AP28" s="69"/>
-      <c r="AQ28" s="69"/>
-      <c r="AR28" s="69"/>
-      <c r="AS28" s="69"/>
-      <c r="AT28" s="69"/>
-      <c r="AU28" s="69"/>
-      <c r="AV28" s="69"/>
-      <c r="AW28" s="69"/>
-      <c r="AX28" s="69"/>
-      <c r="AY28" s="69"/>
-      <c r="AZ28" s="69"/>
-      <c r="BA28" s="69"/>
-      <c r="BB28" s="69"/>
-      <c r="BC28" s="69"/>
-      <c r="BD28" s="69"/>
-      <c r="BE28" s="69"/>
-      <c r="BF28" s="69"/>
-      <c r="BG28" s="69"/>
-      <c r="BH28" s="69"/>
-      <c r="BI28" s="69"/>
-      <c r="BJ28" s="69"/>
-      <c r="BK28" s="69"/>
-      <c r="BL28" s="69"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="65"/>
+      <c r="S28" s="65"/>
+      <c r="T28" s="65"/>
+      <c r="U28" s="65"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="65"/>
+      <c r="Z28" s="65"/>
+      <c r="AA28" s="65"/>
+      <c r="AB28" s="65"/>
+      <c r="AC28" s="65"/>
+      <c r="AD28" s="65"/>
+      <c r="AE28" s="65"/>
+      <c r="AF28" s="65"/>
+      <c r="AG28" s="65"/>
+      <c r="AH28" s="65"/>
+      <c r="AI28" s="65"/>
+      <c r="AJ28" s="65"/>
+      <c r="AK28" s="65"/>
+      <c r="AL28" s="65"/>
+      <c r="AM28" s="65"/>
+      <c r="AN28" s="65"/>
+      <c r="AO28" s="65"/>
+      <c r="AP28" s="65"/>
+      <c r="AQ28" s="65"/>
+      <c r="AR28" s="65"/>
+      <c r="AS28" s="65"/>
+      <c r="AT28" s="65"/>
+      <c r="AU28" s="65"/>
+      <c r="AV28" s="65"/>
+      <c r="AW28" s="65"/>
+      <c r="AX28" s="65"/>
+      <c r="AY28" s="65"/>
+      <c r="AZ28" s="65"/>
+      <c r="BA28" s="65"/>
+      <c r="BB28" s="65"/>
+      <c r="BC28" s="65"/>
+      <c r="BD28" s="65"/>
+      <c r="BE28" s="65"/>
+      <c r="BF28" s="65"/>
+      <c r="BG28" s="65"/>
+      <c r="BH28" s="65"/>
+      <c r="BI28" s="65"/>
+      <c r="BJ28" s="65"/>
+      <c r="BK28" s="65"/>
+      <c r="BL28" s="65"/>
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A29" s="86" t="s">
+      <c r="A29" s="121" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="122" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C29" s="123" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="69"/>
-      <c r="X29" s="69"/>
-      <c r="Y29" s="69"/>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="69"/>
-      <c r="AB29" s="69"/>
-      <c r="AC29" s="69"/>
-      <c r="AD29" s="69"/>
-      <c r="AE29" s="69"/>
-      <c r="AF29" s="69"/>
-      <c r="AG29" s="69"/>
-      <c r="AH29" s="69"/>
-      <c r="AI29" s="69"/>
-      <c r="AJ29" s="69"/>
-      <c r="AK29" s="69"/>
-      <c r="AL29" s="69"/>
-      <c r="AM29" s="69"/>
-      <c r="AN29" s="69"/>
-      <c r="AO29" s="69"/>
-      <c r="AP29" s="69"/>
-      <c r="AQ29" s="69"/>
-      <c r="AR29" s="69"/>
-      <c r="AS29" s="69"/>
-      <c r="AT29" s="69"/>
-      <c r="AU29" s="69"/>
-      <c r="AV29" s="69"/>
-      <c r="AW29" s="69"/>
-      <c r="AX29" s="69"/>
-      <c r="AY29" s="69"/>
-      <c r="AZ29" s="69"/>
-      <c r="BA29" s="69"/>
-      <c r="BB29" s="69"/>
-      <c r="BC29" s="69"/>
-      <c r="BD29" s="69"/>
-      <c r="BE29" s="69"/>
-      <c r="BF29" s="69"/>
-      <c r="BG29" s="69"/>
-      <c r="BH29" s="69"/>
-      <c r="BI29" s="69"/>
-      <c r="BJ29" s="69"/>
-      <c r="BK29" s="69"/>
-      <c r="BL29" s="69"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="65"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="65"/>
+      <c r="Z29" s="65"/>
+      <c r="AA29" s="65"/>
+      <c r="AB29" s="65"/>
+      <c r="AC29" s="65"/>
+      <c r="AD29" s="65"/>
+      <c r="AE29" s="65"/>
+      <c r="AF29" s="65"/>
+      <c r="AG29" s="65"/>
+      <c r="AH29" s="65"/>
+      <c r="AI29" s="65"/>
+      <c r="AJ29" s="65"/>
+      <c r="AK29" s="65"/>
+      <c r="AL29" s="65"/>
+      <c r="AM29" s="65"/>
+      <c r="AN29" s="65"/>
+      <c r="AO29" s="65"/>
+      <c r="AP29" s="65"/>
+      <c r="AQ29" s="65"/>
+      <c r="AR29" s="65"/>
+      <c r="AS29" s="65"/>
+      <c r="AT29" s="65"/>
+      <c r="AU29" s="65"/>
+      <c r="AV29" s="65"/>
+      <c r="AW29" s="65"/>
+      <c r="AX29" s="65"/>
+      <c r="AY29" s="65"/>
+      <c r="AZ29" s="65"/>
+      <c r="BA29" s="65"/>
+      <c r="BB29" s="65"/>
+      <c r="BC29" s="65"/>
+      <c r="BD29" s="65"/>
+      <c r="BE29" s="65"/>
+      <c r="BF29" s="65"/>
+      <c r="BG29" s="65"/>
+      <c r="BH29" s="65"/>
+      <c r="BI29" s="65"/>
+      <c r="BJ29" s="65"/>
+      <c r="BK29" s="65"/>
+      <c r="BL29" s="65"/>
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A30" s="86"/>
-      <c r="B30" s="80">
+      <c r="A30" s="124"/>
+      <c r="B30" s="129">
         <v>2954</v>
       </c>
-      <c r="C30" s="80">
+      <c r="C30" s="130">
         <v>3190</v>
       </c>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="76"/>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="69"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="69"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="69"/>
-      <c r="W30" s="69"/>
-      <c r="X30" s="69"/>
-      <c r="Y30" s="69"/>
-      <c r="Z30" s="69"/>
-      <c r="AA30" s="69"/>
-      <c r="AB30" s="69"/>
-      <c r="AC30" s="69"/>
-      <c r="AD30" s="69"/>
-      <c r="AE30" s="69"/>
-      <c r="AF30" s="69"/>
-      <c r="AG30" s="69"/>
-      <c r="AH30" s="69"/>
-      <c r="AI30" s="69"/>
-      <c r="AJ30" s="69"/>
-      <c r="AK30" s="69"/>
-      <c r="AL30" s="69"/>
-      <c r="AM30" s="69"/>
-      <c r="AN30" s="69"/>
-      <c r="AO30" s="69"/>
-      <c r="AP30" s="69"/>
-      <c r="AQ30" s="69"/>
-      <c r="AR30" s="69"/>
-      <c r="AS30" s="69"/>
-      <c r="AT30" s="69"/>
-      <c r="AU30" s="69"/>
-      <c r="AV30" s="69"/>
-      <c r="AW30" s="69"/>
-      <c r="AX30" s="69"/>
-      <c r="AY30" s="69"/>
-      <c r="AZ30" s="69"/>
-      <c r="BA30" s="69"/>
-      <c r="BB30" s="69"/>
-      <c r="BC30" s="69"/>
-      <c r="BD30" s="69"/>
-      <c r="BE30" s="69"/>
-      <c r="BF30" s="69"/>
-      <c r="BG30" s="69"/>
-      <c r="BH30" s="69"/>
-      <c r="BI30" s="69"/>
-      <c r="BJ30" s="69"/>
-      <c r="BK30" s="69"/>
-      <c r="BL30" s="69"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="65"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="65"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="65"/>
+      <c r="Z30" s="65"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="65"/>
+      <c r="AC30" s="65"/>
+      <c r="AD30" s="65"/>
+      <c r="AE30" s="65"/>
+      <c r="AF30" s="65"/>
+      <c r="AG30" s="65"/>
+      <c r="AH30" s="65"/>
+      <c r="AI30" s="65"/>
+      <c r="AJ30" s="65"/>
+      <c r="AK30" s="65"/>
+      <c r="AL30" s="65"/>
+      <c r="AM30" s="65"/>
+      <c r="AN30" s="65"/>
+      <c r="AO30" s="65"/>
+      <c r="AP30" s="65"/>
+      <c r="AQ30" s="65"/>
+      <c r="AR30" s="65"/>
+      <c r="AS30" s="65"/>
+      <c r="AT30" s="65"/>
+      <c r="AU30" s="65"/>
+      <c r="AV30" s="65"/>
+      <c r="AW30" s="65"/>
+      <c r="AX30" s="65"/>
+      <c r="AY30" s="65"/>
+      <c r="AZ30" s="65"/>
+      <c r="BA30" s="65"/>
+      <c r="BB30" s="65"/>
+      <c r="BC30" s="65"/>
+      <c r="BD30" s="65"/>
+      <c r="BE30" s="65"/>
+      <c r="BF30" s="65"/>
+      <c r="BG30" s="65"/>
+      <c r="BH30" s="65"/>
+      <c r="BI30" s="65"/>
+      <c r="BJ30" s="65"/>
+      <c r="BK30" s="65"/>
+      <c r="BL30" s="65"/>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="80">
-        <v>1</v>
-      </c>
-      <c r="C31" s="80">
+      <c r="B31" s="125">
+        <v>1</v>
+      </c>
+      <c r="C31" s="125">
         <v>2</v>
       </c>
-      <c r="D31" s="80">
+      <c r="D31" s="125">
         <v>3</v>
       </c>
-      <c r="E31" s="80">
+      <c r="E31" s="126">
         <v>4</v>
       </c>
-      <c r="F31" s="35"/>
+      <c r="F31" s="94"/>
       <c r="G31" s="44"/>
       <c r="H31" s="44"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="69"/>
-      <c r="T31" s="69"/>
-      <c r="U31" s="69"/>
-      <c r="V31" s="69"/>
-      <c r="W31" s="69"/>
-      <c r="X31" s="69"/>
-      <c r="Y31" s="69"/>
-      <c r="Z31" s="69"/>
-      <c r="AA31" s="69"/>
-      <c r="AB31" s="69"/>
-      <c r="AC31" s="69"/>
-      <c r="AD31" s="69"/>
-      <c r="AE31" s="69"/>
-      <c r="AF31" s="69"/>
-      <c r="AG31" s="69"/>
-      <c r="AH31" s="69"/>
-      <c r="AI31" s="69"/>
-      <c r="AJ31" s="69"/>
-      <c r="AK31" s="69"/>
-      <c r="AL31" s="69"/>
-      <c r="AM31" s="69"/>
-      <c r="AN31" s="69"/>
-      <c r="AO31" s="69"/>
-      <c r="AP31" s="69"/>
-      <c r="AQ31" s="69"/>
-      <c r="AR31" s="69"/>
-      <c r="AS31" s="69"/>
-      <c r="AT31" s="69"/>
-      <c r="AU31" s="69"/>
-      <c r="AV31" s="69"/>
-      <c r="AW31" s="69"/>
-      <c r="AX31" s="69"/>
-      <c r="AY31" s="69"/>
-      <c r="AZ31" s="69"/>
-      <c r="BA31" s="69"/>
-      <c r="BB31" s="69"/>
-      <c r="BC31" s="69"/>
-      <c r="BD31" s="69"/>
-      <c r="BE31" s="69"/>
-      <c r="BF31" s="69"/>
-      <c r="BG31" s="69"/>
-      <c r="BH31" s="69"/>
-      <c r="BI31" s="69"/>
-      <c r="BJ31" s="69"/>
-      <c r="BK31" s="69"/>
-      <c r="BL31" s="69"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="65"/>
+      <c r="R31" s="65"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="65"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="65"/>
+      <c r="Z31" s="65"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="65"/>
+      <c r="AC31" s="65"/>
+      <c r="AD31" s="65"/>
+      <c r="AE31" s="65"/>
+      <c r="AF31" s="65"/>
+      <c r="AG31" s="65"/>
+      <c r="AH31" s="65"/>
+      <c r="AI31" s="65"/>
+      <c r="AJ31" s="65"/>
+      <c r="AK31" s="65"/>
+      <c r="AL31" s="65"/>
+      <c r="AM31" s="65"/>
+      <c r="AN31" s="65"/>
+      <c r="AO31" s="65"/>
+      <c r="AP31" s="65"/>
+      <c r="AQ31" s="65"/>
+      <c r="AR31" s="65"/>
+      <c r="AS31" s="65"/>
+      <c r="AT31" s="65"/>
+      <c r="AU31" s="65"/>
+      <c r="AV31" s="65"/>
+      <c r="AW31" s="65"/>
+      <c r="AX31" s="65"/>
+      <c r="AY31" s="65"/>
+      <c r="AZ31" s="65"/>
+      <c r="BA31" s="65"/>
+      <c r="BB31" s="65"/>
+      <c r="BC31" s="65"/>
+      <c r="BD31" s="65"/>
+      <c r="BE31" s="65"/>
+      <c r="BF31" s="65"/>
+      <c r="BG31" s="65"/>
+      <c r="BH31" s="65"/>
+      <c r="BI31" s="65"/>
+      <c r="BJ31" s="65"/>
+      <c r="BK31" s="65"/>
+      <c r="BL31" s="65"/>
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A32" s="88"/>
-      <c r="B32" s="80">
+      <c r="A32" s="103"/>
+      <c r="B32" s="127">
         <v>21</v>
       </c>
-      <c r="C32" s="80">
+      <c r="C32" s="127">
         <v>23</v>
       </c>
-      <c r="D32" s="80">
+      <c r="D32" s="127">
         <v>23</v>
       </c>
-      <c r="E32" s="80">
+      <c r="E32" s="128">
         <v>23</v>
       </c>
-      <c r="F32" s="27"/>
+      <c r="F32" s="95"/>
       <c r="G32" s="44"/>
       <c r="H32" s="44"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="69"/>
-      <c r="S32" s="69"/>
-      <c r="T32" s="69"/>
-      <c r="U32" s="69"/>
-      <c r="V32" s="69"/>
-      <c r="W32" s="69"/>
-      <c r="X32" s="69"/>
-      <c r="Y32" s="69"/>
-      <c r="Z32" s="69"/>
-      <c r="AA32" s="69"/>
-      <c r="AB32" s="69"/>
-      <c r="AC32" s="69"/>
-      <c r="AD32" s="69"/>
-      <c r="AE32" s="69"/>
-      <c r="AF32" s="69"/>
-      <c r="AG32" s="69"/>
-      <c r="AH32" s="69"/>
-      <c r="AI32" s="69"/>
-      <c r="AJ32" s="69"/>
-      <c r="AK32" s="69"/>
-      <c r="AL32" s="69"/>
-      <c r="AM32" s="69"/>
-      <c r="AN32" s="69"/>
-      <c r="AO32" s="69"/>
-      <c r="AP32" s="69"/>
-      <c r="AQ32" s="69"/>
-      <c r="AR32" s="69"/>
-      <c r="AS32" s="69"/>
-      <c r="AT32" s="69"/>
-      <c r="AU32" s="69"/>
-      <c r="AV32" s="69"/>
-      <c r="AW32" s="69"/>
-      <c r="AX32" s="69"/>
-      <c r="AY32" s="69"/>
-      <c r="AZ32" s="69"/>
-      <c r="BA32" s="69"/>
-      <c r="BB32" s="69"/>
-      <c r="BC32" s="69"/>
-      <c r="BD32" s="69"/>
-      <c r="BE32" s="69"/>
-      <c r="BF32" s="69"/>
-      <c r="BG32" s="69"/>
-      <c r="BH32" s="69"/>
-      <c r="BI32" s="69"/>
-      <c r="BJ32" s="69"/>
-      <c r="BK32" s="69"/>
-      <c r="BL32" s="69"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="65"/>
+      <c r="R32" s="65"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="65"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="65"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="65"/>
+      <c r="Z32" s="65"/>
+      <c r="AA32" s="65"/>
+      <c r="AB32" s="65"/>
+      <c r="AC32" s="65"/>
+      <c r="AD32" s="65"/>
+      <c r="AE32" s="65"/>
+      <c r="AF32" s="65"/>
+      <c r="AG32" s="65"/>
+      <c r="AH32" s="65"/>
+      <c r="AI32" s="65"/>
+      <c r="AJ32" s="65"/>
+      <c r="AK32" s="65"/>
+      <c r="AL32" s="65"/>
+      <c r="AM32" s="65"/>
+      <c r="AN32" s="65"/>
+      <c r="AO32" s="65"/>
+      <c r="AP32" s="65"/>
+      <c r="AQ32" s="65"/>
+      <c r="AR32" s="65"/>
+      <c r="AS32" s="65"/>
+      <c r="AT32" s="65"/>
+      <c r="AU32" s="65"/>
+      <c r="AV32" s="65"/>
+      <c r="AW32" s="65"/>
+      <c r="AX32" s="65"/>
+      <c r="AY32" s="65"/>
+      <c r="AZ32" s="65"/>
+      <c r="BA32" s="65"/>
+      <c r="BB32" s="65"/>
+      <c r="BC32" s="65"/>
+      <c r="BD32" s="65"/>
+      <c r="BE32" s="65"/>
+      <c r="BF32" s="65"/>
+      <c r="BG32" s="65"/>
+      <c r="BH32" s="65"/>
+      <c r="BI32" s="65"/>
+      <c r="BJ32" s="65"/>
+      <c r="BK32" s="65"/>
+      <c r="BL32" s="65"/>
     </row>
     <row r="33" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A33" s="68" t="s">
-        <v>164</v>
-      </c>
-      <c r="B33" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
+      <c r="A33" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="125">
+        <v>1</v>
+      </c>
+      <c r="C33" s="125">
+        <v>2</v>
+      </c>
+      <c r="D33" s="125">
+        <v>3</v>
+      </c>
+      <c r="E33" s="126">
+        <v>4</v>
+      </c>
+      <c r="F33" s="94"/>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="64"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="14"/>
-      <c r="AE33" s="14"/>
-      <c r="AF33" s="14"/>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="14"/>
-      <c r="AI33" s="14"/>
-      <c r="AJ33" s="14"/>
-      <c r="AK33" s="14"/>
-      <c r="AL33" s="14"/>
-      <c r="AM33" s="14"/>
-      <c r="AN33" s="14"/>
-      <c r="AO33" s="14"/>
-      <c r="AP33" s="14"/>
-      <c r="AQ33" s="14"/>
-      <c r="AR33" s="14"/>
-      <c r="AS33" s="14"/>
-      <c r="AT33" s="14"/>
-      <c r="AU33" s="14"/>
-      <c r="AV33" s="14"/>
-      <c r="AW33" s="14"/>
-      <c r="AX33" s="14"/>
-      <c r="AY33" s="14"/>
-      <c r="AZ33" s="14"/>
-      <c r="BA33" s="14"/>
-      <c r="BB33" s="14"/>
-      <c r="BC33" s="14"/>
-      <c r="BD33" s="14"/>
-      <c r="BE33" s="14"/>
-      <c r="BF33" s="14"/>
-      <c r="BG33" s="14"/>
-      <c r="BH33" s="69"/>
-      <c r="BI33" s="69"/>
-      <c r="BJ33" s="69"/>
-      <c r="BK33" s="69"/>
-      <c r="BL33" s="69"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="65"/>
+      <c r="R33" s="65"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="65"/>
+      <c r="U33" s="65"/>
+      <c r="V33" s="65"/>
+      <c r="W33" s="65"/>
+      <c r="X33" s="65"/>
+      <c r="Y33" s="65"/>
+      <c r="Z33" s="65"/>
+      <c r="AA33" s="65"/>
+      <c r="AB33" s="65"/>
+      <c r="AC33" s="65"/>
+      <c r="AD33" s="65"/>
+      <c r="AE33" s="65"/>
+      <c r="AF33" s="65"/>
+      <c r="AG33" s="65"/>
+      <c r="AH33" s="65"/>
+      <c r="AI33" s="65"/>
+      <c r="AJ33" s="65"/>
+      <c r="AK33" s="65"/>
+      <c r="AL33" s="65"/>
+      <c r="AM33" s="65"/>
+      <c r="AN33" s="65"/>
+      <c r="AO33" s="65"/>
+      <c r="AP33" s="65"/>
+      <c r="AQ33" s="65"/>
+      <c r="AR33" s="65"/>
+      <c r="AS33" s="65"/>
+      <c r="AT33" s="65"/>
+      <c r="AU33" s="65"/>
+      <c r="AV33" s="65"/>
+      <c r="AW33" s="65"/>
+      <c r="AX33" s="65"/>
+      <c r="AY33" s="65"/>
+      <c r="AZ33" s="65"/>
+      <c r="BA33" s="65"/>
+      <c r="BB33" s="65"/>
+      <c r="BC33" s="65"/>
+      <c r="BD33" s="65"/>
+      <c r="BE33" s="65"/>
+      <c r="BF33" s="65"/>
+      <c r="BG33" s="65"/>
+      <c r="BH33" s="65"/>
+      <c r="BI33" s="65"/>
+      <c r="BJ33" s="65"/>
+      <c r="BK33" s="65"/>
+      <c r="BL33" s="65"/>
     </row>
     <row r="34" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A34" s="70"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="64"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="14"/>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="14"/>
-      <c r="AD34" s="14"/>
-      <c r="AE34" s="14"/>
-      <c r="AF34" s="14"/>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="14"/>
-      <c r="AI34" s="14"/>
-      <c r="AJ34" s="14"/>
-      <c r="AK34" s="14"/>
-      <c r="AL34" s="14"/>
-      <c r="AM34" s="14"/>
-      <c r="AN34" s="14"/>
-      <c r="AO34" s="14"/>
-      <c r="AP34" s="14"/>
-      <c r="AQ34" s="14"/>
-      <c r="AR34" s="14"/>
-      <c r="AS34" s="14"/>
-      <c r="AT34" s="14"/>
-      <c r="AU34" s="14"/>
-      <c r="AV34" s="14"/>
-      <c r="AW34" s="14"/>
-      <c r="AX34" s="14"/>
-      <c r="AY34" s="14"/>
-      <c r="AZ34" s="14"/>
-      <c r="BA34" s="14"/>
-      <c r="BB34" s="14"/>
-      <c r="BC34" s="14"/>
-      <c r="BD34" s="14"/>
-      <c r="BE34" s="14"/>
-      <c r="BF34" s="14"/>
-      <c r="BG34" s="14"/>
-      <c r="BH34" s="69"/>
-      <c r="BI34" s="69"/>
-      <c r="BJ34" s="69"/>
-      <c r="BK34" s="69"/>
-      <c r="BL34" s="69"/>
+      <c r="A34" s="103"/>
+      <c r="B34" s="127">
+        <v>33</v>
+      </c>
+      <c r="C34" s="127">
+        <v>34</v>
+      </c>
+      <c r="D34" s="127">
+        <v>34</v>
+      </c>
+      <c r="E34" s="128">
+        <v>34</v>
+      </c>
+      <c r="F34" s="95"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="65"/>
+      <c r="S34" s="65"/>
+      <c r="T34" s="65"/>
+      <c r="U34" s="65"/>
+      <c r="V34" s="65"/>
+      <c r="W34" s="65"/>
+      <c r="X34" s="65"/>
+      <c r="Y34" s="65"/>
+      <c r="Z34" s="65"/>
+      <c r="AA34" s="65"/>
+      <c r="AB34" s="65"/>
+      <c r="AC34" s="65"/>
+      <c r="AD34" s="65"/>
+      <c r="AE34" s="65"/>
+      <c r="AF34" s="65"/>
+      <c r="AG34" s="65"/>
+      <c r="AH34" s="65"/>
+      <c r="AI34" s="65"/>
+      <c r="AJ34" s="65"/>
+      <c r="AK34" s="65"/>
+      <c r="AL34" s="65"/>
+      <c r="AM34" s="65"/>
+      <c r="AN34" s="65"/>
+      <c r="AO34" s="65"/>
+      <c r="AP34" s="65"/>
+      <c r="AQ34" s="65"/>
+      <c r="AR34" s="65"/>
+      <c r="AS34" s="65"/>
+      <c r="AT34" s="65"/>
+      <c r="AU34" s="65"/>
+      <c r="AV34" s="65"/>
+      <c r="AW34" s="65"/>
+      <c r="AX34" s="65"/>
+      <c r="AY34" s="65"/>
+      <c r="AZ34" s="65"/>
+      <c r="BA34" s="65"/>
+      <c r="BB34" s="65"/>
+      <c r="BC34" s="65"/>
+      <c r="BD34" s="65"/>
+      <c r="BE34" s="65"/>
+      <c r="BF34" s="65"/>
+      <c r="BG34" s="65"/>
+      <c r="BH34" s="65"/>
+      <c r="BI34" s="65"/>
+      <c r="BJ34" s="65"/>
+      <c r="BK34" s="65"/>
+      <c r="BL34" s="65"/>
     </row>
     <row r="35" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
+      <c r="A35" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="100"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="100"/>
       <c r="F35" s="44"/>
       <c r="G35" s="44"/>
       <c r="H35" s="44"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="69"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="69"/>
-      <c r="R35" s="69"/>
-      <c r="S35" s="69"/>
-      <c r="T35" s="69"/>
-      <c r="U35" s="69"/>
-      <c r="V35" s="69"/>
-      <c r="W35" s="69"/>
-      <c r="X35" s="69"/>
-      <c r="Y35" s="69"/>
-      <c r="Z35" s="69"/>
-      <c r="AA35" s="69"/>
-      <c r="AB35" s="69"/>
-      <c r="AC35" s="69"/>
-      <c r="AD35" s="69"/>
-      <c r="AE35" s="69"/>
-      <c r="AF35" s="69"/>
-      <c r="AG35" s="69"/>
-      <c r="AH35" s="69"/>
-      <c r="AI35" s="69"/>
-      <c r="AJ35" s="69"/>
-      <c r="AK35" s="69"/>
-      <c r="AL35" s="69"/>
-      <c r="AM35" s="69"/>
-      <c r="AN35" s="69"/>
-      <c r="AO35" s="69"/>
-      <c r="AP35" s="69"/>
-      <c r="AQ35" s="69"/>
-      <c r="AR35" s="69"/>
-      <c r="AS35" s="69"/>
-      <c r="AT35" s="69"/>
-      <c r="AU35" s="69"/>
-      <c r="AV35" s="69"/>
-      <c r="AW35" s="69"/>
-      <c r="AX35" s="69"/>
-      <c r="AY35" s="69"/>
-      <c r="AZ35" s="69"/>
-      <c r="BA35" s="69"/>
-      <c r="BB35" s="69"/>
-      <c r="BC35" s="69"/>
-      <c r="BD35" s="69"/>
-      <c r="BE35" s="69"/>
-      <c r="BF35" s="69"/>
-      <c r="BG35" s="69"/>
-      <c r="BH35" s="69"/>
-      <c r="BI35" s="69"/>
-      <c r="BJ35" s="69"/>
-      <c r="BK35" s="69"/>
-      <c r="BL35" s="69"/>
-    </row>
-    <row r="36" spans="1:64" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="69"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="69"/>
-      <c r="R36" s="69"/>
-      <c r="S36" s="69"/>
-      <c r="T36" s="69"/>
-      <c r="U36" s="69"/>
-      <c r="V36" s="69"/>
-      <c r="W36" s="69"/>
-      <c r="X36" s="69"/>
-      <c r="Y36" s="69"/>
-      <c r="Z36" s="69"/>
-      <c r="AA36" s="69"/>
-      <c r="AB36" s="69"/>
-      <c r="AC36" s="69"/>
-      <c r="AD36" s="69"/>
-      <c r="AE36" s="69"/>
-      <c r="AF36" s="69"/>
-      <c r="AG36" s="69"/>
-      <c r="AH36" s="69"/>
-      <c r="AI36" s="69"/>
-      <c r="AJ36" s="69"/>
-      <c r="AK36" s="69"/>
-      <c r="AL36" s="69"/>
-      <c r="AM36" s="69"/>
-      <c r="AN36" s="69"/>
-      <c r="AO36" s="69"/>
-      <c r="AP36" s="69"/>
-      <c r="AQ36" s="69"/>
-      <c r="AR36" s="69"/>
-      <c r="AS36" s="69"/>
-      <c r="AT36" s="69"/>
-      <c r="AU36" s="69"/>
-      <c r="AV36" s="69"/>
-      <c r="AW36" s="69"/>
-      <c r="AX36" s="69"/>
-      <c r="AY36" s="69"/>
-      <c r="AZ36" s="69"/>
-      <c r="BA36" s="69"/>
-      <c r="BB36" s="69"/>
-      <c r="BC36" s="69"/>
-      <c r="BD36" s="69"/>
-      <c r="BE36" s="69"/>
-      <c r="BF36" s="69"/>
-      <c r="BG36" s="69"/>
-      <c r="BH36" s="69"/>
-      <c r="BI36" s="69"/>
-      <c r="BJ36" s="69"/>
-      <c r="BK36" s="69"/>
-      <c r="BL36" s="69"/>
-    </row>
-    <row r="37" spans="1:64" s="73" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="B37" s="44"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="61"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="14"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="14"/>
+      <c r="AK35" s="14"/>
+      <c r="AL35" s="14"/>
+      <c r="AM35" s="14"/>
+      <c r="AN35" s="14"/>
+      <c r="AO35" s="14"/>
+      <c r="AP35" s="14"/>
+      <c r="AQ35" s="14"/>
+      <c r="AR35" s="14"/>
+      <c r="AS35" s="14"/>
+      <c r="AT35" s="14"/>
+      <c r="AU35" s="14"/>
+      <c r="AV35" s="14"/>
+      <c r="AW35" s="14"/>
+      <c r="AX35" s="14"/>
+      <c r="AY35" s="14"/>
+      <c r="AZ35" s="14"/>
+      <c r="BA35" s="14"/>
+      <c r="BB35" s="14"/>
+      <c r="BC35" s="14"/>
+      <c r="BD35" s="14"/>
+      <c r="BE35" s="14"/>
+      <c r="BF35" s="14"/>
+      <c r="BG35" s="14"/>
+      <c r="BH35" s="65"/>
+      <c r="BI35" s="65"/>
+      <c r="BJ35" s="65"/>
+      <c r="BK35" s="65"/>
+      <c r="BL35" s="65"/>
+    </row>
+    <row r="36" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A36" s="66"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="14"/>
+      <c r="AK36" s="14"/>
+      <c r="AL36" s="14"/>
+      <c r="AM36" s="14"/>
+      <c r="AN36" s="14"/>
+      <c r="AO36" s="14"/>
+      <c r="AP36" s="14"/>
+      <c r="AQ36" s="14"/>
+      <c r="AR36" s="14"/>
+      <c r="AS36" s="14"/>
+      <c r="AT36" s="14"/>
+      <c r="AU36" s="14"/>
+      <c r="AV36" s="14"/>
+      <c r="AW36" s="14"/>
+      <c r="AX36" s="14"/>
+      <c r="AY36" s="14"/>
+      <c r="AZ36" s="14"/>
+      <c r="BA36" s="14"/>
+      <c r="BB36" s="14"/>
+      <c r="BC36" s="14"/>
+      <c r="BD36" s="14"/>
+      <c r="BE36" s="14"/>
+      <c r="BF36" s="14"/>
+      <c r="BG36" s="14"/>
+      <c r="BH36" s="65"/>
+      <c r="BI36" s="65"/>
+      <c r="BJ36" s="65"/>
+      <c r="BK36" s="65"/>
+      <c r="BL36" s="65"/>
+    </row>
+    <row r="37" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="77"/>
       <c r="C37" s="44"/>
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
       <c r="F37" s="44"/>
       <c r="G37" s="44"/>
       <c r="H37" s="44"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="69"/>
-      <c r="R37" s="69"/>
-      <c r="S37" s="69"/>
-      <c r="T37" s="69"/>
-      <c r="U37" s="69"/>
-      <c r="V37" s="69"/>
-      <c r="W37" s="69"/>
-      <c r="X37" s="69"/>
-      <c r="Y37" s="69"/>
-      <c r="Z37" s="69"/>
-      <c r="AA37" s="69"/>
-      <c r="AB37" s="69"/>
-      <c r="AC37" s="69"/>
-      <c r="AD37" s="69"/>
-      <c r="AE37" s="69"/>
-      <c r="AF37" s="69"/>
-      <c r="AG37" s="69"/>
-      <c r="AH37" s="69"/>
-      <c r="AI37" s="69"/>
-      <c r="AJ37" s="69"/>
-      <c r="AK37" s="69"/>
-      <c r="AL37" s="69"/>
-      <c r="AM37" s="69"/>
-      <c r="AN37" s="69"/>
-      <c r="AO37" s="69"/>
-      <c r="AP37" s="69"/>
-      <c r="AQ37" s="69"/>
-      <c r="AR37" s="69"/>
-      <c r="AS37" s="69"/>
-      <c r="AT37" s="69"/>
-      <c r="AU37" s="69"/>
-      <c r="AV37" s="69"/>
-      <c r="AW37" s="69"/>
-      <c r="AX37" s="69"/>
-      <c r="AY37" s="69"/>
-      <c r="AZ37" s="69"/>
-      <c r="BA37" s="69"/>
-      <c r="BB37" s="69"/>
-      <c r="BC37" s="69"/>
-      <c r="BD37" s="69"/>
-      <c r="BE37" s="69"/>
-      <c r="BF37" s="69"/>
-      <c r="BG37" s="69"/>
-      <c r="BH37" s="69"/>
-      <c r="BI37" s="69"/>
-      <c r="BJ37" s="69"/>
-      <c r="BK37" s="69"/>
-      <c r="BL37" s="69"/>
-    </row>
-    <row r="38" spans="1:64" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="54" t="s">
-        <v>117</v>
+      <c r="I37" s="73"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="65"/>
+      <c r="R37" s="65"/>
+      <c r="S37" s="65"/>
+      <c r="T37" s="65"/>
+      <c r="U37" s="65"/>
+      <c r="V37" s="65"/>
+      <c r="W37" s="65"/>
+      <c r="X37" s="65"/>
+      <c r="Y37" s="65"/>
+      <c r="Z37" s="65"/>
+      <c r="AA37" s="65"/>
+      <c r="AB37" s="65"/>
+      <c r="AC37" s="65"/>
+      <c r="AD37" s="65"/>
+      <c r="AE37" s="65"/>
+      <c r="AF37" s="65"/>
+      <c r="AG37" s="65"/>
+      <c r="AH37" s="65"/>
+      <c r="AI37" s="65"/>
+      <c r="AJ37" s="65"/>
+      <c r="AK37" s="65"/>
+      <c r="AL37" s="65"/>
+      <c r="AM37" s="65"/>
+      <c r="AN37" s="65"/>
+      <c r="AO37" s="65"/>
+      <c r="AP37" s="65"/>
+      <c r="AQ37" s="65"/>
+      <c r="AR37" s="65"/>
+      <c r="AS37" s="65"/>
+      <c r="AT37" s="65"/>
+      <c r="AU37" s="65"/>
+      <c r="AV37" s="65"/>
+      <c r="AW37" s="65"/>
+      <c r="AX37" s="65"/>
+      <c r="AY37" s="65"/>
+      <c r="AZ37" s="65"/>
+      <c r="BA37" s="65"/>
+      <c r="BB37" s="65"/>
+      <c r="BC37" s="65"/>
+      <c r="BD37" s="65"/>
+      <c r="BE37" s="65"/>
+      <c r="BF37" s="65"/>
+      <c r="BG37" s="65"/>
+      <c r="BH37" s="65"/>
+      <c r="BI37" s="65"/>
+      <c r="BJ37" s="65"/>
+      <c r="BK37" s="65"/>
+      <c r="BL37" s="65"/>
+    </row>
+    <row r="38" spans="1:64" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="50" t="s">
+        <v>169</v>
       </c>
       <c r="B38" s="44"/>
       <c r="C38" s="44"/>
@@ -3129,148 +3233,285 @@
       <c r="F38" s="44"/>
       <c r="G38" s="44"/>
       <c r="H38" s="44"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="69"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="69"/>
-      <c r="Q38" s="69"/>
-      <c r="R38" s="69"/>
-      <c r="S38" s="69"/>
-      <c r="T38" s="69"/>
-      <c r="U38" s="69"/>
-      <c r="V38" s="69"/>
-      <c r="W38" s="69"/>
-      <c r="X38" s="69"/>
-      <c r="Y38" s="69"/>
-      <c r="Z38" s="69"/>
-      <c r="AA38" s="69"/>
-      <c r="AB38" s="69"/>
-      <c r="AC38" s="69"/>
-      <c r="AD38" s="69"/>
-      <c r="AE38" s="69"/>
-      <c r="AF38" s="69"/>
-      <c r="AG38" s="69"/>
-      <c r="AH38" s="69"/>
-      <c r="AI38" s="69"/>
-      <c r="AJ38" s="69"/>
-      <c r="AK38" s="69"/>
-      <c r="AL38" s="69"/>
-      <c r="AM38" s="69"/>
-      <c r="AN38" s="69"/>
-      <c r="AO38" s="69"/>
-      <c r="AP38" s="69"/>
-      <c r="AQ38" s="69"/>
-      <c r="AR38" s="69"/>
-      <c r="AS38" s="69"/>
-      <c r="AT38" s="69"/>
-      <c r="AU38" s="69"/>
-      <c r="AV38" s="69"/>
-      <c r="AW38" s="69"/>
-      <c r="AX38" s="69"/>
-      <c r="AY38" s="69"/>
-      <c r="AZ38" s="69"/>
-      <c r="BA38" s="69"/>
-      <c r="BB38" s="69"/>
-      <c r="BC38" s="69"/>
-      <c r="BD38" s="69"/>
-      <c r="BE38" s="69"/>
-      <c r="BF38" s="69"/>
-      <c r="BG38" s="69"/>
-      <c r="BH38" s="69"/>
-      <c r="BI38" s="69"/>
-      <c r="BJ38" s="69"/>
-      <c r="BK38" s="69"/>
-      <c r="BL38" s="69"/>
-    </row>
-    <row r="39" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="69"/>
-      <c r="O39" s="69"/>
-      <c r="P39" s="69"/>
-      <c r="Q39" s="69"/>
-      <c r="R39" s="69"/>
-      <c r="S39" s="69"/>
-      <c r="T39" s="69"/>
-      <c r="U39" s="69"/>
-      <c r="V39" s="69"/>
-      <c r="W39" s="69"/>
-      <c r="X39" s="69"/>
-      <c r="Y39" s="69"/>
-      <c r="Z39" s="69"/>
-      <c r="AA39" s="69"/>
-      <c r="AB39" s="69"/>
-      <c r="AC39" s="69"/>
-      <c r="AD39" s="69"/>
-      <c r="AE39" s="69"/>
-      <c r="AF39" s="69"/>
-      <c r="AG39" s="69"/>
-      <c r="AH39" s="69"/>
-      <c r="AI39" s="69"/>
-      <c r="AJ39" s="69"/>
-      <c r="AK39" s="69"/>
-      <c r="AL39" s="69"/>
-      <c r="AM39" s="69"/>
-      <c r="AN39" s="69"/>
-      <c r="AO39" s="69"/>
-      <c r="AP39" s="69"/>
-      <c r="AQ39" s="69"/>
-      <c r="AR39" s="69"/>
-      <c r="AS39" s="69"/>
-      <c r="AT39" s="69"/>
-      <c r="AU39" s="69"/>
-      <c r="AV39" s="69"/>
-      <c r="AW39" s="69"/>
-      <c r="AX39" s="69"/>
-      <c r="AY39" s="69"/>
-      <c r="AZ39" s="69"/>
-      <c r="BA39" s="69"/>
-      <c r="BB39" s="69"/>
-      <c r="BC39" s="69"/>
-      <c r="BD39" s="69"/>
-      <c r="BE39" s="69"/>
-      <c r="BF39" s="69"/>
-      <c r="BG39" s="69"/>
-      <c r="BH39" s="69"/>
-      <c r="BI39" s="69"/>
-      <c r="BJ39" s="69"/>
-      <c r="BK39" s="69"/>
-      <c r="BL39" s="69"/>
-    </row>
-    <row r="40" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-    </row>
-    <row r="43" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A43" s="71"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="65"/>
+      <c r="R38" s="65"/>
+      <c r="S38" s="65"/>
+      <c r="T38" s="65"/>
+      <c r="U38" s="65"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="65"/>
+      <c r="AA38" s="65"/>
+      <c r="AB38" s="65"/>
+      <c r="AC38" s="65"/>
+      <c r="AD38" s="65"/>
+      <c r="AE38" s="65"/>
+      <c r="AF38" s="65"/>
+      <c r="AG38" s="65"/>
+      <c r="AH38" s="65"/>
+      <c r="AI38" s="65"/>
+      <c r="AJ38" s="65"/>
+      <c r="AK38" s="65"/>
+      <c r="AL38" s="65"/>
+      <c r="AM38" s="65"/>
+      <c r="AN38" s="65"/>
+      <c r="AO38" s="65"/>
+      <c r="AP38" s="65"/>
+      <c r="AQ38" s="65"/>
+      <c r="AR38" s="65"/>
+      <c r="AS38" s="65"/>
+      <c r="AT38" s="65"/>
+      <c r="AU38" s="65"/>
+      <c r="AV38" s="65"/>
+      <c r="AW38" s="65"/>
+      <c r="AX38" s="65"/>
+      <c r="AY38" s="65"/>
+      <c r="AZ38" s="65"/>
+      <c r="BA38" s="65"/>
+      <c r="BB38" s="65"/>
+      <c r="BC38" s="65"/>
+      <c r="BD38" s="65"/>
+      <c r="BE38" s="65"/>
+      <c r="BF38" s="65"/>
+      <c r="BG38" s="65"/>
+      <c r="BH38" s="65"/>
+      <c r="BI38" s="65"/>
+      <c r="BJ38" s="65"/>
+      <c r="BK38" s="65"/>
+      <c r="BL38" s="65"/>
+    </row>
+    <row r="39" spans="1:64" s="69" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="65"/>
+      <c r="P39" s="65"/>
+      <c r="Q39" s="65"/>
+      <c r="R39" s="65"/>
+      <c r="S39" s="65"/>
+      <c r="T39" s="65"/>
+      <c r="U39" s="65"/>
+      <c r="V39" s="65"/>
+      <c r="W39" s="65"/>
+      <c r="X39" s="65"/>
+      <c r="Y39" s="65"/>
+      <c r="Z39" s="65"/>
+      <c r="AA39" s="65"/>
+      <c r="AB39" s="65"/>
+      <c r="AC39" s="65"/>
+      <c r="AD39" s="65"/>
+      <c r="AE39" s="65"/>
+      <c r="AF39" s="65"/>
+      <c r="AG39" s="65"/>
+      <c r="AH39" s="65"/>
+      <c r="AI39" s="65"/>
+      <c r="AJ39" s="65"/>
+      <c r="AK39" s="65"/>
+      <c r="AL39" s="65"/>
+      <c r="AM39" s="65"/>
+      <c r="AN39" s="65"/>
+      <c r="AO39" s="65"/>
+      <c r="AP39" s="65"/>
+      <c r="AQ39" s="65"/>
+      <c r="AR39" s="65"/>
+      <c r="AS39" s="65"/>
+      <c r="AT39" s="65"/>
+      <c r="AU39" s="65"/>
+      <c r="AV39" s="65"/>
+      <c r="AW39" s="65"/>
+      <c r="AX39" s="65"/>
+      <c r="AY39" s="65"/>
+      <c r="AZ39" s="65"/>
+      <c r="BA39" s="65"/>
+      <c r="BB39" s="65"/>
+      <c r="BC39" s="65"/>
+      <c r="BD39" s="65"/>
+      <c r="BE39" s="65"/>
+      <c r="BF39" s="65"/>
+      <c r="BG39" s="65"/>
+      <c r="BH39" s="65"/>
+      <c r="BI39" s="65"/>
+      <c r="BJ39" s="65"/>
+      <c r="BK39" s="65"/>
+      <c r="BL39" s="65"/>
+    </row>
+    <row r="40" spans="1:64" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="65"/>
+      <c r="R40" s="65"/>
+      <c r="S40" s="65"/>
+      <c r="T40" s="65"/>
+      <c r="U40" s="65"/>
+      <c r="V40" s="65"/>
+      <c r="W40" s="65"/>
+      <c r="X40" s="65"/>
+      <c r="Y40" s="65"/>
+      <c r="Z40" s="65"/>
+      <c r="AA40" s="65"/>
+      <c r="AB40" s="65"/>
+      <c r="AC40" s="65"/>
+      <c r="AD40" s="65"/>
+      <c r="AE40" s="65"/>
+      <c r="AF40" s="65"/>
+      <c r="AG40" s="65"/>
+      <c r="AH40" s="65"/>
+      <c r="AI40" s="65"/>
+      <c r="AJ40" s="65"/>
+      <c r="AK40" s="65"/>
+      <c r="AL40" s="65"/>
+      <c r="AM40" s="65"/>
+      <c r="AN40" s="65"/>
+      <c r="AO40" s="65"/>
+      <c r="AP40" s="65"/>
+      <c r="AQ40" s="65"/>
+      <c r="AR40" s="65"/>
+      <c r="AS40" s="65"/>
+      <c r="AT40" s="65"/>
+      <c r="AU40" s="65"/>
+      <c r="AV40" s="65"/>
+      <c r="AW40" s="65"/>
+      <c r="AX40" s="65"/>
+      <c r="AY40" s="65"/>
+      <c r="AZ40" s="65"/>
+      <c r="BA40" s="65"/>
+      <c r="BB40" s="65"/>
+      <c r="BC40" s="65"/>
+      <c r="BD40" s="65"/>
+      <c r="BE40" s="65"/>
+      <c r="BF40" s="65"/>
+      <c r="BG40" s="65"/>
+      <c r="BH40" s="65"/>
+      <c r="BI40" s="65"/>
+      <c r="BJ40" s="65"/>
+      <c r="BK40" s="65"/>
+      <c r="BL40" s="65"/>
+    </row>
+    <row r="41" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="65"/>
+      <c r="P41" s="65"/>
+      <c r="Q41" s="65"/>
+      <c r="R41" s="65"/>
+      <c r="S41" s="65"/>
+      <c r="T41" s="65"/>
+      <c r="U41" s="65"/>
+      <c r="V41" s="65"/>
+      <c r="W41" s="65"/>
+      <c r="X41" s="65"/>
+      <c r="Y41" s="65"/>
+      <c r="Z41" s="65"/>
+      <c r="AA41" s="65"/>
+      <c r="AB41" s="65"/>
+      <c r="AC41" s="65"/>
+      <c r="AD41" s="65"/>
+      <c r="AE41" s="65"/>
+      <c r="AF41" s="65"/>
+      <c r="AG41" s="65"/>
+      <c r="AH41" s="65"/>
+      <c r="AI41" s="65"/>
+      <c r="AJ41" s="65"/>
+      <c r="AK41" s="65"/>
+      <c r="AL41" s="65"/>
+      <c r="AM41" s="65"/>
+      <c r="AN41" s="65"/>
+      <c r="AO41" s="65"/>
+      <c r="AP41" s="65"/>
+      <c r="AQ41" s="65"/>
+      <c r="AR41" s="65"/>
+      <c r="AS41" s="65"/>
+      <c r="AT41" s="65"/>
+      <c r="AU41" s="65"/>
+      <c r="AV41" s="65"/>
+      <c r="AW41" s="65"/>
+      <c r="AX41" s="65"/>
+      <c r="AY41" s="65"/>
+      <c r="AZ41" s="65"/>
+      <c r="BA41" s="65"/>
+      <c r="BB41" s="65"/>
+      <c r="BC41" s="65"/>
+      <c r="BD41" s="65"/>
+      <c r="BE41" s="65"/>
+      <c r="BF41" s="65"/>
+      <c r="BG41" s="65"/>
+      <c r="BH41" s="65"/>
+      <c r="BI41" s="65"/>
+      <c r="BJ41" s="65"/>
+      <c r="BK41" s="65"/>
+      <c r="BL41" s="65"/>
+    </row>
+    <row r="42" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+    </row>
+    <row r="45" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A45" s="67"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A31:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3278,18 +3519,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL60"/>
+  <dimension ref="A1:BL62"/>
   <sheetViews>
     <sheetView zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" style="57" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="57" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="57" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="57"/>
+    <col min="1" max="1" width="30.88671875" style="54" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="54" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="54" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
@@ -3298,29 +3539,29 @@
       <c r="C1" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
       <c r="AA1" s="44"/>
       <c r="AB1" s="44"/>
     </row>
@@ -3331,7 +3572,7 @@
       <c r="B2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="55" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="28" t="s">
@@ -3509,8 +3750,8 @@
       <c r="X4" s="38"/>
       <c r="Y4" s="38"/>
       <c r="Z4" s="38"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
     </row>
     <row r="5" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
@@ -3545,7 +3786,7 @@
       <c r="AB5" s="44"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="81" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -3571,23 +3812,23 @@
       <c r="N6" s="4">
         <v>1</v>
       </c>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
       <c r="AA6" s="44"/>
       <c r="AB6" s="44"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="85"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -3602,26 +3843,26 @@
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
       <c r="AA7" s="44"/>
       <c r="AB7" s="44"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="81" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -3638,26 +3879,26 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
       <c r="AA8" s="44"/>
       <c r="AB8" s="44"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="85"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -3672,26 +3913,26 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
       <c r="AA9" s="44"/>
       <c r="AB9" s="44"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="81" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -3717,23 +3958,23 @@
       <c r="N10" s="4">
         <v>1</v>
       </c>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
       <c r="AA10" s="44"/>
       <c r="AB10" s="44"/>
     </row>
     <row r="11" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="85"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
@@ -3757,23 +3998,23 @@
       <c r="N11" s="4">
         <v>1</v>
       </c>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
       <c r="AA11" s="44"/>
       <c r="AB11" s="44"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="81" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -3790,38 +4031,38 @@
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="59">
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="56">
         <v>6</v>
       </c>
-      <c r="P12" s="59">
+      <c r="P12" s="56">
         <v>6</v>
       </c>
-      <c r="Q12" s="59">
+      <c r="Q12" s="56">
         <v>6</v>
       </c>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="60" t="s">
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="Y12" s="60" t="s">
+      <c r="Y12" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="Z12" s="60" t="s">
+      <c r="Z12" s="57" t="s">
         <v>98</v>
       </c>
       <c r="AA12" s="44"/>
       <c r="AB12" s="44"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="85"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="6" t="s">
         <v>31</v>
       </c>
@@ -3836,32 +4077,32 @@
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="59">
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="56">
         <v>2</v>
       </c>
-      <c r="P13" s="59">
+      <c r="P13" s="56">
         <v>2</v>
       </c>
-      <c r="Q13" s="59">
+      <c r="Q13" s="56">
         <v>2</v>
       </c>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
       <c r="AA13" s="44"/>
       <c r="AB13" s="44"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="81" t="s">
         <v>99</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -3878,26 +4119,26 @@
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
       <c r="AA14" s="44"/>
       <c r="AB14" s="44"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" s="85"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="6" t="s">
         <v>25</v>
       </c>
@@ -3912,26 +4153,26 @@
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
       <c r="AA15" s="44"/>
       <c r="AB15" s="44"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="85"/>
+      <c r="A16" s="81"/>
       <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
@@ -3946,26 +4187,26 @@
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
       <c r="AA16" s="44"/>
       <c r="AB16" s="44"/>
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="81" t="s">
         <v>101</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -3982,26 +4223,26 @@
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
       <c r="AA17" s="44"/>
       <c r="AB17" s="44"/>
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A18" s="85"/>
+      <c r="A18" s="81"/>
       <c r="B18" s="6" t="s">
         <v>102</v>
       </c>
@@ -4016,32 +4257,32 @@
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="59">
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="56">
         <v>2</v>
       </c>
-      <c r="V18" s="59">
+      <c r="V18" s="56">
         <v>3</v>
       </c>
-      <c r="W18" s="59">
+      <c r="W18" s="56">
         <v>3</v>
       </c>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
       <c r="AA18" s="44"/>
       <c r="AB18" s="44"/>
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A19" s="85"/>
+      <c r="A19" s="81"/>
       <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
@@ -4056,27 +4297,27 @@
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="59">
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="56">
         <v>2</v>
       </c>
-      <c r="V19" s="59">
+      <c r="V19" s="56">
         <v>3</v>
       </c>
-      <c r="W19" s="59">
+      <c r="W19" s="56">
         <v>3</v>
       </c>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="46"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
       <c r="AA19" s="44"/>
       <c r="AB19" s="44"/>
     </row>
@@ -4098,26 +4339,26 @@
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="46"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
       <c r="AA20" s="44"/>
       <c r="AB20" s="44"/>
     </row>
     <row r="21" spans="1:64" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="85" t="s">
+      <c r="A21" s="81" t="s">
         <v>105</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -4134,26 +4375,26 @@
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="46"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
       <c r="AA21" s="44"/>
       <c r="AB21" s="44"/>
     </row>
     <row r="22" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A22" s="85"/>
+      <c r="A22" s="81"/>
       <c r="B22" s="6" t="s">
         <v>107</v>
       </c>
@@ -4168,21 +4409,21 @@
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="46"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
       <c r="AA22" s="44"/>
       <c r="AB22" s="44"/>
     </row>
@@ -4204,32 +4445,32 @@
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="59">
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="56">
         <v>2</v>
       </c>
-      <c r="P23" s="59">
+      <c r="P23" s="56">
         <v>2</v>
       </c>
-      <c r="Q23" s="59">
+      <c r="Q23" s="56">
         <v>2</v>
       </c>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="46"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
       <c r="AA23" s="44"/>
       <c r="AB23" s="44"/>
     </row>
     <row r="24" spans="1:64" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="81" t="s">
         <v>109</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -4246,26 +4487,26 @@
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="46"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45"/>
       <c r="AA24" s="44"/>
       <c r="AB24" s="44"/>
     </row>
     <row r="25" spans="1:64" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="85"/>
+      <c r="A25" s="81"/>
       <c r="B25" s="6" t="s">
         <v>42</v>
       </c>
@@ -4280,21 +4521,21 @@
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="46"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
       <c r="AA25" s="44"/>
       <c r="AB25" s="44"/>
     </row>
@@ -4310,23 +4551,23 @@
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="52"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="49"/>
     </row>
     <row r="27" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
@@ -4361,11 +4602,11 @@
       <c r="AB27" s="44"/>
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A28" s="89" t="s">
+      <c r="A28" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="61"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
@@ -4374,32 +4615,32 @@
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
-      <c r="L28" s="91">
+      <c r="L28" s="82">
         <v>2</v>
       </c>
-      <c r="M28" s="91"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="46"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
       <c r="AA28" s="44"/>
       <c r="AB28" s="44"/>
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A29" s="89" t="s">
+      <c r="A29" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="89"/>
-      <c r="C29" s="61"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
@@ -4409,31 +4650,31 @@
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
-      <c r="M29" s="91">
+      <c r="M29" s="82">
         <v>2</v>
       </c>
-      <c r="N29" s="91"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="46"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
       <c r="AA29" s="44"/>
       <c r="AB29" s="44"/>
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="61"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
@@ -4443,31 +4684,31 @@
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
-      <c r="M30" s="91">
+      <c r="M30" s="82">
         <v>2</v>
       </c>
-      <c r="N30" s="91"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="46"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="45"/>
       <c r="AA30" s="44"/>
       <c r="AB30" s="44"/>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="89"/>
-      <c r="C31" s="61"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
@@ -4478,34 +4719,34 @@
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="59">
+      <c r="N31" s="45"/>
+      <c r="O31" s="56">
         <v>2</v>
       </c>
-      <c r="P31" s="59">
+      <c r="P31" s="56">
         <v>2</v>
       </c>
-      <c r="Q31" s="59">
+      <c r="Q31" s="56">
         <v>2</v>
       </c>
-      <c r="R31" s="46"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="46"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="45"/>
       <c r="AA31" s="44"/>
       <c r="AB31" s="44"/>
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="89"/>
-      <c r="C32" s="61"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
@@ -4516,66 +4757,66 @@
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="90">
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="84">
         <v>2</v>
       </c>
-      <c r="S32" s="90"/>
-      <c r="T32" s="90"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="46"/>
+      <c r="S32" s="84"/>
+      <c r="T32" s="84"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="45"/>
       <c r="AA32" s="44"/>
-      <c r="AB32" s="62"/>
-      <c r="AC32" s="63"/>
-      <c r="AD32" s="64"/>
-      <c r="AE32" s="64"/>
-      <c r="AF32" s="64"/>
-      <c r="AG32" s="64"/>
-      <c r="AH32" s="64"/>
-      <c r="AI32" s="64"/>
-      <c r="AJ32" s="64"/>
-      <c r="AK32" s="64"/>
-      <c r="AL32" s="64"/>
-      <c r="AM32" s="64"/>
-      <c r="AN32" s="64"/>
-      <c r="AO32" s="64"/>
-      <c r="AP32" s="64"/>
-      <c r="AQ32" s="64"/>
-      <c r="AR32" s="64"/>
-      <c r="AS32" s="64"/>
-      <c r="AT32" s="64"/>
-      <c r="AU32" s="64"/>
-      <c r="AV32" s="64"/>
-      <c r="AW32" s="64"/>
-      <c r="AX32" s="64"/>
-      <c r="AY32" s="64"/>
-      <c r="AZ32" s="64"/>
-      <c r="BA32" s="64"/>
-      <c r="BB32" s="64"/>
-      <c r="BC32" s="64"/>
-      <c r="BD32" s="64"/>
-      <c r="BE32" s="64"/>
-      <c r="BF32" s="64"/>
-      <c r="BG32" s="64"/>
-      <c r="BH32" s="64"/>
-      <c r="BI32" s="64"/>
-      <c r="BJ32" s="64"/>
-      <c r="BK32" s="64"/>
-      <c r="BL32" s="64"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="60"/>
+      <c r="AD32" s="61"/>
+      <c r="AE32" s="61"/>
+      <c r="AF32" s="61"/>
+      <c r="AG32" s="61"/>
+      <c r="AH32" s="61"/>
+      <c r="AI32" s="61"/>
+      <c r="AJ32" s="61"/>
+      <c r="AK32" s="61"/>
+      <c r="AL32" s="61"/>
+      <c r="AM32" s="61"/>
+      <c r="AN32" s="61"/>
+      <c r="AO32" s="61"/>
+      <c r="AP32" s="61"/>
+      <c r="AQ32" s="61"/>
+      <c r="AR32" s="61"/>
+      <c r="AS32" s="61"/>
+      <c r="AT32" s="61"/>
+      <c r="AU32" s="61"/>
+      <c r="AV32" s="61"/>
+      <c r="AW32" s="61"/>
+      <c r="AX32" s="61"/>
+      <c r="AY32" s="61"/>
+      <c r="AZ32" s="61"/>
+      <c r="BA32" s="61"/>
+      <c r="BB32" s="61"/>
+      <c r="BC32" s="61"/>
+      <c r="BD32" s="61"/>
+      <c r="BE32" s="61"/>
+      <c r="BF32" s="61"/>
+      <c r="BG32" s="61"/>
+      <c r="BH32" s="61"/>
+      <c r="BI32" s="61"/>
+      <c r="BJ32" s="61"/>
+      <c r="BK32" s="61"/>
+      <c r="BL32" s="61"/>
     </row>
     <row r="33" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A33" s="89" t="s">
+      <c r="A33" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="89"/>
-      <c r="C33" s="61"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="58"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
@@ -4586,66 +4827,66 @@
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="90">
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="84">
         <v>2</v>
       </c>
-      <c r="S33" s="90"/>
-      <c r="T33" s="90"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="46"/>
+      <c r="S33" s="84"/>
+      <c r="T33" s="84"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="45"/>
       <c r="AA33" s="44"/>
-      <c r="AB33" s="62"/>
-      <c r="AC33" s="63"/>
-      <c r="AD33" s="64"/>
-      <c r="AE33" s="64"/>
-      <c r="AF33" s="64"/>
-      <c r="AG33" s="64"/>
-      <c r="AH33" s="64"/>
-      <c r="AI33" s="64"/>
-      <c r="AJ33" s="64"/>
-      <c r="AK33" s="64"/>
-      <c r="AL33" s="64"/>
-      <c r="AM33" s="64"/>
-      <c r="AN33" s="64"/>
-      <c r="AO33" s="64"/>
-      <c r="AP33" s="64"/>
-      <c r="AQ33" s="64"/>
-      <c r="AR33" s="64"/>
-      <c r="AS33" s="64"/>
-      <c r="AT33" s="64"/>
-      <c r="AU33" s="64"/>
-      <c r="AV33" s="64"/>
-      <c r="AW33" s="64"/>
-      <c r="AX33" s="64"/>
-      <c r="AY33" s="64"/>
-      <c r="AZ33" s="64"/>
-      <c r="BA33" s="64"/>
-      <c r="BB33" s="64"/>
-      <c r="BC33" s="64"/>
-      <c r="BD33" s="64"/>
-      <c r="BE33" s="64"/>
-      <c r="BF33" s="64"/>
-      <c r="BG33" s="64"/>
-      <c r="BH33" s="64"/>
-      <c r="BI33" s="64"/>
-      <c r="BJ33" s="64"/>
-      <c r="BK33" s="64"/>
-      <c r="BL33" s="64"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="60"/>
+      <c r="AD33" s="61"/>
+      <c r="AE33" s="61"/>
+      <c r="AF33" s="61"/>
+      <c r="AG33" s="61"/>
+      <c r="AH33" s="61"/>
+      <c r="AI33" s="61"/>
+      <c r="AJ33" s="61"/>
+      <c r="AK33" s="61"/>
+      <c r="AL33" s="61"/>
+      <c r="AM33" s="61"/>
+      <c r="AN33" s="61"/>
+      <c r="AO33" s="61"/>
+      <c r="AP33" s="61"/>
+      <c r="AQ33" s="61"/>
+      <c r="AR33" s="61"/>
+      <c r="AS33" s="61"/>
+      <c r="AT33" s="61"/>
+      <c r="AU33" s="61"/>
+      <c r="AV33" s="61"/>
+      <c r="AW33" s="61"/>
+      <c r="AX33" s="61"/>
+      <c r="AY33" s="61"/>
+      <c r="AZ33" s="61"/>
+      <c r="BA33" s="61"/>
+      <c r="BB33" s="61"/>
+      <c r="BC33" s="61"/>
+      <c r="BD33" s="61"/>
+      <c r="BE33" s="61"/>
+      <c r="BF33" s="61"/>
+      <c r="BG33" s="61"/>
+      <c r="BH33" s="61"/>
+      <c r="BI33" s="61"/>
+      <c r="BJ33" s="61"/>
+      <c r="BK33" s="61"/>
+      <c r="BL33" s="61"/>
     </row>
     <row r="34" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="89"/>
-      <c r="C34" s="61"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
@@ -4656,66 +4897,66 @@
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="90">
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="84">
         <v>2</v>
       </c>
-      <c r="V34" s="90"/>
-      <c r="W34" s="46"/>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="46"/>
-      <c r="Z34" s="46"/>
+      <c r="V34" s="84"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="45"/>
+      <c r="Z34" s="45"/>
       <c r="AA34" s="44"/>
-      <c r="AB34" s="62"/>
-      <c r="AC34" s="63"/>
-      <c r="AD34" s="64"/>
-      <c r="AE34" s="64"/>
-      <c r="AF34" s="64"/>
-      <c r="AG34" s="64"/>
-      <c r="AH34" s="64"/>
-      <c r="AI34" s="64"/>
-      <c r="AJ34" s="64"/>
-      <c r="AK34" s="64"/>
-      <c r="AL34" s="64"/>
-      <c r="AM34" s="64"/>
-      <c r="AN34" s="64"/>
-      <c r="AO34" s="64"/>
-      <c r="AP34" s="64"/>
-      <c r="AQ34" s="64"/>
-      <c r="AR34" s="64"/>
-      <c r="AS34" s="64"/>
-      <c r="AT34" s="64"/>
-      <c r="AU34" s="64"/>
-      <c r="AV34" s="64"/>
-      <c r="AW34" s="64"/>
-      <c r="AX34" s="64"/>
-      <c r="AY34" s="64"/>
-      <c r="AZ34" s="64"/>
-      <c r="BA34" s="64"/>
-      <c r="BB34" s="64"/>
-      <c r="BC34" s="64"/>
-      <c r="BD34" s="64"/>
-      <c r="BE34" s="64"/>
-      <c r="BF34" s="64"/>
-      <c r="BG34" s="64"/>
-      <c r="BH34" s="64"/>
-      <c r="BI34" s="64"/>
-      <c r="BJ34" s="64"/>
-      <c r="BK34" s="64"/>
-      <c r="BL34" s="64"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="60"/>
+      <c r="AD34" s="61"/>
+      <c r="AE34" s="61"/>
+      <c r="AF34" s="61"/>
+      <c r="AG34" s="61"/>
+      <c r="AH34" s="61"/>
+      <c r="AI34" s="61"/>
+      <c r="AJ34" s="61"/>
+      <c r="AK34" s="61"/>
+      <c r="AL34" s="61"/>
+      <c r="AM34" s="61"/>
+      <c r="AN34" s="61"/>
+      <c r="AO34" s="61"/>
+      <c r="AP34" s="61"/>
+      <c r="AQ34" s="61"/>
+      <c r="AR34" s="61"/>
+      <c r="AS34" s="61"/>
+      <c r="AT34" s="61"/>
+      <c r="AU34" s="61"/>
+      <c r="AV34" s="61"/>
+      <c r="AW34" s="61"/>
+      <c r="AX34" s="61"/>
+      <c r="AY34" s="61"/>
+      <c r="AZ34" s="61"/>
+      <c r="BA34" s="61"/>
+      <c r="BB34" s="61"/>
+      <c r="BC34" s="61"/>
+      <c r="BD34" s="61"/>
+      <c r="BE34" s="61"/>
+      <c r="BF34" s="61"/>
+      <c r="BG34" s="61"/>
+      <c r="BH34" s="61"/>
+      <c r="BI34" s="61"/>
+      <c r="BJ34" s="61"/>
+      <c r="BK34" s="61"/>
+      <c r="BL34" s="61"/>
     </row>
     <row r="35" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="89"/>
-      <c r="C35" s="61"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="58"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
@@ -4726,64 +4967,64 @@
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="90">
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="84">
         <v>2</v>
       </c>
-      <c r="W35" s="90"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="46"/>
+      <c r="W35" s="84"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="45"/>
+      <c r="Z35" s="45"/>
       <c r="AA35" s="44"/>
-      <c r="AB35" s="62"/>
-      <c r="AC35" s="63"/>
-      <c r="AD35" s="64"/>
-      <c r="AE35" s="64"/>
-      <c r="AF35" s="64"/>
-      <c r="AG35" s="64"/>
-      <c r="AH35" s="64"/>
-      <c r="AI35" s="64"/>
-      <c r="AJ35" s="64"/>
-      <c r="AK35" s="64"/>
-      <c r="AL35" s="64"/>
-      <c r="AM35" s="64"/>
-      <c r="AN35" s="64"/>
-      <c r="AO35" s="64"/>
-      <c r="AP35" s="64"/>
-      <c r="AQ35" s="64"/>
-      <c r="AR35" s="64"/>
-      <c r="AS35" s="64"/>
-      <c r="AT35" s="64"/>
-      <c r="AU35" s="64"/>
-      <c r="AV35" s="64"/>
-      <c r="AW35" s="64"/>
-      <c r="AX35" s="64"/>
-      <c r="AY35" s="64"/>
-      <c r="AZ35" s="64"/>
-      <c r="BA35" s="64"/>
-      <c r="BB35" s="64"/>
-      <c r="BC35" s="64"/>
-      <c r="BD35" s="64"/>
-      <c r="BE35" s="64"/>
-      <c r="BF35" s="64"/>
-      <c r="BG35" s="64"/>
-      <c r="BH35" s="64"/>
-      <c r="BI35" s="64"/>
-      <c r="BJ35" s="64"/>
-      <c r="BK35" s="64"/>
-      <c r="BL35" s="64"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="60"/>
+      <c r="AD35" s="61"/>
+      <c r="AE35" s="61"/>
+      <c r="AF35" s="61"/>
+      <c r="AG35" s="61"/>
+      <c r="AH35" s="61"/>
+      <c r="AI35" s="61"/>
+      <c r="AJ35" s="61"/>
+      <c r="AK35" s="61"/>
+      <c r="AL35" s="61"/>
+      <c r="AM35" s="61"/>
+      <c r="AN35" s="61"/>
+      <c r="AO35" s="61"/>
+      <c r="AP35" s="61"/>
+      <c r="AQ35" s="61"/>
+      <c r="AR35" s="61"/>
+      <c r="AS35" s="61"/>
+      <c r="AT35" s="61"/>
+      <c r="AU35" s="61"/>
+      <c r="AV35" s="61"/>
+      <c r="AW35" s="61"/>
+      <c r="AX35" s="61"/>
+      <c r="AY35" s="61"/>
+      <c r="AZ35" s="61"/>
+      <c r="BA35" s="61"/>
+      <c r="BB35" s="61"/>
+      <c r="BC35" s="61"/>
+      <c r="BD35" s="61"/>
+      <c r="BE35" s="61"/>
+      <c r="BF35" s="61"/>
+      <c r="BG35" s="61"/>
+      <c r="BH35" s="61"/>
+      <c r="BI35" s="61"/>
+      <c r="BJ35" s="61"/>
+      <c r="BK35" s="61"/>
+      <c r="BL35" s="61"/>
     </row>
     <row r="36" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
@@ -4794,57 +5035,57 @@
       <c r="K36" s="21"/>
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52"/>
-      <c r="V36" s="65"/>
-      <c r="W36" s="65"/>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="52"/>
-      <c r="Z36" s="52"/>
-      <c r="AA36" s="52"/>
-      <c r="AB36" s="66"/>
-      <c r="AC36" s="63"/>
-      <c r="AD36" s="64"/>
-      <c r="AE36" s="64"/>
-      <c r="AF36" s="64"/>
-      <c r="AG36" s="64"/>
-      <c r="AH36" s="64"/>
-      <c r="AI36" s="64"/>
-      <c r="AJ36" s="64"/>
-      <c r="AK36" s="64"/>
-      <c r="AL36" s="64"/>
-      <c r="AM36" s="64"/>
-      <c r="AN36" s="64"/>
-      <c r="AO36" s="64"/>
-      <c r="AP36" s="64"/>
-      <c r="AQ36" s="64"/>
-      <c r="AR36" s="64"/>
-      <c r="AS36" s="64"/>
-      <c r="AT36" s="64"/>
-      <c r="AU36" s="64"/>
-      <c r="AV36" s="64"/>
-      <c r="AW36" s="64"/>
-      <c r="AX36" s="64"/>
-      <c r="AY36" s="64"/>
-      <c r="AZ36" s="64"/>
-      <c r="BA36" s="64"/>
-      <c r="BB36" s="64"/>
-      <c r="BC36" s="64"/>
-      <c r="BD36" s="64"/>
-      <c r="BE36" s="64"/>
-      <c r="BF36" s="64"/>
-      <c r="BG36" s="64"/>
-      <c r="BH36" s="64"/>
-      <c r="BI36" s="64"/>
-      <c r="BJ36" s="64"/>
-      <c r="BK36" s="64"/>
-      <c r="BL36" s="64"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="62"/>
+      <c r="W36" s="62"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="49"/>
+      <c r="AB36" s="63"/>
+      <c r="AC36" s="60"/>
+      <c r="AD36" s="61"/>
+      <c r="AE36" s="61"/>
+      <c r="AF36" s="61"/>
+      <c r="AG36" s="61"/>
+      <c r="AH36" s="61"/>
+      <c r="AI36" s="61"/>
+      <c r="AJ36" s="61"/>
+      <c r="AK36" s="61"/>
+      <c r="AL36" s="61"/>
+      <c r="AM36" s="61"/>
+      <c r="AN36" s="61"/>
+      <c r="AO36" s="61"/>
+      <c r="AP36" s="61"/>
+      <c r="AQ36" s="61"/>
+      <c r="AR36" s="61"/>
+      <c r="AS36" s="61"/>
+      <c r="AT36" s="61"/>
+      <c r="AU36" s="61"/>
+      <c r="AV36" s="61"/>
+      <c r="AW36" s="61"/>
+      <c r="AX36" s="61"/>
+      <c r="AY36" s="61"/>
+      <c r="AZ36" s="61"/>
+      <c r="BA36" s="61"/>
+      <c r="BB36" s="61"/>
+      <c r="BC36" s="61"/>
+      <c r="BD36" s="61"/>
+      <c r="BE36" s="61"/>
+      <c r="BF36" s="61"/>
+      <c r="BG36" s="61"/>
+      <c r="BH36" s="61"/>
+      <c r="BI36" s="61"/>
+      <c r="BJ36" s="61"/>
+      <c r="BK36" s="61"/>
+      <c r="BL36" s="61"/>
     </row>
     <row r="37" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
@@ -4876,52 +5117,52 @@
       <c r="Y37" s="44"/>
       <c r="Z37" s="44"/>
       <c r="AA37" s="44"/>
-      <c r="AB37" s="62"/>
-      <c r="AC37" s="63"/>
-      <c r="AD37" s="64"/>
-      <c r="AE37" s="64"/>
-      <c r="AF37" s="64"/>
-      <c r="AG37" s="64"/>
-      <c r="AH37" s="64"/>
-      <c r="AI37" s="64"/>
-      <c r="AJ37" s="64"/>
-      <c r="AK37" s="64"/>
-      <c r="AL37" s="64"/>
-      <c r="AM37" s="64"/>
-      <c r="AN37" s="64"/>
-      <c r="AO37" s="64"/>
-      <c r="AP37" s="64"/>
-      <c r="AQ37" s="64"/>
-      <c r="AR37" s="64"/>
-      <c r="AS37" s="64"/>
-      <c r="AT37" s="64"/>
-      <c r="AU37" s="64"/>
-      <c r="AV37" s="64"/>
-      <c r="AW37" s="64"/>
-      <c r="AX37" s="64"/>
-      <c r="AY37" s="64"/>
-      <c r="AZ37" s="64"/>
-      <c r="BA37" s="64"/>
-      <c r="BB37" s="64"/>
-      <c r="BC37" s="64"/>
-      <c r="BD37" s="64"/>
-      <c r="BE37" s="64"/>
-      <c r="BF37" s="64"/>
-      <c r="BG37" s="64"/>
-      <c r="BH37" s="64"/>
-      <c r="BI37" s="64"/>
-      <c r="BJ37" s="64"/>
-      <c r="BK37" s="64"/>
-      <c r="BL37" s="64"/>
+      <c r="AB37" s="59"/>
+      <c r="AC37" s="60"/>
+      <c r="AD37" s="61"/>
+      <c r="AE37" s="61"/>
+      <c r="AF37" s="61"/>
+      <c r="AG37" s="61"/>
+      <c r="AH37" s="61"/>
+      <c r="AI37" s="61"/>
+      <c r="AJ37" s="61"/>
+      <c r="AK37" s="61"/>
+      <c r="AL37" s="61"/>
+      <c r="AM37" s="61"/>
+      <c r="AN37" s="61"/>
+      <c r="AO37" s="61"/>
+      <c r="AP37" s="61"/>
+      <c r="AQ37" s="61"/>
+      <c r="AR37" s="61"/>
+      <c r="AS37" s="61"/>
+      <c r="AT37" s="61"/>
+      <c r="AU37" s="61"/>
+      <c r="AV37" s="61"/>
+      <c r="AW37" s="61"/>
+      <c r="AX37" s="61"/>
+      <c r="AY37" s="61"/>
+      <c r="AZ37" s="61"/>
+      <c r="BA37" s="61"/>
+      <c r="BB37" s="61"/>
+      <c r="BC37" s="61"/>
+      <c r="BD37" s="61"/>
+      <c r="BE37" s="61"/>
+      <c r="BF37" s="61"/>
+      <c r="BG37" s="61"/>
+      <c r="BH37" s="61"/>
+      <c r="BI37" s="61"/>
+      <c r="BJ37" s="61"/>
+      <c r="BK37" s="61"/>
+      <c r="BL37" s="61"/>
     </row>
     <row r="38" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="106" t="s">
         <v>171</v>
       </c>
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="112" t="s">
         <v>161</v>
       </c>
-      <c r="C38" s="44"/>
+      <c r="C38" s="108"/>
       <c r="D38" s="44"/>
       <c r="E38" s="44"/>
       <c r="F38" s="44"/>
@@ -4946,55 +5187,55 @@
       <c r="Y38" s="44"/>
       <c r="Z38" s="44"/>
       <c r="AA38" s="44"/>
-      <c r="AB38" s="62"/>
-      <c r="AC38" s="63"/>
-      <c r="AD38" s="64"/>
-      <c r="AE38" s="64"/>
-      <c r="AF38" s="64"/>
-      <c r="AG38" s="64"/>
-      <c r="AH38" s="64"/>
-      <c r="AI38" s="64"/>
-      <c r="AJ38" s="64"/>
-      <c r="AK38" s="64"/>
-      <c r="AL38" s="64"/>
-      <c r="AM38" s="64"/>
-      <c r="AN38" s="64"/>
-      <c r="AO38" s="64"/>
-      <c r="AP38" s="64"/>
-      <c r="AQ38" s="64"/>
-      <c r="AR38" s="64"/>
-      <c r="AS38" s="64"/>
-      <c r="AT38" s="64"/>
-      <c r="AU38" s="64"/>
-      <c r="AV38" s="64"/>
-      <c r="AW38" s="64"/>
-      <c r="AX38" s="64"/>
-      <c r="AY38" s="64"/>
-      <c r="AZ38" s="64"/>
-      <c r="BA38" s="64"/>
-      <c r="BB38" s="64"/>
-      <c r="BC38" s="64"/>
-      <c r="BD38" s="64"/>
-      <c r="BE38" s="64"/>
-      <c r="BF38" s="64"/>
-      <c r="BG38" s="64"/>
-      <c r="BH38" s="64"/>
-      <c r="BI38" s="64"/>
-      <c r="BJ38" s="64"/>
-      <c r="BK38" s="64"/>
-      <c r="BL38" s="64"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="60"/>
+      <c r="AD38" s="61"/>
+      <c r="AE38" s="61"/>
+      <c r="AF38" s="61"/>
+      <c r="AG38" s="61"/>
+      <c r="AH38" s="61"/>
+      <c r="AI38" s="61"/>
+      <c r="AJ38" s="61"/>
+      <c r="AK38" s="61"/>
+      <c r="AL38" s="61"/>
+      <c r="AM38" s="61"/>
+      <c r="AN38" s="61"/>
+      <c r="AO38" s="61"/>
+      <c r="AP38" s="61"/>
+      <c r="AQ38" s="61"/>
+      <c r="AR38" s="61"/>
+      <c r="AS38" s="61"/>
+      <c r="AT38" s="61"/>
+      <c r="AU38" s="61"/>
+      <c r="AV38" s="61"/>
+      <c r="AW38" s="61"/>
+      <c r="AX38" s="61"/>
+      <c r="AY38" s="61"/>
+      <c r="AZ38" s="61"/>
+      <c r="BA38" s="61"/>
+      <c r="BB38" s="61"/>
+      <c r="BC38" s="61"/>
+      <c r="BD38" s="61"/>
+      <c r="BE38" s="61"/>
+      <c r="BF38" s="61"/>
+      <c r="BG38" s="61"/>
+      <c r="BH38" s="61"/>
+      <c r="BI38" s="61"/>
+      <c r="BJ38" s="61"/>
+      <c r="BK38" s="61"/>
+      <c r="BL38" s="61"/>
     </row>
     <row r="39" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A39" s="89" t="s">
+      <c r="A39" s="110" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="44"/>
+      <c r="D39" s="105"/>
       <c r="E39" s="44"/>
       <c r="F39" s="44"/>
       <c r="G39" s="44"/>
@@ -5018,55 +5259,55 @@
       <c r="Y39" s="44"/>
       <c r="Z39" s="44"/>
       <c r="AA39" s="44"/>
-      <c r="AB39" s="62"/>
-      <c r="AC39" s="63"/>
-      <c r="AD39" s="64"/>
-      <c r="AE39" s="64"/>
-      <c r="AF39" s="64"/>
-      <c r="AG39" s="64"/>
-      <c r="AH39" s="64"/>
-      <c r="AI39" s="64"/>
-      <c r="AJ39" s="64"/>
-      <c r="AK39" s="64"/>
-      <c r="AL39" s="64"/>
-      <c r="AM39" s="64"/>
-      <c r="AN39" s="64"/>
-      <c r="AO39" s="64"/>
-      <c r="AP39" s="64"/>
-      <c r="AQ39" s="64"/>
-      <c r="AR39" s="64"/>
-      <c r="AS39" s="64"/>
-      <c r="AT39" s="64"/>
-      <c r="AU39" s="64"/>
-      <c r="AV39" s="64"/>
-      <c r="AW39" s="64"/>
-      <c r="AX39" s="64"/>
-      <c r="AY39" s="64"/>
-      <c r="AZ39" s="64"/>
-      <c r="BA39" s="64"/>
-      <c r="BB39" s="64"/>
-      <c r="BC39" s="64"/>
-      <c r="BD39" s="64"/>
-      <c r="BE39" s="64"/>
-      <c r="BF39" s="64"/>
-      <c r="BG39" s="64"/>
-      <c r="BH39" s="64"/>
-      <c r="BI39" s="64"/>
-      <c r="BJ39" s="64"/>
-      <c r="BK39" s="64"/>
-      <c r="BL39" s="64"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="60"/>
+      <c r="AD39" s="61"/>
+      <c r="AE39" s="61"/>
+      <c r="AF39" s="61"/>
+      <c r="AG39" s="61"/>
+      <c r="AH39" s="61"/>
+      <c r="AI39" s="61"/>
+      <c r="AJ39" s="61"/>
+      <c r="AK39" s="61"/>
+      <c r="AL39" s="61"/>
+      <c r="AM39" s="61"/>
+      <c r="AN39" s="61"/>
+      <c r="AO39" s="61"/>
+      <c r="AP39" s="61"/>
+      <c r="AQ39" s="61"/>
+      <c r="AR39" s="61"/>
+      <c r="AS39" s="61"/>
+      <c r="AT39" s="61"/>
+      <c r="AU39" s="61"/>
+      <c r="AV39" s="61"/>
+      <c r="AW39" s="61"/>
+      <c r="AX39" s="61"/>
+      <c r="AY39" s="61"/>
+      <c r="AZ39" s="61"/>
+      <c r="BA39" s="61"/>
+      <c r="BB39" s="61"/>
+      <c r="BC39" s="61"/>
+      <c r="BD39" s="61"/>
+      <c r="BE39" s="61"/>
+      <c r="BF39" s="61"/>
+      <c r="BG39" s="61"/>
+      <c r="BH39" s="61"/>
+      <c r="BI39" s="61"/>
+      <c r="BJ39" s="61"/>
+      <c r="BK39" s="61"/>
+      <c r="BL39" s="61"/>
     </row>
     <row r="40" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A40" s="89"/>
-      <c r="B40" s="46">
+      <c r="A40" s="116"/>
+      <c r="B40" s="72">
         <v>5058</v>
       </c>
-      <c r="C40" s="46">
+      <c r="C40" s="98">
         <v>5549</v>
       </c>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
       <c r="G40" s="44"/>
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
@@ -5088,64 +5329,64 @@
       <c r="Y40" s="44"/>
       <c r="Z40" s="44"/>
       <c r="AA40" s="44"/>
-      <c r="AB40" s="62"/>
-      <c r="AC40" s="63"/>
-      <c r="AD40" s="64"/>
-      <c r="AE40" s="64"/>
-      <c r="AF40" s="64"/>
-      <c r="AG40" s="64"/>
-      <c r="AH40" s="64"/>
-      <c r="AI40" s="64"/>
-      <c r="AJ40" s="64"/>
-      <c r="AK40" s="64"/>
-      <c r="AL40" s="64"/>
-      <c r="AM40" s="64"/>
-      <c r="AN40" s="64"/>
-      <c r="AO40" s="64"/>
-      <c r="AP40" s="64"/>
-      <c r="AQ40" s="64"/>
-      <c r="AR40" s="64"/>
-      <c r="AS40" s="64"/>
-      <c r="AT40" s="64"/>
-      <c r="AU40" s="64"/>
-      <c r="AV40" s="64"/>
-      <c r="AW40" s="64"/>
-      <c r="AX40" s="64"/>
-      <c r="AY40" s="64"/>
-      <c r="AZ40" s="64"/>
-      <c r="BA40" s="64"/>
-      <c r="BB40" s="64"/>
-      <c r="BC40" s="64"/>
-      <c r="BD40" s="64"/>
-      <c r="BE40" s="64"/>
-      <c r="BF40" s="64"/>
-      <c r="BG40" s="64"/>
-      <c r="BH40" s="64"/>
-      <c r="BI40" s="64"/>
-      <c r="BJ40" s="64"/>
-      <c r="BK40" s="64"/>
-      <c r="BL40" s="64"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="60"/>
+      <c r="AD40" s="61"/>
+      <c r="AE40" s="61"/>
+      <c r="AF40" s="61"/>
+      <c r="AG40" s="61"/>
+      <c r="AH40" s="61"/>
+      <c r="AI40" s="61"/>
+      <c r="AJ40" s="61"/>
+      <c r="AK40" s="61"/>
+      <c r="AL40" s="61"/>
+      <c r="AM40" s="61"/>
+      <c r="AN40" s="61"/>
+      <c r="AO40" s="61"/>
+      <c r="AP40" s="61"/>
+      <c r="AQ40" s="61"/>
+      <c r="AR40" s="61"/>
+      <c r="AS40" s="61"/>
+      <c r="AT40" s="61"/>
+      <c r="AU40" s="61"/>
+      <c r="AV40" s="61"/>
+      <c r="AW40" s="61"/>
+      <c r="AX40" s="61"/>
+      <c r="AY40" s="61"/>
+      <c r="AZ40" s="61"/>
+      <c r="BA40" s="61"/>
+      <c r="BB40" s="61"/>
+      <c r="BC40" s="61"/>
+      <c r="BD40" s="61"/>
+      <c r="BE40" s="61"/>
+      <c r="BF40" s="61"/>
+      <c r="BG40" s="61"/>
+      <c r="BH40" s="61"/>
+      <c r="BI40" s="61"/>
+      <c r="BJ40" s="61"/>
+      <c r="BK40" s="61"/>
+      <c r="BL40" s="61"/>
     </row>
     <row r="41" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A41" s="87" t="s">
+      <c r="A41" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="46">
+      <c r="B41" s="102">
         <v>5</v>
       </c>
-      <c r="C41" s="46">
+      <c r="C41" s="102">
         <v>6</v>
       </c>
-      <c r="D41" s="46">
+      <c r="D41" s="102">
         <v>7</v>
       </c>
-      <c r="E41" s="46">
+      <c r="E41" s="102">
         <v>8</v>
       </c>
-      <c r="F41" s="46">
+      <c r="F41" s="96">
         <v>9</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="113"/>
       <c r="H41" s="44"/>
       <c r="I41" s="44"/>
       <c r="J41" s="44"/>
@@ -5166,62 +5407,62 @@
       <c r="Y41" s="44"/>
       <c r="Z41" s="44"/>
       <c r="AA41" s="44"/>
-      <c r="AB41" s="62"/>
-      <c r="AC41" s="63"/>
-      <c r="AD41" s="64"/>
-      <c r="AE41" s="64"/>
-      <c r="AF41" s="64"/>
-      <c r="AG41" s="64"/>
-      <c r="AH41" s="64"/>
-      <c r="AI41" s="64"/>
-      <c r="AJ41" s="64"/>
-      <c r="AK41" s="64"/>
-      <c r="AL41" s="64"/>
-      <c r="AM41" s="64"/>
-      <c r="AN41" s="64"/>
-      <c r="AO41" s="64"/>
-      <c r="AP41" s="64"/>
-      <c r="AQ41" s="64"/>
-      <c r="AR41" s="64"/>
-      <c r="AS41" s="64"/>
-      <c r="AT41" s="64"/>
-      <c r="AU41" s="64"/>
-      <c r="AV41" s="64"/>
-      <c r="AW41" s="64"/>
-      <c r="AX41" s="64"/>
-      <c r="AY41" s="64"/>
-      <c r="AZ41" s="64"/>
-      <c r="BA41" s="64"/>
-      <c r="BB41" s="64"/>
-      <c r="BC41" s="64"/>
-      <c r="BD41" s="64"/>
-      <c r="BE41" s="64"/>
-      <c r="BF41" s="64"/>
-      <c r="BG41" s="64"/>
-      <c r="BH41" s="64"/>
-      <c r="BI41" s="64"/>
-      <c r="BJ41" s="64"/>
-      <c r="BK41" s="64"/>
-      <c r="BL41" s="64"/>
+      <c r="AB41" s="59"/>
+      <c r="AC41" s="60"/>
+      <c r="AD41" s="61"/>
+      <c r="AE41" s="61"/>
+      <c r="AF41" s="61"/>
+      <c r="AG41" s="61"/>
+      <c r="AH41" s="61"/>
+      <c r="AI41" s="61"/>
+      <c r="AJ41" s="61"/>
+      <c r="AK41" s="61"/>
+      <c r="AL41" s="61"/>
+      <c r="AM41" s="61"/>
+      <c r="AN41" s="61"/>
+      <c r="AO41" s="61"/>
+      <c r="AP41" s="61"/>
+      <c r="AQ41" s="61"/>
+      <c r="AR41" s="61"/>
+      <c r="AS41" s="61"/>
+      <c r="AT41" s="61"/>
+      <c r="AU41" s="61"/>
+      <c r="AV41" s="61"/>
+      <c r="AW41" s="61"/>
+      <c r="AX41" s="61"/>
+      <c r="AY41" s="61"/>
+      <c r="AZ41" s="61"/>
+      <c r="BA41" s="61"/>
+      <c r="BB41" s="61"/>
+      <c r="BC41" s="61"/>
+      <c r="BD41" s="61"/>
+      <c r="BE41" s="61"/>
+      <c r="BF41" s="61"/>
+      <c r="BG41" s="61"/>
+      <c r="BH41" s="61"/>
+      <c r="BI41" s="61"/>
+      <c r="BJ41" s="61"/>
+      <c r="BK41" s="61"/>
+      <c r="BL41" s="61"/>
     </row>
     <row r="42" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A42" s="88"/>
-      <c r="B42" s="46">
+      <c r="A42" s="103"/>
+      <c r="B42" s="104">
         <v>29</v>
       </c>
-      <c r="C42" s="46">
+      <c r="C42" s="104">
         <v>30</v>
       </c>
-      <c r="D42" s="46">
+      <c r="D42" s="104">
         <v>32</v>
       </c>
-      <c r="E42" s="46">
+      <c r="E42" s="104">
         <v>33</v>
       </c>
-      <c r="F42" s="46">
+      <c r="F42" s="97">
         <v>33</v>
       </c>
-      <c r="G42" s="44"/>
+      <c r="G42" s="105"/>
       <c r="H42" s="44"/>
       <c r="I42" s="44"/>
       <c r="J42" s="44"/>
@@ -5242,56 +5483,64 @@
       <c r="Y42" s="44"/>
       <c r="Z42" s="44"/>
       <c r="AA42" s="44"/>
-      <c r="AB42" s="62"/>
-      <c r="AC42" s="63"/>
-      <c r="AD42" s="64"/>
-      <c r="AE42" s="64"/>
-      <c r="AF42" s="64"/>
-      <c r="AG42" s="64"/>
-      <c r="AH42" s="64"/>
-      <c r="AI42" s="64"/>
-      <c r="AJ42" s="64"/>
-      <c r="AK42" s="64"/>
-      <c r="AL42" s="64"/>
-      <c r="AM42" s="64"/>
-      <c r="AN42" s="64"/>
-      <c r="AO42" s="64"/>
-      <c r="AP42" s="64"/>
-      <c r="AQ42" s="64"/>
-      <c r="AR42" s="64"/>
-      <c r="AS42" s="64"/>
-      <c r="AT42" s="64"/>
-      <c r="AU42" s="64"/>
-      <c r="AV42" s="64"/>
-      <c r="AW42" s="64"/>
-      <c r="AX42" s="64"/>
-      <c r="AY42" s="64"/>
-      <c r="AZ42" s="64"/>
-      <c r="BA42" s="64"/>
-      <c r="BB42" s="64"/>
-      <c r="BC42" s="64"/>
-      <c r="BD42" s="64"/>
-      <c r="BE42" s="64"/>
-      <c r="BF42" s="64"/>
-      <c r="BG42" s="64"/>
-      <c r="BH42" s="64"/>
-      <c r="BI42" s="64"/>
-      <c r="BJ42" s="64"/>
-      <c r="BK42" s="64"/>
-      <c r="BL42" s="64"/>
-    </row>
-    <row r="43" spans="1:64" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="68" t="s">
-        <v>164</v>
-      </c>
-      <c r="B43" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
+      <c r="AB42" s="59"/>
+      <c r="AC42" s="60"/>
+      <c r="AD42" s="61"/>
+      <c r="AE42" s="61"/>
+      <c r="AF42" s="61"/>
+      <c r="AG42" s="61"/>
+      <c r="AH42" s="61"/>
+      <c r="AI42" s="61"/>
+      <c r="AJ42" s="61"/>
+      <c r="AK42" s="61"/>
+      <c r="AL42" s="61"/>
+      <c r="AM42" s="61"/>
+      <c r="AN42" s="61"/>
+      <c r="AO42" s="61"/>
+      <c r="AP42" s="61"/>
+      <c r="AQ42" s="61"/>
+      <c r="AR42" s="61"/>
+      <c r="AS42" s="61"/>
+      <c r="AT42" s="61"/>
+      <c r="AU42" s="61"/>
+      <c r="AV42" s="61"/>
+      <c r="AW42" s="61"/>
+      <c r="AX42" s="61"/>
+      <c r="AY42" s="61"/>
+      <c r="AZ42" s="61"/>
+      <c r="BA42" s="61"/>
+      <c r="BB42" s="61"/>
+      <c r="BC42" s="61"/>
+      <c r="BD42" s="61"/>
+      <c r="BE42" s="61"/>
+      <c r="BF42" s="61"/>
+      <c r="BG42" s="61"/>
+      <c r="BH42" s="61"/>
+      <c r="BI42" s="61"/>
+      <c r="BJ42" s="61"/>
+      <c r="BK42" s="61"/>
+      <c r="BL42" s="61"/>
+    </row>
+    <row r="43" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A43" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="102">
+        <v>5</v>
+      </c>
+      <c r="C43" s="102">
+        <v>6</v>
+      </c>
+      <c r="D43" s="102">
+        <v>7</v>
+      </c>
+      <c r="E43" s="102">
+        <v>8</v>
+      </c>
+      <c r="F43" s="96">
+        <v>9</v>
+      </c>
+      <c r="G43" s="113"/>
       <c r="H43" s="44"/>
       <c r="I43" s="44"/>
       <c r="J43" s="44"/>
@@ -5304,127 +5553,139 @@
       <c r="Q43" s="44"/>
       <c r="R43" s="44"/>
       <c r="S43" s="44"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-      <c r="AB43" s="15"/>
-      <c r="AC43" s="16"/>
-      <c r="AD43" s="14"/>
-      <c r="AE43" s="14"/>
-      <c r="AF43" s="14"/>
-      <c r="AG43" s="14"/>
-      <c r="AH43" s="14"/>
-      <c r="AI43" s="14"/>
-      <c r="AJ43" s="14"/>
-      <c r="AK43" s="14"/>
-      <c r="AL43" s="14"/>
-      <c r="AM43" s="14"/>
-      <c r="AN43" s="14"/>
-      <c r="AO43" s="14"/>
-      <c r="AP43" s="14"/>
-      <c r="AQ43" s="14"/>
-      <c r="AR43" s="14"/>
-      <c r="AS43" s="14"/>
-      <c r="AT43" s="14"/>
-      <c r="AU43" s="14"/>
-      <c r="AV43" s="14"/>
-      <c r="AW43" s="14"/>
-      <c r="AX43" s="14"/>
-      <c r="AY43" s="14"/>
-      <c r="AZ43" s="14"/>
-      <c r="BA43" s="14"/>
-      <c r="BB43" s="14"/>
-      <c r="BC43" s="14"/>
-      <c r="BD43" s="14"/>
-      <c r="BE43" s="14"/>
-      <c r="BF43" s="14"/>
-      <c r="BG43" s="14"/>
-      <c r="BH43" s="69"/>
-      <c r="BI43" s="69"/>
-      <c r="BJ43" s="69"/>
-      <c r="BK43" s="69"/>
-      <c r="BL43" s="69"/>
-    </row>
-    <row r="44" spans="1:64" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="70"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="52"/>
-      <c r="Q44" s="52"/>
-      <c r="R44" s="52"/>
-      <c r="S44" s="52"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="25"/>
-      <c r="V44" s="25"/>
-      <c r="W44" s="25"/>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="25"/>
-      <c r="Z44" s="25"/>
-      <c r="AA44" s="25"/>
-      <c r="AB44" s="26"/>
-      <c r="AC44" s="16"/>
-      <c r="AD44" s="14"/>
-      <c r="AE44" s="14"/>
-      <c r="AF44" s="14"/>
-      <c r="AG44" s="14"/>
-      <c r="AH44" s="14"/>
-      <c r="AI44" s="14"/>
-      <c r="AJ44" s="14"/>
-      <c r="AK44" s="14"/>
-      <c r="AL44" s="14"/>
-      <c r="AM44" s="14"/>
-      <c r="AN44" s="14"/>
-      <c r="AO44" s="14"/>
-      <c r="AP44" s="14"/>
-      <c r="AQ44" s="14"/>
-      <c r="AR44" s="14"/>
-      <c r="AS44" s="14"/>
-      <c r="AT44" s="14"/>
-      <c r="AU44" s="14"/>
-      <c r="AV44" s="14"/>
-      <c r="AW44" s="14"/>
-      <c r="AX44" s="14"/>
-      <c r="AY44" s="14"/>
-      <c r="AZ44" s="14"/>
-      <c r="BA44" s="14"/>
-      <c r="BB44" s="14"/>
-      <c r="BC44" s="14"/>
-      <c r="BD44" s="14"/>
-      <c r="BE44" s="14"/>
-      <c r="BF44" s="14"/>
-      <c r="BG44" s="14"/>
-      <c r="BH44" s="69"/>
-      <c r="BI44" s="69"/>
-      <c r="BJ44" s="69"/>
-      <c r="BK44" s="69"/>
-      <c r="BL44" s="69"/>
-    </row>
-    <row r="45" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="44"/>
+      <c r="Y43" s="44"/>
+      <c r="Z43" s="44"/>
+      <c r="AA43" s="44"/>
+      <c r="AB43" s="59"/>
+      <c r="AC43" s="60"/>
+      <c r="AD43" s="61"/>
+      <c r="AE43" s="61"/>
+      <c r="AF43" s="61"/>
+      <c r="AG43" s="61"/>
+      <c r="AH43" s="61"/>
+      <c r="AI43" s="61"/>
+      <c r="AJ43" s="61"/>
+      <c r="AK43" s="61"/>
+      <c r="AL43" s="61"/>
+      <c r="AM43" s="61"/>
+      <c r="AN43" s="61"/>
+      <c r="AO43" s="61"/>
+      <c r="AP43" s="61"/>
+      <c r="AQ43" s="61"/>
+      <c r="AR43" s="61"/>
+      <c r="AS43" s="61"/>
+      <c r="AT43" s="61"/>
+      <c r="AU43" s="61"/>
+      <c r="AV43" s="61"/>
+      <c r="AW43" s="61"/>
+      <c r="AX43" s="61"/>
+      <c r="AY43" s="61"/>
+      <c r="AZ43" s="61"/>
+      <c r="BA43" s="61"/>
+      <c r="BB43" s="61"/>
+      <c r="BC43" s="61"/>
+      <c r="BD43" s="61"/>
+      <c r="BE43" s="61"/>
+      <c r="BF43" s="61"/>
+      <c r="BG43" s="61"/>
+      <c r="BH43" s="61"/>
+      <c r="BI43" s="61"/>
+      <c r="BJ43" s="61"/>
+      <c r="BK43" s="61"/>
+      <c r="BL43" s="61"/>
+    </row>
+    <row r="44" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A44" s="103"/>
+      <c r="B44" s="104">
+        <v>34</v>
+      </c>
+      <c r="C44" s="104">
+        <v>34</v>
+      </c>
+      <c r="D44" s="104">
+        <v>34</v>
+      </c>
+      <c r="E44" s="104">
+        <v>34</v>
+      </c>
+      <c r="F44" s="97">
+        <v>33</v>
+      </c>
+      <c r="G44" s="105"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="44"/>
+      <c r="X44" s="44"/>
+      <c r="Y44" s="44"/>
+      <c r="Z44" s="44"/>
+      <c r="AA44" s="44"/>
+      <c r="AB44" s="59"/>
+      <c r="AC44" s="60"/>
+      <c r="AD44" s="61"/>
+      <c r="AE44" s="61"/>
+      <c r="AF44" s="61"/>
+      <c r="AG44" s="61"/>
+      <c r="AH44" s="61"/>
+      <c r="AI44" s="61"/>
+      <c r="AJ44" s="61"/>
+      <c r="AK44" s="61"/>
+      <c r="AL44" s="61"/>
+      <c r="AM44" s="61"/>
+      <c r="AN44" s="61"/>
+      <c r="AO44" s="61"/>
+      <c r="AP44" s="61"/>
+      <c r="AQ44" s="61"/>
+      <c r="AR44" s="61"/>
+      <c r="AS44" s="61"/>
+      <c r="AT44" s="61"/>
+      <c r="AU44" s="61"/>
+      <c r="AV44" s="61"/>
+      <c r="AW44" s="61"/>
+      <c r="AX44" s="61"/>
+      <c r="AY44" s="61"/>
+      <c r="AZ44" s="61"/>
+      <c r="BA44" s="61"/>
+      <c r="BB44" s="61"/>
+      <c r="BC44" s="61"/>
+      <c r="BD44" s="61"/>
+      <c r="BE44" s="61"/>
+      <c r="BF44" s="61"/>
+      <c r="BG44" s="61"/>
+      <c r="BH44" s="61"/>
+      <c r="BI44" s="61"/>
+      <c r="BJ44" s="61"/>
+      <c r="BK44" s="61"/>
+      <c r="BL44" s="61"/>
+    </row>
+    <row r="45" spans="1:64" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="100"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="100"/>
       <c r="G45" s="44"/>
       <c r="H45" s="44"/>
       <c r="I45" s="44"/>
@@ -5438,123 +5699,121 @@
       <c r="Q45" s="44"/>
       <c r="R45" s="44"/>
       <c r="S45" s="44"/>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="44"/>
-      <c r="W45" s="44"/>
-      <c r="X45" s="44"/>
-      <c r="Y45" s="44"/>
-      <c r="Z45" s="44"/>
-      <c r="AA45" s="44"/>
-      <c r="AB45" s="62"/>
-      <c r="AC45" s="63"/>
-      <c r="AD45" s="64"/>
-      <c r="AE45" s="64"/>
-      <c r="AF45" s="64"/>
-      <c r="AG45" s="64"/>
-      <c r="AH45" s="64"/>
-      <c r="AI45" s="64"/>
-      <c r="AJ45" s="64"/>
-      <c r="AK45" s="64"/>
-      <c r="AL45" s="64"/>
-      <c r="AM45" s="64"/>
-      <c r="AN45" s="64"/>
-      <c r="AO45" s="64"/>
-      <c r="AP45" s="64"/>
-      <c r="AQ45" s="64"/>
-      <c r="AR45" s="64"/>
-      <c r="AS45" s="64"/>
-      <c r="AT45" s="64"/>
-      <c r="AU45" s="64"/>
-      <c r="AV45" s="64"/>
-      <c r="AW45" s="64"/>
-      <c r="AX45" s="64"/>
-      <c r="AY45" s="64"/>
-      <c r="AZ45" s="64"/>
-      <c r="BA45" s="64"/>
-      <c r="BB45" s="64"/>
-      <c r="BC45" s="64"/>
-      <c r="BD45" s="64"/>
-      <c r="BE45" s="64"/>
-      <c r="BF45" s="64"/>
-      <c r="BG45" s="64"/>
-      <c r="BH45" s="64"/>
-      <c r="BI45" s="64"/>
-      <c r="BJ45" s="64"/>
-      <c r="BK45" s="64"/>
-      <c r="BL45" s="64"/>
-    </row>
-    <row r="46" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A46" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="44"/>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="44"/>
-      <c r="R46" s="44"/>
-      <c r="S46" s="44"/>
-      <c r="T46" s="44"/>
-      <c r="U46" s="44"/>
-      <c r="V46" s="44"/>
-      <c r="W46" s="44"/>
-      <c r="X46" s="44"/>
-      <c r="Y46" s="44"/>
-      <c r="Z46" s="44"/>
-      <c r="AA46" s="44"/>
-      <c r="AB46" s="62"/>
-      <c r="AC46" s="63"/>
-      <c r="AD46" s="64"/>
-      <c r="AE46" s="64"/>
-      <c r="AF46" s="64"/>
-      <c r="AG46" s="64"/>
-      <c r="AH46" s="64"/>
-      <c r="AI46" s="64"/>
-      <c r="AJ46" s="64"/>
-      <c r="AK46" s="64"/>
-      <c r="AL46" s="64"/>
-      <c r="AM46" s="64"/>
-      <c r="AN46" s="64"/>
-      <c r="AO46" s="64"/>
-      <c r="AP46" s="64"/>
-      <c r="AQ46" s="64"/>
-      <c r="AR46" s="64"/>
-      <c r="AS46" s="64"/>
-      <c r="AT46" s="64"/>
-      <c r="AU46" s="64"/>
-      <c r="AV46" s="64"/>
-      <c r="AW46" s="64"/>
-      <c r="AX46" s="64"/>
-      <c r="AY46" s="64"/>
-      <c r="AZ46" s="64"/>
-      <c r="BA46" s="64"/>
-      <c r="BB46" s="64"/>
-      <c r="BC46" s="64"/>
-      <c r="BD46" s="64"/>
-      <c r="BE46" s="64"/>
-      <c r="BF46" s="64"/>
-      <c r="BG46" s="64"/>
-      <c r="BH46" s="64"/>
-      <c r="BI46" s="64"/>
-      <c r="BJ46" s="64"/>
-      <c r="BK46" s="64"/>
-      <c r="BL46" s="64"/>
-    </row>
-    <row r="47" spans="1:64" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="40" t="s">
-        <v>170</v>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="15"/>
+      <c r="AC45" s="16"/>
+      <c r="AD45" s="14"/>
+      <c r="AE45" s="14"/>
+      <c r="AF45" s="14"/>
+      <c r="AG45" s="14"/>
+      <c r="AH45" s="14"/>
+      <c r="AI45" s="14"/>
+      <c r="AJ45" s="14"/>
+      <c r="AK45" s="14"/>
+      <c r="AL45" s="14"/>
+      <c r="AM45" s="14"/>
+      <c r="AN45" s="14"/>
+      <c r="AO45" s="14"/>
+      <c r="AP45" s="14"/>
+      <c r="AQ45" s="14"/>
+      <c r="AR45" s="14"/>
+      <c r="AS45" s="14"/>
+      <c r="AT45" s="14"/>
+      <c r="AU45" s="14"/>
+      <c r="AV45" s="14"/>
+      <c r="AW45" s="14"/>
+      <c r="AX45" s="14"/>
+      <c r="AY45" s="14"/>
+      <c r="AZ45" s="14"/>
+      <c r="BA45" s="14"/>
+      <c r="BB45" s="14"/>
+      <c r="BC45" s="14"/>
+      <c r="BD45" s="14"/>
+      <c r="BE45" s="14"/>
+      <c r="BF45" s="14"/>
+      <c r="BG45" s="14"/>
+      <c r="BH45" s="65"/>
+      <c r="BI45" s="65"/>
+      <c r="BJ45" s="65"/>
+      <c r="BK45" s="65"/>
+      <c r="BL45" s="65"/>
+    </row>
+    <row r="46" spans="1:64" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="66"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="49"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="26"/>
+      <c r="AC46" s="16"/>
+      <c r="AD46" s="14"/>
+      <c r="AE46" s="14"/>
+      <c r="AF46" s="14"/>
+      <c r="AG46" s="14"/>
+      <c r="AH46" s="14"/>
+      <c r="AI46" s="14"/>
+      <c r="AJ46" s="14"/>
+      <c r="AK46" s="14"/>
+      <c r="AL46" s="14"/>
+      <c r="AM46" s="14"/>
+      <c r="AN46" s="14"/>
+      <c r="AO46" s="14"/>
+      <c r="AP46" s="14"/>
+      <c r="AQ46" s="14"/>
+      <c r="AR46" s="14"/>
+      <c r="AS46" s="14"/>
+      <c r="AT46" s="14"/>
+      <c r="AU46" s="14"/>
+      <c r="AV46" s="14"/>
+      <c r="AW46" s="14"/>
+      <c r="AX46" s="14"/>
+      <c r="AY46" s="14"/>
+      <c r="AZ46" s="14"/>
+      <c r="BA46" s="14"/>
+      <c r="BB46" s="14"/>
+      <c r="BC46" s="14"/>
+      <c r="BD46" s="14"/>
+      <c r="BE46" s="14"/>
+      <c r="BF46" s="14"/>
+      <c r="BG46" s="14"/>
+      <c r="BH46" s="65"/>
+      <c r="BI46" s="65"/>
+      <c r="BJ46" s="65"/>
+      <c r="BK46" s="65"/>
+      <c r="BL46" s="65"/>
+    </row>
+    <row r="47" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="s">
+        <v>163</v>
       </c>
       <c r="B47" s="44"/>
       <c r="C47" s="44"/>
@@ -5582,11 +5841,47 @@
       <c r="Y47" s="44"/>
       <c r="Z47" s="44"/>
       <c r="AA47" s="44"/>
-      <c r="AB47" s="44"/>
+      <c r="AB47" s="59"/>
+      <c r="AC47" s="60"/>
+      <c r="AD47" s="61"/>
+      <c r="AE47" s="61"/>
+      <c r="AF47" s="61"/>
+      <c r="AG47" s="61"/>
+      <c r="AH47" s="61"/>
+      <c r="AI47" s="61"/>
+      <c r="AJ47" s="61"/>
+      <c r="AK47" s="61"/>
+      <c r="AL47" s="61"/>
+      <c r="AM47" s="61"/>
+      <c r="AN47" s="61"/>
+      <c r="AO47" s="61"/>
+      <c r="AP47" s="61"/>
+      <c r="AQ47" s="61"/>
+      <c r="AR47" s="61"/>
+      <c r="AS47" s="61"/>
+      <c r="AT47" s="61"/>
+      <c r="AU47" s="61"/>
+      <c r="AV47" s="61"/>
+      <c r="AW47" s="61"/>
+      <c r="AX47" s="61"/>
+      <c r="AY47" s="61"/>
+      <c r="AZ47" s="61"/>
+      <c r="BA47" s="61"/>
+      <c r="BB47" s="61"/>
+      <c r="BC47" s="61"/>
+      <c r="BD47" s="61"/>
+      <c r="BE47" s="61"/>
+      <c r="BF47" s="61"/>
+      <c r="BG47" s="61"/>
+      <c r="BH47" s="61"/>
+      <c r="BI47" s="61"/>
+      <c r="BJ47" s="61"/>
+      <c r="BK47" s="61"/>
+      <c r="BL47" s="61"/>
     </row>
     <row r="48" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A48" s="54" t="s">
-        <v>117</v>
+      <c r="A48" s="50" t="s">
+        <v>169</v>
       </c>
       <c r="B48" s="44"/>
       <c r="C48" s="44"/>
@@ -5614,104 +5909,220 @@
       <c r="Y48" s="44"/>
       <c r="Z48" s="44"/>
       <c r="AA48" s="44"/>
-      <c r="AB48" s="44"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="29"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="71"/>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="71"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="73"/>
-      <c r="N55" s="73"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="74"/>
-      <c r="B56" s="74"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="74"/>
-      <c r="H56" s="74"/>
-      <c r="I56" s="74"/>
-      <c r="J56" s="74"/>
-      <c r="K56" s="74"/>
-      <c r="L56" s="75"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B58" s="55"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
+      <c r="AB48" s="59"/>
+      <c r="AC48" s="60"/>
+      <c r="AD48" s="61"/>
+      <c r="AE48" s="61"/>
+      <c r="AF48" s="61"/>
+      <c r="AG48" s="61"/>
+      <c r="AH48" s="61"/>
+      <c r="AI48" s="61"/>
+      <c r="AJ48" s="61"/>
+      <c r="AK48" s="61"/>
+      <c r="AL48" s="61"/>
+      <c r="AM48" s="61"/>
+      <c r="AN48" s="61"/>
+      <c r="AO48" s="61"/>
+      <c r="AP48" s="61"/>
+      <c r="AQ48" s="61"/>
+      <c r="AR48" s="61"/>
+      <c r="AS48" s="61"/>
+      <c r="AT48" s="61"/>
+      <c r="AU48" s="61"/>
+      <c r="AV48" s="61"/>
+      <c r="AW48" s="61"/>
+      <c r="AX48" s="61"/>
+      <c r="AY48" s="61"/>
+      <c r="AZ48" s="61"/>
+      <c r="BA48" s="61"/>
+      <c r="BB48" s="61"/>
+      <c r="BC48" s="61"/>
+      <c r="BD48" s="61"/>
+      <c r="BE48" s="61"/>
+      <c r="BF48" s="61"/>
+      <c r="BG48" s="61"/>
+      <c r="BH48" s="61"/>
+      <c r="BI48" s="61"/>
+      <c r="BJ48" s="61"/>
+      <c r="BK48" s="61"/>
+      <c r="BL48" s="61"/>
+    </row>
+    <row r="49" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="44"/>
+      <c r="Y49" s="44"/>
+      <c r="Z49" s="44"/>
+      <c r="AA49" s="44"/>
+      <c r="AB49" s="44"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A50" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="44"/>
+      <c r="Y50" s="44"/>
+      <c r="Z50" s="44"/>
+      <c r="AA50" s="44"/>
+      <c r="AB50" s="44"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A51" s="29"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A57" s="67"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A58" s="70"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="70"/>
+      <c r="L58" s="71"/>
       <c r="M58" s="29"/>
       <c r="N58" s="29"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C59" s="76"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="76"/>
-      <c r="K59" s="76"/>
-      <c r="L59" s="76"/>
-      <c r="M59" s="76"/>
-      <c r="N59" s="76"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="76"/>
-      <c r="N60" s="76"/>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="72"/>
+      <c r="K61" s="72"/>
+      <c r="L61" s="72"/>
+      <c r="M61" s="72"/>
+      <c r="N61" s="72"/>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="72"/>
+      <c r="M62" s="72"/>
+      <c r="N62" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="V35:W35"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="A29:B29"/>
@@ -5722,21 +6133,6 @@
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="R32:T32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5745,17 +6141,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI91"/>
+  <dimension ref="A1:BI93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="59" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AF25" sqref="AF25"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="59" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="U73" sqref="U73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" style="29" customWidth="1"/>
-    <col min="2" max="2" width="30" style="55" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="55" customWidth="1"/>
+    <col min="2" max="2" width="30" style="52" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="52" customWidth="1"/>
     <col min="4" max="11" width="6.5546875" style="29" customWidth="1"/>
     <col min="12" max="15" width="6.21875" style="29" customWidth="1"/>
     <col min="16" max="21" width="6.88671875" style="29" bestFit="1" customWidth="1"/>
@@ -5776,20 +6172,20 @@
       <c r="C1" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="93" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="O1" s="93"/>
+      <c r="O1" s="89"/>
       <c r="P1" s="28" t="s">
         <v>141</v>
       </c>
@@ -5832,58 +6228,58 @@
       <c r="AC1" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="AD1" s="93" t="s">
+      <c r="AD1" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93" t="s">
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93" t="s">
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93" t="s">
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="AK1" s="93"/>
-      <c r="AL1" s="93" t="s">
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="AM1" s="93"/>
-      <c r="AN1" s="93" t="s">
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="AO1" s="93"/>
-      <c r="AP1" s="93" t="s">
+      <c r="AO1" s="89"/>
+      <c r="AP1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="AQ1" s="93"/>
-      <c r="AR1" s="93" t="s">
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="AS1" s="93"/>
-      <c r="AT1" s="93" t="s">
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="AU1" s="93"/>
-      <c r="AV1" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW1" s="93"/>
-      <c r="AX1" s="93" t="s">
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW1" s="89"/>
+      <c r="AX1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="AY1" s="93"/>
-      <c r="AZ1" s="93" t="s">
+      <c r="AY1" s="89"/>
+      <c r="AZ1" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="BA1" s="93"/>
-      <c r="BB1" s="93" t="s">
+      <c r="BA1" s="89"/>
+      <c r="BB1" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="BC1" s="93"/>
+      <c r="BC1" s="89"/>
       <c r="BD1" s="28" t="s">
         <v>155</v>
       </c>
@@ -6384,7 +6780,7 @@
       <c r="BI5" s="27"/>
     </row>
     <row r="6" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="81" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -6469,7 +6865,7 @@
       <c r="BI6" s="27"/>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A7" s="85"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -6548,7 +6944,7 @@
       <c r="BI7" s="27"/>
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="81" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -6617,7 +7013,7 @@
       <c r="BI8" s="27"/>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A9" s="85"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
@@ -6684,7 +7080,7 @@
       <c r="BI9" s="27"/>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="81" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -6769,7 +7165,7 @@
       <c r="BI10" s="27"/>
     </row>
     <row r="11" spans="1:61" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="85"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
@@ -6836,7 +7232,7 @@
       <c r="BI11" s="27"/>
     </row>
     <row r="12" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="81" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -6845,194 +7241,194 @@
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="97">
-        <v>1</v>
-      </c>
-      <c r="E12" s="98"/>
-      <c r="F12" s="97">
-        <v>1</v>
-      </c>
-      <c r="G12" s="98"/>
-      <c r="H12" s="97">
-        <v>1</v>
-      </c>
-      <c r="I12" s="98"/>
-      <c r="J12" s="97">
-        <v>1</v>
-      </c>
-      <c r="K12" s="98"/>
-      <c r="L12" s="97">
-        <v>1</v>
-      </c>
-      <c r="M12" s="98"/>
-      <c r="N12" s="97">
-        <v>1</v>
-      </c>
-      <c r="O12" s="98"/>
-      <c r="P12" s="97">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="97">
-        <v>1</v>
-      </c>
-      <c r="S12" s="98"/>
-      <c r="T12" s="97">
-        <v>1</v>
-      </c>
-      <c r="U12" s="98"/>
-      <c r="V12" s="97">
-        <v>1</v>
-      </c>
-      <c r="W12" s="98"/>
-      <c r="X12" s="97">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="98"/>
-      <c r="Z12" s="97">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="98"/>
-      <c r="AB12" s="97">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="98"/>
-      <c r="AD12" s="97">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="98"/>
-      <c r="AF12" s="97">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="98"/>
-      <c r="AH12" s="97">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="98"/>
-      <c r="AJ12" s="97">
-        <v>1</v>
-      </c>
-      <c r="AK12" s="98"/>
-      <c r="AL12" s="97">
-        <v>1</v>
-      </c>
-      <c r="AM12" s="98"/>
+      <c r="D12" s="85">
+        <v>1</v>
+      </c>
+      <c r="E12" s="86"/>
+      <c r="F12" s="85">
+        <v>1</v>
+      </c>
+      <c r="G12" s="86"/>
+      <c r="H12" s="85">
+        <v>1</v>
+      </c>
+      <c r="I12" s="86"/>
+      <c r="J12" s="85">
+        <v>1</v>
+      </c>
+      <c r="K12" s="86"/>
+      <c r="L12" s="85">
+        <v>1</v>
+      </c>
+      <c r="M12" s="86"/>
+      <c r="N12" s="85">
+        <v>1</v>
+      </c>
+      <c r="O12" s="86"/>
+      <c r="P12" s="85">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="85">
+        <v>1</v>
+      </c>
+      <c r="S12" s="86"/>
+      <c r="T12" s="85">
+        <v>1</v>
+      </c>
+      <c r="U12" s="86"/>
+      <c r="V12" s="85">
+        <v>1</v>
+      </c>
+      <c r="W12" s="86"/>
+      <c r="X12" s="85">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="85">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="85">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="85">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="86"/>
+      <c r="AF12" s="85">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="86"/>
+      <c r="AH12" s="85">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="86"/>
+      <c r="AJ12" s="85">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="86"/>
+      <c r="AL12" s="85">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="86"/>
       <c r="AN12" s="40">
         <v>1</v>
       </c>
       <c r="AO12" s="40">
         <v>1</v>
       </c>
-      <c r="AP12" s="97">
-        <v>1</v>
-      </c>
-      <c r="AQ12" s="98"/>
-      <c r="AR12" s="97">
-        <v>1</v>
-      </c>
-      <c r="AS12" s="98"/>
-      <c r="AT12" s="97">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="98"/>
-      <c r="AV12" s="97">
-        <v>1</v>
-      </c>
-      <c r="AW12" s="98"/>
-      <c r="AX12" s="97">
-        <v>1</v>
-      </c>
-      <c r="AY12" s="98"/>
+      <c r="AP12" s="85">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="86"/>
+      <c r="AR12" s="85">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="86"/>
+      <c r="AT12" s="85">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="86"/>
+      <c r="AV12" s="85">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="86"/>
+      <c r="AX12" s="85">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="86"/>
       <c r="AZ12" s="40">
         <v>1</v>
       </c>
       <c r="BA12" s="40">
         <v>1</v>
       </c>
-      <c r="BB12" s="97">
-        <v>1</v>
-      </c>
-      <c r="BC12" s="98"/>
-      <c r="BD12" s="97">
-        <v>1</v>
-      </c>
-      <c r="BE12" s="98"/>
-      <c r="BF12" s="97">
-        <v>1</v>
-      </c>
-      <c r="BG12" s="98"/>
+      <c r="BB12" s="85">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="86"/>
+      <c r="BD12" s="85">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="86"/>
+      <c r="BF12" s="85">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="86"/>
       <c r="BH12" s="27"/>
       <c r="BI12" s="27"/>
     </row>
     <row r="13" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="85"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="100"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="100"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="99"/>
-      <c r="Y13" s="100"/>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="100"/>
-      <c r="AB13" s="99"/>
-      <c r="AC13" s="100"/>
-      <c r="AD13" s="99"/>
-      <c r="AE13" s="100"/>
-      <c r="AF13" s="99"/>
-      <c r="AG13" s="100"/>
-      <c r="AH13" s="99"/>
-      <c r="AI13" s="100"/>
-      <c r="AJ13" s="99"/>
-      <c r="AK13" s="100"/>
-      <c r="AL13" s="99"/>
-      <c r="AM13" s="100"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="88"/>
+      <c r="AB13" s="87"/>
+      <c r="AC13" s="88"/>
+      <c r="AD13" s="87"/>
+      <c r="AE13" s="88"/>
+      <c r="AF13" s="87"/>
+      <c r="AG13" s="88"/>
+      <c r="AH13" s="87"/>
+      <c r="AI13" s="88"/>
+      <c r="AJ13" s="87"/>
+      <c r="AK13" s="88"/>
+      <c r="AL13" s="87"/>
+      <c r="AM13" s="88"/>
       <c r="AN13" s="33"/>
       <c r="AO13" s="33"/>
-      <c r="AP13" s="99"/>
-      <c r="AQ13" s="100"/>
-      <c r="AR13" s="99"/>
-      <c r="AS13" s="100"/>
-      <c r="AT13" s="99"/>
-      <c r="AU13" s="100"/>
-      <c r="AV13" s="99"/>
-      <c r="AW13" s="100"/>
-      <c r="AX13" s="99"/>
-      <c r="AY13" s="100"/>
+      <c r="AP13" s="87"/>
+      <c r="AQ13" s="88"/>
+      <c r="AR13" s="87"/>
+      <c r="AS13" s="88"/>
+      <c r="AT13" s="87"/>
+      <c r="AU13" s="88"/>
+      <c r="AV13" s="87"/>
+      <c r="AW13" s="88"/>
+      <c r="AX13" s="87"/>
+      <c r="AY13" s="88"/>
       <c r="AZ13" s="33"/>
       <c r="BA13" s="33"/>
-      <c r="BB13" s="99"/>
-      <c r="BC13" s="100"/>
-      <c r="BD13" s="99"/>
-      <c r="BE13" s="100"/>
-      <c r="BF13" s="99"/>
-      <c r="BG13" s="100"/>
+      <c r="BB13" s="87"/>
+      <c r="BC13" s="88"/>
+      <c r="BD13" s="87"/>
+      <c r="BE13" s="88"/>
+      <c r="BF13" s="87"/>
+      <c r="BG13" s="88"/>
       <c r="BH13" s="27"/>
       <c r="BI13" s="27"/>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A14" s="85"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
@@ -7107,7 +7503,7 @@
       <c r="BI14" s="27"/>
     </row>
     <row r="15" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="85"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
@@ -7178,7 +7574,7 @@
       <c r="BI15" s="27"/>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A16" s="85"/>
+      <c r="A16" s="81"/>
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
@@ -7249,7 +7645,7 @@
       <c r="BI16" s="27"/>
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A17" s="85"/>
+      <c r="A17" s="81"/>
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
@@ -7316,7 +7712,7 @@
       <c r="BI17" s="27"/>
     </row>
     <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="81" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -7447,7 +7843,7 @@
       <c r="BI18" s="27"/>
     </row>
     <row r="19" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="85"/>
+      <c r="A19" s="81"/>
       <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
@@ -7546,7 +7942,7 @@
       <c r="BI19" s="27"/>
     </row>
     <row r="20" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="85" t="s">
+      <c r="A20" s="81" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -7661,7 +8057,7 @@
       <c r="BI20" s="27"/>
     </row>
     <row r="21" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A21" s="85"/>
+      <c r="A21" s="81"/>
       <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
@@ -7750,7 +8146,7 @@
       <c r="BI21" s="27"/>
     </row>
     <row r="22" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="85"/>
+      <c r="A22" s="81"/>
       <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
@@ -7838,7 +8234,7 @@
       <c r="BI22" s="27"/>
     </row>
     <row r="23" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="85"/>
+      <c r="A23" s="81"/>
       <c r="B23" s="6" t="s">
         <v>38</v>
       </c>
@@ -7905,7 +8301,7 @@
       <c r="BI23" s="27"/>
     </row>
     <row r="24" spans="1:61" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="81" t="s">
         <v>39</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -7974,7 +8370,7 @@
       <c r="BI24" s="27"/>
     </row>
     <row r="25" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="85"/>
+      <c r="A25" s="81"/>
       <c r="B25" s="2" t="s">
         <v>41</v>
       </c>
@@ -8041,7 +8437,7 @@
       <c r="BI25" s="27"/>
     </row>
     <row r="26" spans="1:61" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="85"/>
+      <c r="A26" s="81"/>
       <c r="B26" s="6" t="s">
         <v>42</v>
       </c>
@@ -8108,10 +8504,10 @@
       <c r="BI26" s="27"/>
     </row>
     <row r="27" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="101" t="s">
+      <c r="A27" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="101"/>
+      <c r="B27" s="93"/>
       <c r="C27" s="17"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -8301,10 +8697,10 @@
       <c r="BI29" s="27"/>
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="95"/>
+      <c r="B30" s="91"/>
       <c r="C30" s="18"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -8316,10 +8712,10 @@
       <c r="K30" s="33"/>
       <c r="L30" s="33"/>
       <c r="M30" s="33"/>
-      <c r="N30" s="96">
+      <c r="N30" s="90">
         <v>2</v>
       </c>
-      <c r="O30" s="96"/>
+      <c r="O30" s="90"/>
       <c r="P30" s="33"/>
       <c r="Q30" s="33"/>
       <c r="R30" s="33"/>
@@ -8368,10 +8764,10 @@
       <c r="BI30" s="27"/>
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A31" s="95" t="s">
+      <c r="A31" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="95"/>
+      <c r="B31" s="91"/>
       <c r="C31" s="18"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -8435,10 +8831,10 @@
       <c r="BI31" s="27"/>
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A32" s="95" t="s">
+      <c r="A32" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="95"/>
+      <c r="B32" s="91"/>
       <c r="C32" s="18"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -8452,10 +8848,10 @@
       <c r="M32" s="33"/>
       <c r="N32" s="33"/>
       <c r="O32" s="33"/>
-      <c r="P32" s="96">
+      <c r="P32" s="90">
         <v>2</v>
       </c>
-      <c r="Q32" s="96"/>
+      <c r="Q32" s="90"/>
       <c r="R32" s="42"/>
       <c r="S32" s="42"/>
       <c r="T32" s="42"/>
@@ -8502,10 +8898,10 @@
       <c r="BI32" s="27"/>
     </row>
     <row r="33" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="95" t="s">
+      <c r="A33" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="95"/>
+      <c r="B33" s="91"/>
       <c r="C33" s="18"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -8519,10 +8915,10 @@
       <c r="M33" s="33"/>
       <c r="N33" s="33"/>
       <c r="O33" s="33"/>
-      <c r="P33" s="96">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="96"/>
+      <c r="P33" s="90">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="90"/>
       <c r="R33" s="42"/>
       <c r="S33" s="42"/>
       <c r="T33" s="42"/>
@@ -8569,10 +8965,10 @@
       <c r="BI33" s="27"/>
     </row>
     <row r="34" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="95" t="s">
+      <c r="A34" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="95"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="18"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -8588,10 +8984,10 @@
       <c r="O34" s="33"/>
       <c r="P34" s="42"/>
       <c r="Q34" s="42"/>
-      <c r="R34" s="96">
-        <v>1</v>
-      </c>
-      <c r="S34" s="96"/>
+      <c r="R34" s="90">
+        <v>1</v>
+      </c>
+      <c r="S34" s="90"/>
       <c r="T34" s="42"/>
       <c r="U34" s="42"/>
       <c r="V34" s="33"/>
@@ -8636,10 +9032,10 @@
       <c r="BI34" s="27"/>
     </row>
     <row r="35" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="95" t="s">
+      <c r="A35" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="95"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="18"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -8655,10 +9051,10 @@
       <c r="O35" s="33"/>
       <c r="P35" s="42"/>
       <c r="Q35" s="42"/>
-      <c r="R35" s="96">
+      <c r="R35" s="90">
         <v>2</v>
       </c>
-      <c r="S35" s="96"/>
+      <c r="S35" s="90"/>
       <c r="T35" s="42"/>
       <c r="U35" s="42"/>
       <c r="V35" s="33"/>
@@ -8703,10 +9099,10 @@
       <c r="BI35" s="27"/>
     </row>
     <row r="36" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="95" t="s">
+      <c r="A36" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="95"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="18"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -8724,10 +9120,10 @@
       <c r="Q36" s="42"/>
       <c r="R36" s="33"/>
       <c r="S36" s="33"/>
-      <c r="T36" s="96">
+      <c r="T36" s="90">
         <v>2</v>
       </c>
-      <c r="U36" s="96"/>
+      <c r="U36" s="90"/>
       <c r="V36" s="33"/>
       <c r="W36" s="33"/>
       <c r="X36" s="33"/>
@@ -8770,10 +9166,10 @@
       <c r="BI36" s="27"/>
     </row>
     <row r="37" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="95" t="s">
+      <c r="A37" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="95"/>
+      <c r="B37" s="91"/>
       <c r="C37" s="18"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -8791,10 +9187,10 @@
       <c r="Q37" s="42"/>
       <c r="R37" s="33"/>
       <c r="S37" s="33"/>
-      <c r="T37" s="96">
+      <c r="T37" s="90">
         <v>2</v>
       </c>
-      <c r="U37" s="96"/>
+      <c r="U37" s="90"/>
       <c r="V37" s="33"/>
       <c r="W37" s="33"/>
       <c r="X37" s="33"/>
@@ -8837,10 +9233,10 @@
       <c r="BI37" s="27"/>
     </row>
     <row r="38" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A38" s="95" t="s">
+      <c r="A38" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="95"/>
+      <c r="B38" s="91"/>
       <c r="C38" s="18"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -8860,10 +9256,10 @@
       <c r="S38" s="33"/>
       <c r="T38" s="33"/>
       <c r="U38" s="33"/>
-      <c r="V38" s="96">
+      <c r="V38" s="90">
         <v>2</v>
       </c>
-      <c r="W38" s="96"/>
+      <c r="W38" s="90"/>
       <c r="X38" s="33"/>
       <c r="Y38" s="33"/>
       <c r="Z38" s="33"/>
@@ -8904,10 +9300,10 @@
       <c r="BI38" s="27"/>
     </row>
     <row r="39" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A39" s="95" t="s">
+      <c r="A39" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="95"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="18"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -8927,10 +9323,10 @@
       <c r="S39" s="33"/>
       <c r="T39" s="33"/>
       <c r="U39" s="33"/>
-      <c r="V39" s="96">
+      <c r="V39" s="90">
         <v>2</v>
       </c>
-      <c r="W39" s="96"/>
+      <c r="W39" s="90"/>
       <c r="X39" s="33"/>
       <c r="Y39" s="33"/>
       <c r="Z39" s="33"/>
@@ -8971,10 +9367,10 @@
       <c r="BI39" s="27"/>
     </row>
     <row r="40" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A40" s="95" t="s">
+      <c r="A40" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="95"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="18"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -8996,10 +9392,10 @@
       <c r="U40" s="33"/>
       <c r="V40" s="33"/>
       <c r="W40" s="33"/>
-      <c r="X40" s="96">
+      <c r="X40" s="90">
         <v>2</v>
       </c>
-      <c r="Y40" s="96"/>
+      <c r="Y40" s="90"/>
       <c r="Z40" s="33"/>
       <c r="AA40" s="33"/>
       <c r="AB40" s="33"/>
@@ -9038,10 +9434,10 @@
       <c r="BI40" s="27"/>
     </row>
     <row r="41" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A41" s="95" t="s">
+      <c r="A41" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="95"/>
+      <c r="B41" s="91"/>
       <c r="C41" s="18"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -9063,10 +9459,10 @@
       <c r="U41" s="33"/>
       <c r="V41" s="33"/>
       <c r="W41" s="33"/>
-      <c r="X41" s="96">
+      <c r="X41" s="90">
         <v>2</v>
       </c>
-      <c r="Y41" s="96"/>
+      <c r="Y41" s="90"/>
       <c r="Z41" s="33"/>
       <c r="AA41" s="33"/>
       <c r="AB41" s="33"/>
@@ -9105,10 +9501,10 @@
       <c r="BI41" s="27"/>
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A42" s="95" t="s">
+      <c r="A42" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="95"/>
+      <c r="B42" s="91"/>
       <c r="C42" s="18"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -9132,10 +9528,10 @@
       <c r="W42" s="33"/>
       <c r="X42" s="33"/>
       <c r="Y42" s="33"/>
-      <c r="Z42" s="96">
+      <c r="Z42" s="90">
         <v>2</v>
       </c>
-      <c r="AA42" s="96"/>
+      <c r="AA42" s="90"/>
       <c r="AB42" s="33"/>
       <c r="AC42" s="33"/>
       <c r="AD42" s="33"/>
@@ -9172,10 +9568,10 @@
       <c r="BI42" s="27"/>
     </row>
     <row r="43" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A43" s="95" t="s">
+      <c r="A43" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="95"/>
+      <c r="B43" s="91"/>
       <c r="C43" s="18"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -9199,10 +9595,10 @@
       <c r="W43" s="33"/>
       <c r="X43" s="33"/>
       <c r="Y43" s="33"/>
-      <c r="Z43" s="96">
+      <c r="Z43" s="90">
         <v>2</v>
       </c>
-      <c r="AA43" s="96"/>
+      <c r="AA43" s="90"/>
       <c r="AB43" s="33"/>
       <c r="AC43" s="33"/>
       <c r="AD43" s="33"/>
@@ -9239,10 +9635,10 @@
       <c r="BI43" s="27"/>
     </row>
     <row r="44" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A44" s="95" t="s">
+      <c r="A44" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="95"/>
+      <c r="B44" s="91"/>
       <c r="C44" s="18"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -9292,14 +9688,14 @@
       <c r="AW44" s="33"/>
       <c r="AX44" s="33"/>
       <c r="AY44" s="33"/>
-      <c r="AZ44" s="96">
+      <c r="AZ44" s="90">
         <v>2</v>
       </c>
-      <c r="BA44" s="96"/>
-      <c r="BB44" s="96">
+      <c r="BA44" s="90"/>
+      <c r="BB44" s="90">
         <v>2</v>
       </c>
-      <c r="BC44" s="96"/>
+      <c r="BC44" s="90"/>
       <c r="BD44" s="33"/>
       <c r="BE44" s="33"/>
       <c r="BF44" s="33"/>
@@ -9308,10 +9704,10 @@
       <c r="BI44" s="27"/>
     </row>
     <row r="45" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A45" s="95" t="s">
+      <c r="A45" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="95"/>
+      <c r="B45" s="91"/>
       <c r="C45" s="18"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -9361,10 +9757,10 @@
       <c r="AW45" s="33"/>
       <c r="AX45" s="33"/>
       <c r="AY45" s="33"/>
-      <c r="AZ45" s="96">
+      <c r="AZ45" s="90">
         <v>2</v>
       </c>
-      <c r="BA45" s="96"/>
+      <c r="BA45" s="90"/>
       <c r="BB45" s="33"/>
       <c r="BC45" s="33"/>
       <c r="BD45" s="33"/>
@@ -9375,10 +9771,10 @@
       <c r="BI45" s="27"/>
     </row>
     <row r="46" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A46" s="95" t="s">
+      <c r="A46" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="95"/>
+      <c r="B46" s="91"/>
       <c r="C46" s="18"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -9430,10 +9826,10 @@
       <c r="AY46" s="33"/>
       <c r="AZ46" s="33"/>
       <c r="BA46" s="33"/>
-      <c r="BB46" s="96">
+      <c r="BB46" s="90">
         <v>2</v>
       </c>
-      <c r="BC46" s="96"/>
+      <c r="BC46" s="90"/>
       <c r="BD46" s="33"/>
       <c r="BE46" s="33"/>
       <c r="BF46" s="33"/>
@@ -9442,10 +9838,10 @@
       <c r="BI46" s="27"/>
     </row>
     <row r="47" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A47" s="95" t="s">
+      <c r="A47" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="95"/>
+      <c r="B47" s="91"/>
       <c r="C47" s="18"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -9499,20 +9895,20 @@
       <c r="BA47" s="33"/>
       <c r="BB47" s="33"/>
       <c r="BC47" s="33"/>
-      <c r="BD47" s="96">
+      <c r="BD47" s="90">
         <v>2</v>
       </c>
-      <c r="BE47" s="96"/>
+      <c r="BE47" s="90"/>
       <c r="BF47" s="33"/>
       <c r="BG47" s="33"/>
       <c r="BH47" s="27"/>
       <c r="BI47" s="27"/>
     </row>
     <row r="48" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A48" s="95" t="s">
+      <c r="A48" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="95"/>
+      <c r="B48" s="91"/>
       <c r="C48" s="18"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -9566,20 +9962,20 @@
       <c r="BA48" s="33"/>
       <c r="BB48" s="33"/>
       <c r="BC48" s="33"/>
-      <c r="BD48" s="96">
+      <c r="BD48" s="90">
         <v>2</v>
       </c>
-      <c r="BE48" s="96"/>
+      <c r="BE48" s="90"/>
       <c r="BF48" s="33"/>
       <c r="BG48" s="33"/>
       <c r="BH48" s="27"/>
       <c r="BI48" s="27"/>
     </row>
     <row r="49" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A49" s="95" t="s">
+      <c r="A49" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="95"/>
+      <c r="B49" s="91"/>
       <c r="C49" s="18"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -9635,18 +10031,18 @@
       <c r="BC49" s="33"/>
       <c r="BD49" s="33"/>
       <c r="BE49" s="33"/>
-      <c r="BF49" s="96">
+      <c r="BF49" s="90">
         <v>2</v>
       </c>
-      <c r="BG49" s="96"/>
+      <c r="BG49" s="90"/>
       <c r="BH49" s="27"/>
       <c r="BI49" s="27"/>
     </row>
     <row r="50" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A50" s="95" t="s">
+      <c r="A50" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="95"/>
+      <c r="B50" s="91"/>
       <c r="C50" s="18"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -9702,18 +10098,18 @@
       <c r="BC50" s="33"/>
       <c r="BD50" s="33"/>
       <c r="BE50" s="33"/>
-      <c r="BF50" s="96">
+      <c r="BF50" s="90">
         <v>2</v>
       </c>
-      <c r="BG50" s="96"/>
+      <c r="BG50" s="90"/>
       <c r="BH50" s="27"/>
       <c r="BI50" s="27"/>
     </row>
     <row r="51" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A51" s="95" t="s">
+      <c r="A51" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="95"/>
+      <c r="B51" s="91"/>
       <c r="C51" s="18"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -9741,42 +10137,42 @@
       <c r="AA51" s="33"/>
       <c r="AB51" s="33"/>
       <c r="AC51" s="33"/>
-      <c r="AD51" s="96">
-        <v>1</v>
-      </c>
-      <c r="AE51" s="96"/>
-      <c r="AF51" s="96">
-        <v>1</v>
-      </c>
-      <c r="AG51" s="96"/>
-      <c r="AH51" s="96">
-        <v>1</v>
-      </c>
-      <c r="AI51" s="96"/>
-      <c r="AJ51" s="96">
-        <v>1</v>
-      </c>
-      <c r="AK51" s="96"/>
-      <c r="AL51" s="96">
-        <v>1</v>
-      </c>
-      <c r="AM51" s="96"/>
-      <c r="AN51" s="96">
-        <v>1</v>
-      </c>
-      <c r="AO51" s="96"/>
-      <c r="AP51" s="96">
-        <v>1</v>
-      </c>
-      <c r="AQ51" s="96"/>
-      <c r="AR51" s="96">
-        <v>1</v>
-      </c>
-      <c r="AS51" s="96"/>
-      <c r="AT51" s="96">
-        <v>1</v>
-      </c>
-      <c r="AU51" s="96"/>
+      <c r="AD51" s="90">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="90"/>
+      <c r="AF51" s="90">
+        <v>1</v>
+      </c>
+      <c r="AG51" s="90"/>
+      <c r="AH51" s="90">
+        <v>1</v>
+      </c>
+      <c r="AI51" s="90"/>
+      <c r="AJ51" s="90">
+        <v>1</v>
+      </c>
+      <c r="AK51" s="90"/>
+      <c r="AL51" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM51" s="90"/>
+      <c r="AN51" s="90">
+        <v>1</v>
+      </c>
+      <c r="AO51" s="90"/>
+      <c r="AP51" s="90">
+        <v>1</v>
+      </c>
+      <c r="AQ51" s="90"/>
+      <c r="AR51" s="90">
+        <v>1</v>
+      </c>
+      <c r="AS51" s="90"/>
+      <c r="AT51" s="90">
+        <v>1</v>
+      </c>
+      <c r="AU51" s="90"/>
       <c r="AV51" s="33"/>
       <c r="AW51" s="33"/>
       <c r="AX51" s="33"/>
@@ -9793,10 +10189,10 @@
       <c r="BI51" s="27"/>
     </row>
     <row r="52" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A52" s="95" t="s">
+      <c r="A52" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="95"/>
+      <c r="B52" s="91"/>
       <c r="C52" s="18"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -9830,10 +10226,10 @@
       <c r="AG52" s="33"/>
       <c r="AH52" s="33"/>
       <c r="AI52" s="33"/>
-      <c r="AJ52" s="96">
-        <v>1</v>
-      </c>
-      <c r="AK52" s="96"/>
+      <c r="AJ52" s="90">
+        <v>1</v>
+      </c>
+      <c r="AK52" s="90"/>
       <c r="AL52" s="33"/>
       <c r="AM52" s="33"/>
       <c r="AN52" s="33"/>
@@ -9860,10 +10256,10 @@
       <c r="BI52" s="27"/>
     </row>
     <row r="53" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A53" s="95" t="s">
+      <c r="A53" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="95"/>
+      <c r="B53" s="91"/>
       <c r="C53" s="18"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -9889,10 +10285,10 @@
       <c r="Y53" s="33"/>
       <c r="Z53" s="33"/>
       <c r="AA53" s="33"/>
-      <c r="AB53" s="96">
+      <c r="AB53" s="90">
         <v>2</v>
       </c>
-      <c r="AC53" s="96"/>
+      <c r="AC53" s="90"/>
       <c r="AD53" s="33"/>
       <c r="AE53" s="33"/>
       <c r="AF53" s="33"/>
@@ -9927,10 +10323,10 @@
       <c r="BI53" s="27"/>
     </row>
     <row r="54" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A54" s="95" t="s">
+      <c r="A54" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="95"/>
+      <c r="B54" s="91"/>
       <c r="C54" s="18"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -9956,10 +10352,10 @@
       <c r="Y54" s="33"/>
       <c r="Z54" s="33"/>
       <c r="AA54" s="33"/>
-      <c r="AB54" s="96">
-        <v>1</v>
-      </c>
-      <c r="AC54" s="96"/>
+      <c r="AB54" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="90"/>
       <c r="AD54" s="33"/>
       <c r="AE54" s="33"/>
       <c r="AF54" s="33"/>
@@ -9994,10 +10390,10 @@
       <c r="BI54" s="27"/>
     </row>
     <row r="55" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A55" s="95" t="s">
+      <c r="A55" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="95"/>
+      <c r="B55" s="91"/>
       <c r="C55" s="18"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -10023,10 +10419,10 @@
       <c r="Y55" s="33"/>
       <c r="Z55" s="33"/>
       <c r="AA55" s="33"/>
-      <c r="AB55" s="96">
-        <v>1</v>
-      </c>
-      <c r="AC55" s="96"/>
+      <c r="AB55" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="90"/>
       <c r="AD55" s="33"/>
       <c r="AE55" s="33"/>
       <c r="AF55" s="33"/>
@@ -10061,10 +10457,10 @@
       <c r="BI55" s="27"/>
     </row>
     <row r="56" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A56" s="95" t="s">
+      <c r="A56" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="95"/>
+      <c r="B56" s="91"/>
       <c r="C56" s="18"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -10088,10 +10484,10 @@
       <c r="W56" s="33"/>
       <c r="X56" s="33"/>
       <c r="Y56" s="33"/>
-      <c r="Z56" s="96">
+      <c r="Z56" s="90">
         <v>2</v>
       </c>
-      <c r="AA56" s="96"/>
+      <c r="AA56" s="90"/>
       <c r="AB56" s="33"/>
       <c r="AC56" s="33"/>
       <c r="AD56" s="33"/>
@@ -10128,10 +10524,10 @@
       <c r="BI56" s="27"/>
     </row>
     <row r="57" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="95" t="s">
+      <c r="A57" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="95"/>
+      <c r="B57" s="91"/>
       <c r="C57" s="18"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -10155,10 +10551,10 @@
       <c r="W57" s="33"/>
       <c r="X57" s="33"/>
       <c r="Y57" s="33"/>
-      <c r="Z57" s="96">
+      <c r="Z57" s="90">
         <v>2</v>
       </c>
-      <c r="AA57" s="96"/>
+      <c r="AA57" s="90"/>
       <c r="AB57" s="33"/>
       <c r="AC57" s="33"/>
       <c r="AD57" s="33"/>
@@ -10195,10 +10591,10 @@
       <c r="BI57" s="27"/>
     </row>
     <row r="58" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A58" s="95" t="s">
+      <c r="A58" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="95"/>
+      <c r="B58" s="91"/>
       <c r="C58" s="18"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -10226,10 +10622,10 @@
       <c r="AA58" s="33"/>
       <c r="AB58" s="33"/>
       <c r="AC58" s="33"/>
-      <c r="AD58" s="96">
-        <v>1</v>
-      </c>
-      <c r="AE58" s="96"/>
+      <c r="AD58" s="90">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="90"/>
       <c r="AF58" s="33"/>
       <c r="AG58" s="33"/>
       <c r="AH58" s="33"/>
@@ -10262,10 +10658,10 @@
       <c r="BI58" s="27"/>
     </row>
     <row r="59" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A59" s="95" t="s">
+      <c r="A59" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="95"/>
+      <c r="B59" s="91"/>
       <c r="C59" s="18"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -10295,10 +10691,10 @@
       <c r="AC59" s="33"/>
       <c r="AD59" s="33"/>
       <c r="AE59" s="33"/>
-      <c r="AF59" s="96">
-        <v>1</v>
-      </c>
-      <c r="AG59" s="96"/>
+      <c r="AF59" s="90">
+        <v>1</v>
+      </c>
+      <c r="AG59" s="90"/>
       <c r="AH59" s="33"/>
       <c r="AI59" s="33"/>
       <c r="AJ59" s="33"/>
@@ -10329,10 +10725,10 @@
       <c r="BI59" s="27"/>
     </row>
     <row r="60" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A60" s="95" t="s">
+      <c r="A60" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="95"/>
+      <c r="B60" s="91"/>
       <c r="C60" s="18"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -10364,10 +10760,10 @@
       <c r="AE60" s="33"/>
       <c r="AF60" s="33"/>
       <c r="AG60" s="33"/>
-      <c r="AH60" s="96">
-        <v>1</v>
-      </c>
-      <c r="AI60" s="96"/>
+      <c r="AH60" s="90">
+        <v>1</v>
+      </c>
+      <c r="AI60" s="90"/>
       <c r="AJ60" s="33"/>
       <c r="AK60" s="33"/>
       <c r="AL60" s="33"/>
@@ -10396,10 +10792,10 @@
       <c r="BI60" s="27"/>
     </row>
     <row r="61" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A61" s="95" t="s">
+      <c r="A61" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="95"/>
+      <c r="B61" s="91"/>
       <c r="C61" s="18"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -10435,10 +10831,10 @@
       <c r="AI61" s="33"/>
       <c r="AJ61" s="33"/>
       <c r="AK61" s="33"/>
-      <c r="AL61" s="96">
-        <v>1</v>
-      </c>
-      <c r="AM61" s="96"/>
+      <c r="AL61" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM61" s="90"/>
       <c r="AN61" s="33"/>
       <c r="AO61" s="33"/>
       <c r="AP61" s="33"/>
@@ -10463,10 +10859,10 @@
       <c r="BI61" s="27"/>
     </row>
     <row r="62" spans="1:61" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="95" t="s">
+      <c r="A62" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="B62" s="95"/>
+      <c r="B62" s="91"/>
       <c r="C62" s="18"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -10502,10 +10898,10 @@
       <c r="AI62" s="33"/>
       <c r="AJ62" s="33"/>
       <c r="AK62" s="33"/>
-      <c r="AL62" s="96">
-        <v>1</v>
-      </c>
-      <c r="AM62" s="96"/>
+      <c r="AL62" s="90">
+        <v>1</v>
+      </c>
+      <c r="AM62" s="90"/>
       <c r="AN62" s="33"/>
       <c r="AO62" s="33"/>
       <c r="AP62" s="33"/>
@@ -10530,10 +10926,10 @@
       <c r="BI62" s="27"/>
     </row>
     <row r="63" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A63" s="95" t="s">
+      <c r="A63" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="95"/>
+      <c r="B63" s="91"/>
       <c r="C63" s="18"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -10571,10 +10967,10 @@
       <c r="AK63" s="35"/>
       <c r="AL63" s="35"/>
       <c r="AM63" s="35"/>
-      <c r="AN63" s="96">
-        <v>1</v>
-      </c>
-      <c r="AO63" s="96"/>
+      <c r="AN63" s="90">
+        <v>1</v>
+      </c>
+      <c r="AO63" s="90"/>
       <c r="AP63" s="33"/>
       <c r="AQ63" s="33"/>
       <c r="AR63" s="33"/>
@@ -10597,10 +10993,10 @@
       <c r="BI63" s="27"/>
     </row>
     <row r="64" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A64" s="95" t="s">
+      <c r="A64" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="95"/>
+      <c r="B64" s="91"/>
       <c r="C64" s="18"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -10638,10 +11034,10 @@
       <c r="AK64" s="35"/>
       <c r="AL64" s="35"/>
       <c r="AM64" s="35"/>
-      <c r="AN64" s="96">
-        <v>1</v>
-      </c>
-      <c r="AO64" s="96"/>
+      <c r="AN64" s="90">
+        <v>1</v>
+      </c>
+      <c r="AO64" s="90"/>
       <c r="AP64" s="33"/>
       <c r="AQ64" s="33"/>
       <c r="AR64" s="33"/>
@@ -10664,10 +11060,10 @@
       <c r="BI64" s="27"/>
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A65" s="95" t="s">
+      <c r="A65" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="95"/>
+      <c r="B65" s="91"/>
       <c r="C65" s="18"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -10707,10 +11103,10 @@
       <c r="AM65" s="35"/>
       <c r="AN65" s="33"/>
       <c r="AO65" s="33"/>
-      <c r="AP65" s="96">
-        <v>1</v>
-      </c>
-      <c r="AQ65" s="96"/>
+      <c r="AP65" s="90">
+        <v>1</v>
+      </c>
+      <c r="AQ65" s="90"/>
       <c r="AR65" s="33"/>
       <c r="AS65" s="33"/>
       <c r="AT65" s="33"/>
@@ -10731,10 +11127,10 @@
       <c r="BI65" s="27"/>
     </row>
     <row r="66" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A66" s="95" t="s">
+      <c r="A66" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="95"/>
+      <c r="B66" s="91"/>
       <c r="C66" s="18"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -10774,10 +11170,10 @@
       <c r="AM66" s="35"/>
       <c r="AN66" s="33"/>
       <c r="AO66" s="33"/>
-      <c r="AP66" s="96">
-        <v>1</v>
-      </c>
-      <c r="AQ66" s="96"/>
+      <c r="AP66" s="90">
+        <v>1</v>
+      </c>
+      <c r="AQ66" s="90"/>
       <c r="AR66" s="33"/>
       <c r="AS66" s="33"/>
       <c r="AT66" s="33"/>
@@ -10798,10 +11194,10 @@
       <c r="BI66" s="27"/>
     </row>
     <row r="67" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A67" s="95" t="s">
+      <c r="A67" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="95"/>
+      <c r="B67" s="91"/>
       <c r="C67" s="18"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -10845,10 +11241,10 @@
       <c r="AQ67" s="33"/>
       <c r="AR67" s="33"/>
       <c r="AS67" s="33"/>
-      <c r="AT67" s="96">
+      <c r="AT67" s="90">
         <v>3</v>
       </c>
-      <c r="AU67" s="96"/>
+      <c r="AU67" s="90"/>
       <c r="AV67" s="33"/>
       <c r="AW67" s="33"/>
       <c r="AX67" s="33"/>
@@ -10865,10 +11261,10 @@
       <c r="BI67" s="27"/>
     </row>
     <row r="68" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A68" s="95" t="s">
+      <c r="A68" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="95"/>
+      <c r="B68" s="91"/>
       <c r="C68" s="18"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -10912,10 +11308,10 @@
       <c r="AQ68" s="33"/>
       <c r="AR68" s="33"/>
       <c r="AS68" s="33"/>
-      <c r="AT68" s="96">
+      <c r="AT68" s="90">
         <v>2</v>
       </c>
-      <c r="AU68" s="96"/>
+      <c r="AU68" s="90"/>
       <c r="AV68" s="33"/>
       <c r="AW68" s="33"/>
       <c r="AX68" s="33"/>
@@ -10932,10 +11328,10 @@
       <c r="BI68" s="27"/>
     </row>
     <row r="69" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A69" s="95" t="s">
+      <c r="A69" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="95"/>
+      <c r="B69" s="91"/>
       <c r="C69" s="18"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -10983,10 +11379,10 @@
       <c r="AU69" s="33"/>
       <c r="AV69" s="33"/>
       <c r="AW69" s="33"/>
-      <c r="AX69" s="96">
+      <c r="AX69" s="90">
         <v>2</v>
       </c>
-      <c r="AY69" s="96"/>
+      <c r="AY69" s="90"/>
       <c r="AZ69" s="33"/>
       <c r="BA69" s="33"/>
       <c r="BB69" s="33"/>
@@ -10999,10 +11395,10 @@
       <c r="BI69" s="27"/>
     </row>
     <row r="70" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A70" s="95" t="s">
+      <c r="A70" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="B70" s="95"/>
+      <c r="B70" s="91"/>
       <c r="C70" s="18"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -11050,10 +11446,10 @@
       <c r="AU70" s="33"/>
       <c r="AV70" s="33"/>
       <c r="AW70" s="33"/>
-      <c r="AX70" s="96">
+      <c r="AX70" s="90">
         <v>2</v>
       </c>
-      <c r="AY70" s="96"/>
+      <c r="AY70" s="90"/>
       <c r="AZ70" s="33"/>
       <c r="BA70" s="33"/>
       <c r="BB70" s="33"/>
@@ -11066,10 +11462,10 @@
       <c r="BI70" s="27"/>
     </row>
     <row r="71" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A71" s="95" t="s">
+      <c r="A71" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="95"/>
+      <c r="B71" s="91"/>
       <c r="C71" s="18"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -11117,10 +11513,10 @@
       <c r="AU71" s="33"/>
       <c r="AV71" s="33"/>
       <c r="AW71" s="33"/>
-      <c r="AX71" s="96">
+      <c r="AX71" s="90">
         <v>2</v>
       </c>
-      <c r="AY71" s="96"/>
+      <c r="AY71" s="90"/>
       <c r="AZ71" s="33"/>
       <c r="BA71" s="33"/>
       <c r="BB71" s="33"/>
@@ -11133,10 +11529,10 @@
       <c r="BI71" s="27"/>
     </row>
     <row r="72" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A72" s="95" t="s">
+      <c r="A72" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="B72" s="95"/>
+      <c r="B72" s="91"/>
       <c r="C72" s="18"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -11184,10 +11580,10 @@
       <c r="AU72" s="33"/>
       <c r="AV72" s="33"/>
       <c r="AW72" s="33"/>
-      <c r="AX72" s="96">
+      <c r="AX72" s="90">
         <v>2</v>
       </c>
-      <c r="AY72" s="96"/>
+      <c r="AY72" s="90"/>
       <c r="AZ72" s="33"/>
       <c r="BA72" s="33"/>
       <c r="BB72" s="33"/>
@@ -11200,10 +11596,10 @@
       <c r="BI72" s="27"/>
     </row>
     <row r="73" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="95" t="s">
+      <c r="A73" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="95"/>
+      <c r="B73" s="91"/>
       <c r="C73" s="18"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -11249,10 +11645,10 @@
       <c r="AS73" s="33"/>
       <c r="AT73" s="33"/>
       <c r="AU73" s="33"/>
-      <c r="AV73" s="96" t="s">
+      <c r="AV73" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="AW73" s="96"/>
+      <c r="AW73" s="90"/>
       <c r="AX73" s="33"/>
       <c r="AY73" s="33"/>
       <c r="AZ73" s="33"/>
@@ -11267,10 +11663,10 @@
       <c r="BI73" s="27"/>
     </row>
     <row r="74" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A74" s="95" t="s">
+      <c r="A74" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="B74" s="95"/>
+      <c r="B74" s="91"/>
       <c r="C74" s="18"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -11316,8 +11712,8 @@
       <c r="AS74" s="33"/>
       <c r="AT74" s="33"/>
       <c r="AU74" s="33"/>
-      <c r="AV74" s="96"/>
-      <c r="AW74" s="96"/>
+      <c r="AV74" s="90"/>
+      <c r="AW74" s="90"/>
       <c r="AX74" s="33"/>
       <c r="AY74" s="33"/>
       <c r="AZ74" s="33"/>
@@ -11332,10 +11728,10 @@
       <c r="BI74" s="27"/>
     </row>
     <row r="75" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A75" s="95" t="s">
+      <c r="A75" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="B75" s="95"/>
+      <c r="B75" s="91"/>
       <c r="C75" s="18"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -11381,8 +11777,8 @@
       <c r="AS75" s="33"/>
       <c r="AT75" s="33"/>
       <c r="AU75" s="33"/>
-      <c r="AV75" s="96"/>
-      <c r="AW75" s="96"/>
+      <c r="AV75" s="90"/>
+      <c r="AW75" s="90"/>
       <c r="AX75" s="33"/>
       <c r="AY75" s="33"/>
       <c r="AZ75" s="33"/>
@@ -11397,10 +11793,10 @@
       <c r="BI75" s="27"/>
     </row>
     <row r="76" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="95" t="s">
+      <c r="A76" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="B76" s="95"/>
+      <c r="B76" s="91"/>
       <c r="C76" s="18"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -11446,8 +11842,8 @@
       <c r="AS76" s="33"/>
       <c r="AT76" s="33"/>
       <c r="AU76" s="33"/>
-      <c r="AV76" s="96"/>
-      <c r="AW76" s="96"/>
+      <c r="AV76" s="90"/>
+      <c r="AW76" s="90"/>
       <c r="AX76" s="33"/>
       <c r="AY76" s="33"/>
       <c r="AZ76" s="33"/>
@@ -11462,10 +11858,10 @@
       <c r="BI76" s="27"/>
     </row>
     <row r="77" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A77" s="95" t="s">
+      <c r="A77" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="B77" s="95"/>
+      <c r="B77" s="91"/>
       <c r="C77" s="18"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -11511,8 +11907,8 @@
       <c r="AS77" s="33"/>
       <c r="AT77" s="33"/>
       <c r="AU77" s="33"/>
-      <c r="AV77" s="96"/>
-      <c r="AW77" s="96"/>
+      <c r="AV77" s="90"/>
+      <c r="AW77" s="90"/>
       <c r="AX77" s="33"/>
       <c r="AY77" s="33"/>
       <c r="AZ77" s="33"/>
@@ -11527,10 +11923,10 @@
       <c r="BI77" s="27"/>
     </row>
     <row r="78" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="95" t="s">
+      <c r="A78" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="B78" s="95"/>
+      <c r="B78" s="91"/>
       <c r="C78" s="18"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -11576,8 +11972,8 @@
       <c r="AS78" s="33"/>
       <c r="AT78" s="33"/>
       <c r="AU78" s="33"/>
-      <c r="AV78" s="96"/>
-      <c r="AW78" s="96"/>
+      <c r="AV78" s="90"/>
+      <c r="AW78" s="90"/>
       <c r="AX78" s="33"/>
       <c r="AY78" s="33"/>
       <c r="AZ78" s="33"/>
@@ -11720,13 +12116,13 @@
       <c r="BI80" s="27"/>
     </row>
     <row r="81" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="106" t="s">
         <v>171</v>
       </c>
-      <c r="B81" s="45" t="s">
+      <c r="B81" s="107" t="s">
         <v>162</v>
       </c>
-      <c r="C81" s="44"/>
+      <c r="C81" s="108"/>
       <c r="D81" s="44"/>
       <c r="E81" s="44"/>
       <c r="F81" s="44"/>
@@ -11787,16 +12183,16 @@
       <c r="BI81" s="27"/>
     </row>
     <row r="82" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A82" s="89" t="s">
+      <c r="A82" s="110" t="s">
         <v>119</v>
       </c>
-      <c r="B82" s="46" t="s">
+      <c r="B82" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="C82" s="46" t="s">
+      <c r="C82" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="D82" s="44"/>
+      <c r="D82" s="105"/>
       <c r="E82" s="44"/>
       <c r="F82" s="44"/>
       <c r="G82" s="44"/>
@@ -11822,48 +12218,48 @@
       <c r="AA82" s="27"/>
       <c r="AB82" s="27"/>
       <c r="AC82" s="27"/>
-      <c r="AD82" s="47"/>
-      <c r="AE82" s="47"/>
-      <c r="AF82" s="47"/>
-      <c r="AG82" s="47"/>
-      <c r="AH82" s="47"/>
-      <c r="AI82" s="47"/>
-      <c r="AJ82" s="47"/>
-      <c r="AK82" s="47"/>
-      <c r="AL82" s="47"/>
-      <c r="AM82" s="47"/>
-      <c r="AN82" s="47"/>
-      <c r="AO82" s="47"/>
-      <c r="AP82" s="47"/>
-      <c r="AQ82" s="47"/>
-      <c r="AR82" s="47"/>
-      <c r="AS82" s="47"/>
-      <c r="AT82" s="47"/>
-      <c r="AU82" s="47"/>
-      <c r="AV82" s="47"/>
-      <c r="AW82" s="47"/>
-      <c r="AX82" s="47"/>
-      <c r="AY82" s="47"/>
-      <c r="AZ82" s="47"/>
-      <c r="BA82" s="47"/>
-      <c r="BB82" s="47"/>
-      <c r="BC82" s="47"/>
-      <c r="BD82" s="47"/>
-      <c r="BE82" s="47"/>
-      <c r="BF82" s="47"/>
-      <c r="BG82" s="47"/>
+      <c r="AD82" s="46"/>
+      <c r="AE82" s="46"/>
+      <c r="AF82" s="46"/>
+      <c r="AG82" s="46"/>
+      <c r="AH82" s="46"/>
+      <c r="AI82" s="46"/>
+      <c r="AJ82" s="46"/>
+      <c r="AK82" s="46"/>
+      <c r="AL82" s="46"/>
+      <c r="AM82" s="46"/>
+      <c r="AN82" s="46"/>
+      <c r="AO82" s="46"/>
+      <c r="AP82" s="46"/>
+      <c r="AQ82" s="46"/>
+      <c r="AR82" s="46"/>
+      <c r="AS82" s="46"/>
+      <c r="AT82" s="46"/>
+      <c r="AU82" s="46"/>
+      <c r="AV82" s="46"/>
+      <c r="AW82" s="46"/>
+      <c r="AX82" s="46"/>
+      <c r="AY82" s="46"/>
+      <c r="AZ82" s="46"/>
+      <c r="BA82" s="46"/>
+      <c r="BB82" s="46"/>
+      <c r="BC82" s="46"/>
+      <c r="BD82" s="46"/>
+      <c r="BE82" s="46"/>
+      <c r="BF82" s="46"/>
+      <c r="BG82" s="46"/>
       <c r="BH82" s="27"/>
       <c r="BI82" s="27"/>
     </row>
     <row r="83" spans="1:61" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="89"/>
-      <c r="B83" s="46">
+      <c r="A83" s="111"/>
+      <c r="B83" s="104">
         <v>2170</v>
       </c>
-      <c r="C83" s="46">
+      <c r="C83" s="97">
         <v>2590</v>
       </c>
-      <c r="D83" s="44"/>
+      <c r="D83" s="105"/>
       <c r="E83" s="44"/>
       <c r="F83" s="44"/>
       <c r="G83" s="44"/>
@@ -11923,16 +12319,16 @@
       <c r="BI83" s="27"/>
     </row>
     <row r="84" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A84" s="92" t="s">
+      <c r="A84" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="B84" s="46">
+      <c r="B84" s="72">
         <v>10</v>
       </c>
-      <c r="C84" s="46">
+      <c r="C84" s="98">
         <v>11</v>
       </c>
-      <c r="D84" s="35"/>
+      <c r="D84" s="94"/>
       <c r="E84" s="44"/>
       <c r="F84" s="44"/>
       <c r="G84" s="44"/>
@@ -11992,14 +12388,14 @@
       <c r="BI84" s="27"/>
     </row>
     <row r="85" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A85" s="92"/>
-      <c r="B85" s="46">
+      <c r="A85" s="103"/>
+      <c r="B85" s="104">
         <v>34</v>
       </c>
-      <c r="C85" s="46">
+      <c r="C85" s="97">
         <v>34</v>
       </c>
-      <c r="D85" s="27"/>
+      <c r="D85" s="95"/>
       <c r="E85" s="44"/>
       <c r="F85" s="44"/>
       <c r="G85" s="44"/>
@@ -12059,14 +12455,16 @@
       <c r="BI85" s="27"/>
     </row>
     <row r="86" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A86" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="B86" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="C86" s="44"/>
-      <c r="D86" s="27"/>
+      <c r="A86" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" s="102">
+        <v>10</v>
+      </c>
+      <c r="C86" s="96">
+        <v>11</v>
+      </c>
+      <c r="D86" s="94"/>
       <c r="E86" s="44"/>
       <c r="F86" s="44"/>
       <c r="G86" s="44"/>
@@ -12126,90 +12524,96 @@
       <c r="BI86" s="27"/>
     </row>
     <row r="87" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A87" s="50"/>
-      <c r="B87" s="51"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="52"/>
-      <c r="F87" s="52"/>
-      <c r="G87" s="52"/>
-      <c r="H87" s="52"/>
-      <c r="I87" s="52"/>
-      <c r="J87" s="52"/>
-      <c r="K87" s="52"/>
-      <c r="L87" s="52"/>
-      <c r="M87" s="52"/>
-      <c r="N87" s="52"/>
-      <c r="O87" s="52"/>
-      <c r="P87" s="52"/>
-      <c r="Q87" s="52"/>
-      <c r="R87" s="52"/>
-      <c r="S87" s="52"/>
-      <c r="T87" s="25"/>
-      <c r="U87" s="25"/>
-      <c r="V87" s="25"/>
-      <c r="W87" s="25"/>
-      <c r="X87" s="25"/>
-      <c r="Y87" s="25"/>
-      <c r="Z87" s="25"/>
-      <c r="AA87" s="25"/>
-      <c r="AB87" s="25"/>
-      <c r="AC87" s="25"/>
-      <c r="AD87" s="25"/>
-      <c r="AE87" s="25"/>
-      <c r="AF87" s="25"/>
-      <c r="AG87" s="25"/>
-      <c r="AH87" s="25"/>
-      <c r="AI87" s="25"/>
-      <c r="AJ87" s="25"/>
-      <c r="AK87" s="25"/>
-      <c r="AL87" s="25"/>
-      <c r="AM87" s="25"/>
-      <c r="AN87" s="25"/>
-      <c r="AO87" s="25"/>
-      <c r="AP87" s="25"/>
-      <c r="AQ87" s="25"/>
-      <c r="AR87" s="25"/>
-      <c r="AS87" s="25"/>
-      <c r="AT87" s="25"/>
-      <c r="AU87" s="25"/>
-      <c r="AV87" s="25"/>
-      <c r="AW87" s="25"/>
-      <c r="AX87" s="25"/>
-      <c r="AY87" s="25"/>
-      <c r="AZ87" s="25"/>
-      <c r="BA87" s="25"/>
-      <c r="BB87" s="25"/>
-      <c r="BC87" s="25"/>
-      <c r="BD87" s="25"/>
-      <c r="BE87" s="25"/>
-      <c r="BF87" s="25"/>
-      <c r="BG87" s="25"/>
-      <c r="BH87" s="38"/>
-      <c r="BI87" s="38"/>
+      <c r="A87" s="103"/>
+      <c r="B87" s="104">
+        <v>34</v>
+      </c>
+      <c r="C87" s="97">
+        <v>33</v>
+      </c>
+      <c r="D87" s="95"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="44"/>
+      <c r="M87" s="44"/>
+      <c r="N87" s="44"/>
+      <c r="O87" s="44"/>
+      <c r="P87" s="44"/>
+      <c r="Q87" s="44"/>
+      <c r="R87" s="44"/>
+      <c r="S87" s="44"/>
+      <c r="T87" s="10"/>
+      <c r="U87" s="10"/>
+      <c r="V87" s="10"/>
+      <c r="W87" s="10"/>
+      <c r="X87" s="10"/>
+      <c r="Y87" s="10"/>
+      <c r="Z87" s="10"/>
+      <c r="AA87" s="10"/>
+      <c r="AB87" s="10"/>
+      <c r="AC87" s="10"/>
+      <c r="AD87" s="10"/>
+      <c r="AE87" s="10"/>
+      <c r="AF87" s="10"/>
+      <c r="AG87" s="10"/>
+      <c r="AH87" s="10"/>
+      <c r="AI87" s="10"/>
+      <c r="AJ87" s="10"/>
+      <c r="AK87" s="10"/>
+      <c r="AL87" s="10"/>
+      <c r="AM87" s="10"/>
+      <c r="AN87" s="10"/>
+      <c r="AO87" s="10"/>
+      <c r="AP87" s="10"/>
+      <c r="AQ87" s="10"/>
+      <c r="AR87" s="10"/>
+      <c r="AS87" s="10"/>
+      <c r="AT87" s="10"/>
+      <c r="AU87" s="10"/>
+      <c r="AV87" s="10"/>
+      <c r="AW87" s="10"/>
+      <c r="AX87" s="10"/>
+      <c r="AY87" s="10"/>
+      <c r="AZ87" s="10"/>
+      <c r="BA87" s="10"/>
+      <c r="BB87" s="10"/>
+      <c r="BC87" s="10"/>
+      <c r="BD87" s="10"/>
+      <c r="BE87" s="10"/>
+      <c r="BF87" s="10"/>
+      <c r="BG87" s="10"/>
+      <c r="BH87" s="27"/>
+      <c r="BI87" s="27"/>
     </row>
     <row r="88" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A88" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
+      <c r="A88" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="C88" s="100"/>
       <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="27"/>
-      <c r="M88" s="27"/>
-      <c r="N88" s="30"/>
-      <c r="O88" s="30"/>
-      <c r="P88" s="30"/>
-      <c r="Q88" s="30"/>
-      <c r="R88" s="30"/>
-      <c r="S88" s="30"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="44"/>
+      <c r="M88" s="44"/>
+      <c r="N88" s="44"/>
+      <c r="O88" s="44"/>
+      <c r="P88" s="44"/>
+      <c r="Q88" s="44"/>
+      <c r="R88" s="44"/>
+      <c r="S88" s="44"/>
       <c r="T88" s="10"/>
       <c r="U88" s="10"/>
       <c r="V88" s="10"/>
@@ -12254,73 +12658,71 @@
       <c r="BI88" s="27"/>
     </row>
     <row r="89" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A89" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="27"/>
-      <c r="M89" s="27"/>
-      <c r="N89" s="27"/>
-      <c r="O89" s="27"/>
-      <c r="P89" s="27"/>
-      <c r="Q89" s="27"/>
-      <c r="R89" s="27"/>
-      <c r="S89" s="27"/>
-      <c r="T89" s="10"/>
-      <c r="U89" s="10"/>
-      <c r="V89" s="10"/>
-      <c r="W89" s="10"/>
-      <c r="X89" s="10"/>
-      <c r="Y89" s="10"/>
-      <c r="Z89" s="10"/>
-      <c r="AA89" s="10"/>
-      <c r="AB89" s="10"/>
-      <c r="AC89" s="10"/>
-      <c r="AD89" s="10"/>
-      <c r="AE89" s="10"/>
-      <c r="AF89" s="10"/>
-      <c r="AG89" s="10"/>
-      <c r="AH89" s="10"/>
-      <c r="AI89" s="10"/>
-      <c r="AJ89" s="10"/>
-      <c r="AK89" s="10"/>
-      <c r="AL89" s="10"/>
-      <c r="AM89" s="10"/>
-      <c r="AN89" s="10"/>
-      <c r="AO89" s="10"/>
-      <c r="AP89" s="10"/>
-      <c r="AQ89" s="10"/>
-      <c r="AR89" s="10"/>
-      <c r="AS89" s="10"/>
-      <c r="AT89" s="10"/>
-      <c r="AU89" s="10"/>
-      <c r="AV89" s="10"/>
-      <c r="AW89" s="10"/>
-      <c r="AX89" s="10"/>
-      <c r="AY89" s="10"/>
-      <c r="AZ89" s="10"/>
-      <c r="BA89" s="10"/>
-      <c r="BB89" s="10"/>
-      <c r="BC89" s="10"/>
-      <c r="BD89" s="10"/>
-      <c r="BE89" s="10"/>
-      <c r="BF89" s="10"/>
-      <c r="BG89" s="10"/>
-      <c r="BH89" s="27"/>
-      <c r="BI89" s="27"/>
-    </row>
-    <row r="90" spans="1:61" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="40" t="s">
-        <v>170</v>
+      <c r="A89" s="47"/>
+      <c r="B89" s="48"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="49"/>
+      <c r="J89" s="49"/>
+      <c r="K89" s="49"/>
+      <c r="L89" s="49"/>
+      <c r="M89" s="49"/>
+      <c r="N89" s="49"/>
+      <c r="O89" s="49"/>
+      <c r="P89" s="49"/>
+      <c r="Q89" s="49"/>
+      <c r="R89" s="49"/>
+      <c r="S89" s="49"/>
+      <c r="T89" s="25"/>
+      <c r="U89" s="25"/>
+      <c r="V89" s="25"/>
+      <c r="W89" s="25"/>
+      <c r="X89" s="25"/>
+      <c r="Y89" s="25"/>
+      <c r="Z89" s="25"/>
+      <c r="AA89" s="25"/>
+      <c r="AB89" s="25"/>
+      <c r="AC89" s="25"/>
+      <c r="AD89" s="25"/>
+      <c r="AE89" s="25"/>
+      <c r="AF89" s="25"/>
+      <c r="AG89" s="25"/>
+      <c r="AH89" s="25"/>
+      <c r="AI89" s="25"/>
+      <c r="AJ89" s="25"/>
+      <c r="AK89" s="25"/>
+      <c r="AL89" s="25"/>
+      <c r="AM89" s="25"/>
+      <c r="AN89" s="25"/>
+      <c r="AO89" s="25"/>
+      <c r="AP89" s="25"/>
+      <c r="AQ89" s="25"/>
+      <c r="AR89" s="25"/>
+      <c r="AS89" s="25"/>
+      <c r="AT89" s="25"/>
+      <c r="AU89" s="25"/>
+      <c r="AV89" s="25"/>
+      <c r="AW89" s="25"/>
+      <c r="AX89" s="25"/>
+      <c r="AY89" s="25"/>
+      <c r="AZ89" s="25"/>
+      <c r="BA89" s="25"/>
+      <c r="BB89" s="25"/>
+      <c r="BC89" s="25"/>
+      <c r="BD89" s="25"/>
+      <c r="BE89" s="25"/>
+      <c r="BF89" s="25"/>
+      <c r="BG89" s="25"/>
+      <c r="BH89" s="38"/>
+      <c r="BI89" s="38"/>
+    </row>
+    <row r="90" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A90" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -12334,12 +12736,12 @@
       <c r="K90" s="27"/>
       <c r="L90" s="27"/>
       <c r="M90" s="27"/>
-      <c r="N90" s="27"/>
-      <c r="O90" s="27"/>
-      <c r="P90" s="27"/>
-      <c r="Q90" s="27"/>
-      <c r="R90" s="27"/>
-      <c r="S90" s="27"/>
+      <c r="N90" s="30"/>
+      <c r="O90" s="30"/>
+      <c r="P90" s="30"/>
+      <c r="Q90" s="30"/>
+      <c r="R90" s="30"/>
+      <c r="S90" s="30"/>
       <c r="T90" s="10"/>
       <c r="U90" s="10"/>
       <c r="V90" s="10"/>
@@ -12384,8 +12786,8 @@
       <c r="BI90" s="27"/>
     </row>
     <row r="91" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A91" s="54" t="s">
-        <v>117</v>
+      <c r="A91" s="50" t="s">
+        <v>169</v>
       </c>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -12405,69 +12807,296 @@
       <c r="Q91" s="27"/>
       <c r="R91" s="27"/>
       <c r="S91" s="27"/>
-      <c r="T91" s="27"/>
-      <c r="U91" s="27"/>
-      <c r="V91" s="27"/>
-      <c r="W91" s="27"/>
-      <c r="X91" s="27"/>
-      <c r="Y91" s="27"/>
-      <c r="Z91" s="27"/>
-      <c r="AA91" s="27"/>
-      <c r="AB91" s="27"/>
-      <c r="AC91" s="27"/>
-      <c r="AD91" s="27"/>
-      <c r="AE91" s="27"/>
-      <c r="AF91" s="27"/>
-      <c r="AG91" s="27"/>
-      <c r="AH91" s="27"/>
-      <c r="AI91" s="27"/>
-      <c r="AJ91" s="27"/>
-      <c r="AK91" s="27"/>
-      <c r="AL91" s="27"/>
-      <c r="AM91" s="27"/>
-      <c r="AN91" s="27"/>
-      <c r="AO91" s="27"/>
-      <c r="AP91" s="27"/>
-      <c r="AQ91" s="27"/>
-      <c r="AR91" s="27"/>
-      <c r="AS91" s="27"/>
-      <c r="AT91" s="27"/>
-      <c r="AU91" s="27"/>
-      <c r="AV91" s="27"/>
-      <c r="AW91" s="27"/>
-      <c r="AX91" s="27"/>
-      <c r="AY91" s="27"/>
-      <c r="AZ91" s="27"/>
-      <c r="BA91" s="27"/>
-      <c r="BB91" s="27"/>
-      <c r="BC91" s="27"/>
-      <c r="BD91" s="27"/>
-      <c r="BE91" s="27"/>
-      <c r="BF91" s="27"/>
-      <c r="BG91" s="27"/>
+      <c r="T91" s="10"/>
+      <c r="U91" s="10"/>
+      <c r="V91" s="10"/>
+      <c r="W91" s="10"/>
+      <c r="X91" s="10"/>
+      <c r="Y91" s="10"/>
+      <c r="Z91" s="10"/>
+      <c r="AA91" s="10"/>
+      <c r="AB91" s="10"/>
+      <c r="AC91" s="10"/>
+      <c r="AD91" s="10"/>
+      <c r="AE91" s="10"/>
+      <c r="AF91" s="10"/>
+      <c r="AG91" s="10"/>
+      <c r="AH91" s="10"/>
+      <c r="AI91" s="10"/>
+      <c r="AJ91" s="10"/>
+      <c r="AK91" s="10"/>
+      <c r="AL91" s="10"/>
+      <c r="AM91" s="10"/>
+      <c r="AN91" s="10"/>
+      <c r="AO91" s="10"/>
+      <c r="AP91" s="10"/>
+      <c r="AQ91" s="10"/>
+      <c r="AR91" s="10"/>
+      <c r="AS91" s="10"/>
+      <c r="AT91" s="10"/>
+      <c r="AU91" s="10"/>
+      <c r="AV91" s="10"/>
+      <c r="AW91" s="10"/>
+      <c r="AX91" s="10"/>
+      <c r="AY91" s="10"/>
+      <c r="AZ91" s="10"/>
+      <c r="BA91" s="10"/>
+      <c r="BB91" s="10"/>
+      <c r="BC91" s="10"/>
+      <c r="BD91" s="10"/>
+      <c r="BE91" s="10"/>
+      <c r="BF91" s="10"/>
+      <c r="BG91" s="10"/>
       <c r="BH91" s="27"/>
       <c r="BI91" s="27"/>
     </row>
+    <row r="92" spans="1:61" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="27"/>
+      <c r="K92" s="27"/>
+      <c r="L92" s="27"/>
+      <c r="M92" s="27"/>
+      <c r="N92" s="27"/>
+      <c r="O92" s="27"/>
+      <c r="P92" s="27"/>
+      <c r="Q92" s="27"/>
+      <c r="R92" s="27"/>
+      <c r="S92" s="27"/>
+      <c r="T92" s="10"/>
+      <c r="U92" s="10"/>
+      <c r="V92" s="10"/>
+      <c r="W92" s="10"/>
+      <c r="X92" s="10"/>
+      <c r="Y92" s="10"/>
+      <c r="Z92" s="10"/>
+      <c r="AA92" s="10"/>
+      <c r="AB92" s="10"/>
+      <c r="AC92" s="10"/>
+      <c r="AD92" s="10"/>
+      <c r="AE92" s="10"/>
+      <c r="AF92" s="10"/>
+      <c r="AG92" s="10"/>
+      <c r="AH92" s="10"/>
+      <c r="AI92" s="10"/>
+      <c r="AJ92" s="10"/>
+      <c r="AK92" s="10"/>
+      <c r="AL92" s="10"/>
+      <c r="AM92" s="10"/>
+      <c r="AN92" s="10"/>
+      <c r="AO92" s="10"/>
+      <c r="AP92" s="10"/>
+      <c r="AQ92" s="10"/>
+      <c r="AR92" s="10"/>
+      <c r="AS92" s="10"/>
+      <c r="AT92" s="10"/>
+      <c r="AU92" s="10"/>
+      <c r="AV92" s="10"/>
+      <c r="AW92" s="10"/>
+      <c r="AX92" s="10"/>
+      <c r="AY92" s="10"/>
+      <c r="AZ92" s="10"/>
+      <c r="BA92" s="10"/>
+      <c r="BB92" s="10"/>
+      <c r="BC92" s="10"/>
+      <c r="BD92" s="10"/>
+      <c r="BE92" s="10"/>
+      <c r="BF92" s="10"/>
+      <c r="BG92" s="10"/>
+      <c r="BH92" s="27"/>
+      <c r="BI92" s="27"/>
+    </row>
+    <row r="93" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A93" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="27"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="27"/>
+      <c r="M93" s="27"/>
+      <c r="N93" s="27"/>
+      <c r="O93" s="27"/>
+      <c r="P93" s="27"/>
+      <c r="Q93" s="27"/>
+      <c r="R93" s="27"/>
+      <c r="S93" s="27"/>
+      <c r="T93" s="27"/>
+      <c r="U93" s="27"/>
+      <c r="V93" s="27"/>
+      <c r="W93" s="27"/>
+      <c r="X93" s="27"/>
+      <c r="Y93" s="27"/>
+      <c r="Z93" s="27"/>
+      <c r="AA93" s="27"/>
+      <c r="AB93" s="27"/>
+      <c r="AC93" s="27"/>
+      <c r="AD93" s="27"/>
+      <c r="AE93" s="27"/>
+      <c r="AF93" s="27"/>
+      <c r="AG93" s="27"/>
+      <c r="AH93" s="27"/>
+      <c r="AI93" s="27"/>
+      <c r="AJ93" s="27"/>
+      <c r="AK93" s="27"/>
+      <c r="AL93" s="27"/>
+      <c r="AM93" s="27"/>
+      <c r="AN93" s="27"/>
+      <c r="AO93" s="27"/>
+      <c r="AP93" s="27"/>
+      <c r="AQ93" s="27"/>
+      <c r="AR93" s="27"/>
+      <c r="AS93" s="27"/>
+      <c r="AT93" s="27"/>
+      <c r="AU93" s="27"/>
+      <c r="AV93" s="27"/>
+      <c r="AW93" s="27"/>
+      <c r="AX93" s="27"/>
+      <c r="AY93" s="27"/>
+      <c r="AZ93" s="27"/>
+      <c r="BA93" s="27"/>
+      <c r="BB93" s="27"/>
+      <c r="BC93" s="27"/>
+      <c r="BD93" s="27"/>
+      <c r="BE93" s="27"/>
+      <c r="BF93" s="27"/>
+      <c r="BG93" s="27"/>
+      <c r="BH93" s="27"/>
+      <c r="BI93" s="27"/>
+    </row>
   </sheetData>
-  <mergeCells count="156">
-    <mergeCell ref="P12:Q13"/>
-    <mergeCell ref="R12:S13"/>
-    <mergeCell ref="AV12:AW13"/>
-    <mergeCell ref="T12:U13"/>
-    <mergeCell ref="V12:W13"/>
-    <mergeCell ref="X12:Y13"/>
-    <mergeCell ref="Z12:AA13"/>
-    <mergeCell ref="BD12:BE13"/>
-    <mergeCell ref="BF12:BG13"/>
-    <mergeCell ref="AL12:AM13"/>
-    <mergeCell ref="AP12:AQ13"/>
-    <mergeCell ref="AR12:AS13"/>
-    <mergeCell ref="AT12:AU13"/>
-    <mergeCell ref="AB12:AC13"/>
-    <mergeCell ref="AD12:AE13"/>
-    <mergeCell ref="AF12:AG13"/>
-    <mergeCell ref="AH12:AI13"/>
-    <mergeCell ref="AJ12:AK13"/>
+  <mergeCells count="157">
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="AX72:AY72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="AV73:AW78"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="AX69:AY69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="AX70:AY70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="AX71:AY71"/>
+    <mergeCell ref="AP66:AQ66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="AT67:AU67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="AT68:AU68"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="AN63:AO63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="AN64:AO64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="AP65:AQ65"/>
+    <mergeCell ref="AH60:AI60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="AL61:AM61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="AL62:AM62"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="AD58:AE58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="AF59:AG59"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="AB55:AC55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="AR51:AS51"/>
+    <mergeCell ref="AT51:AU51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="AJ52:AK52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="BF50:BG50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="AD51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="AH51:AI51"/>
+    <mergeCell ref="AJ51:AK51"/>
+    <mergeCell ref="AL51:AM51"/>
+    <mergeCell ref="AN51:AO51"/>
+    <mergeCell ref="AP51:AQ51"/>
+    <mergeCell ref="BD47:BE47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="BD48:BE48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="BF49:BG49"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="AZ44:BA44"/>
+    <mergeCell ref="BB44:BC44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="AZ45:BA45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="BB46:BC46"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="R34:S34"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="AZ1:BA1"/>
@@ -12492,120 +13121,24 @@
     <mergeCell ref="J12:K13"/>
     <mergeCell ref="L12:M13"/>
     <mergeCell ref="N12:O13"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="Z42:AA42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="BD47:BE47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="BD48:BE48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="BF49:BG49"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="AZ44:BA44"/>
-    <mergeCell ref="BB44:BC44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="AZ45:BA45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="BB46:BC46"/>
-    <mergeCell ref="BF50:BG50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="AD51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="AH51:AI51"/>
-    <mergeCell ref="AJ51:AK51"/>
-    <mergeCell ref="AL51:AM51"/>
-    <mergeCell ref="AN51:AO51"/>
-    <mergeCell ref="AP51:AQ51"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="AB55:AC55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="AR51:AS51"/>
-    <mergeCell ref="AT51:AU51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="AJ52:AK52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="AH60:AI60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="AL61:AM61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="AL62:AM62"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="AD58:AE58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="AF59:AG59"/>
-    <mergeCell ref="AP66:AQ66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="AT67:AU67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="AT68:AU68"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="AN63:AO63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="AN64:AO64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="AP65:AQ65"/>
-    <mergeCell ref="AX72:AY72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="AV73:AW78"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="AX69:AY69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="AX70:AY70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="AX71:AY71"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="P12:Q13"/>
+    <mergeCell ref="R12:S13"/>
+    <mergeCell ref="AV12:AW13"/>
+    <mergeCell ref="T12:U13"/>
+    <mergeCell ref="V12:W13"/>
+    <mergeCell ref="X12:Y13"/>
+    <mergeCell ref="Z12:AA13"/>
+    <mergeCell ref="BD12:BE13"/>
+    <mergeCell ref="BF12:BG13"/>
+    <mergeCell ref="AL12:AM13"/>
+    <mergeCell ref="AP12:AQ13"/>
+    <mergeCell ref="AR12:AS13"/>
+    <mergeCell ref="AT12:AU13"/>
+    <mergeCell ref="AB12:AC13"/>
+    <mergeCell ref="AD12:AE13"/>
+    <mergeCell ref="AF12:AG13"/>
+    <mergeCell ref="AH12:AI13"/>
+    <mergeCell ref="AJ12:AK13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/extraResources/2022.xlsx
+++ b/src/extraResources/2022.xlsx
@@ -290,9 +290,6 @@
     <t>Моделирование и прототипирование</t>
   </si>
   <si>
-    <t>информационная безопасность</t>
-  </si>
-  <si>
     <t>Робототехника</t>
   </si>
   <si>
@@ -546,6 +543,9 @@
   </si>
   <si>
     <t>Количество учебных недель</t>
+  </si>
+  <si>
+    <t>Информационная безопасность</t>
   </si>
 </sst>
 </file>
@@ -1016,45 +1016,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1068,13 +1029,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1082,15 +1037,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1098,9 +1044,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1114,16 +1057,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1143,6 +1080,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1445,7 +1445,7 @@
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D1" s="53"/>
       <c r="E1" s="53"/>
@@ -1465,16 +1465,16 @@
         <v>5</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
@@ -1523,14 +1523,14 @@
       <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A6" s="81" t="s">
-        <v>122</v>
+      <c r="A6" s="110" t="s">
+        <v>121</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -1540,12 +1540,12 @@
       <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A7" s="81"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -1555,14 +1555,14 @@
       <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A8" s="81" t="s">
-        <v>124</v>
+      <c r="A8" s="110" t="s">
+        <v>123</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -1572,12 +1572,12 @@
       <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="81"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -1588,13 +1588,13 @@
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -1611,7 +1611,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -1622,13 +1622,13 @@
     </row>
     <row r="12" spans="1:64" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -1638,14 +1638,14 @@
       <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="81" t="s">
-        <v>129</v>
+      <c r="A13" s="110" t="s">
+        <v>128</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1655,9 +1655,9 @@
       <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="81"/>
+      <c r="A14" s="110"/>
       <c r="B14" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -1668,9 +1668,9 @@
       <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="81"/>
+      <c r="A15" s="110"/>
       <c r="B15" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -1681,9 +1681,9 @@
       <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="81"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -1749,9 +1749,9 @@
       <c r="BL16" s="65"/>
     </row>
     <row r="17" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="81"/>
+      <c r="A17" s="110"/>
       <c r="B17" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
@@ -1817,9 +1817,9 @@
       <c r="BL17" s="65"/>
     </row>
     <row r="18" spans="1:64" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="81"/>
+      <c r="A18" s="110"/>
       <c r="B18" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
@@ -1885,9 +1885,9 @@
       <c r="BL18" s="65"/>
     </row>
     <row r="19" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="81"/>
+      <c r="A19" s="110"/>
       <c r="B19" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
@@ -1953,14 +1953,14 @@
       <c r="BL19" s="65"/>
     </row>
     <row r="20" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="110" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -2025,12 +2025,12 @@
       <c r="BL20" s="65"/>
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A21" s="81"/>
+      <c r="A21" s="110"/>
       <c r="B21" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="22" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -2174,7 +2174,7 @@
         <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -2440,7 +2440,7 @@
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" s="44"/>
       <c r="C27" s="11"/>
@@ -2507,13 +2507,13 @@
       <c r="BL27" s="65"/>
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A28" s="106" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28" s="112" t="s">
-        <v>160</v>
-      </c>
-      <c r="C28" s="118"/>
+      <c r="A28" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="99"/>
       <c r="D28" s="44"/>
       <c r="E28" s="44"/>
       <c r="F28" s="44"/>
@@ -2577,16 +2577,16 @@
       <c r="BL28" s="65"/>
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A29" s="121" t="s">
+      <c r="A29" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="122" t="s">
+      <c r="C29" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="123" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="117"/>
+      <c r="D29" s="98"/>
       <c r="E29" s="76"/>
       <c r="F29" s="76"/>
       <c r="G29" s="44"/>
@@ -2649,15 +2649,15 @@
       <c r="BL29" s="65"/>
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A30" s="124"/>
-      <c r="B30" s="129">
+      <c r="A30" s="112"/>
+      <c r="B30" s="108">
         <v>2954</v>
       </c>
-      <c r="C30" s="130">
+      <c r="C30" s="109">
         <v>3190</v>
       </c>
-      <c r="D30" s="119"/>
-      <c r="E30" s="120"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="101"/>
       <c r="F30" s="76"/>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
@@ -2719,22 +2719,22 @@
       <c r="BL30" s="65"/>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A31" s="101" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="125">
-        <v>1</v>
-      </c>
-      <c r="C31" s="125">
+      <c r="A31" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="104">
+        <v>1</v>
+      </c>
+      <c r="C31" s="104">
         <v>2</v>
       </c>
-      <c r="D31" s="125">
+      <c r="D31" s="104">
         <v>3</v>
       </c>
-      <c r="E31" s="126">
+      <c r="E31" s="105">
         <v>4</v>
       </c>
-      <c r="F31" s="94"/>
+      <c r="F31" s="81"/>
       <c r="G31" s="44"/>
       <c r="H31" s="44"/>
       <c r="I31" s="73"/>
@@ -2795,20 +2795,20 @@
       <c r="BL31" s="65"/>
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A32" s="103"/>
-      <c r="B32" s="127">
+      <c r="A32" s="114"/>
+      <c r="B32" s="106">
         <v>21</v>
       </c>
-      <c r="C32" s="127">
+      <c r="C32" s="106">
         <v>23</v>
       </c>
-      <c r="D32" s="127">
+      <c r="D32" s="106">
         <v>23</v>
       </c>
-      <c r="E32" s="128">
+      <c r="E32" s="107">
         <v>23</v>
       </c>
-      <c r="F32" s="95"/>
+      <c r="F32" s="82"/>
       <c r="G32" s="44"/>
       <c r="H32" s="44"/>
       <c r="I32" s="73"/>
@@ -2869,22 +2869,22 @@
       <c r="BL32" s="65"/>
     </row>
     <row r="33" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A33" s="101" t="s">
-        <v>172</v>
-      </c>
-      <c r="B33" s="125">
-        <v>1</v>
-      </c>
-      <c r="C33" s="125">
+      <c r="A33" s="113" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="104">
+        <v>1</v>
+      </c>
+      <c r="C33" s="104">
         <v>2</v>
       </c>
-      <c r="D33" s="125">
+      <c r="D33" s="104">
         <v>3</v>
       </c>
-      <c r="E33" s="126">
+      <c r="E33" s="105">
         <v>4</v>
       </c>
-      <c r="F33" s="94"/>
+      <c r="F33" s="81"/>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
       <c r="I33" s="73"/>
@@ -2945,20 +2945,20 @@
       <c r="BL33" s="65"/>
     </row>
     <row r="34" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A34" s="103"/>
-      <c r="B34" s="127">
+      <c r="A34" s="114"/>
+      <c r="B34" s="106">
         <v>33</v>
       </c>
-      <c r="C34" s="127">
+      <c r="C34" s="106">
         <v>34</v>
       </c>
-      <c r="D34" s="127">
+      <c r="D34" s="106">
         <v>34</v>
       </c>
-      <c r="E34" s="128">
+      <c r="E34" s="107">
         <v>34</v>
       </c>
-      <c r="F34" s="95"/>
+      <c r="F34" s="82"/>
       <c r="G34" s="44"/>
       <c r="H34" s="44"/>
       <c r="I34" s="73"/>
@@ -3020,14 +3020,14 @@
     </row>
     <row r="35" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A35" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="99" t="s">
-        <v>165</v>
-      </c>
-      <c r="C35" s="100"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="100"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="87"/>
       <c r="F35" s="44"/>
       <c r="G35" s="44"/>
       <c r="H35" s="44"/>
@@ -3156,7 +3156,7 @@
     </row>
     <row r="37" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B37" s="77"/>
       <c r="C37" s="44"/>
@@ -3224,7 +3224,7 @@
     </row>
     <row r="38" spans="1:64" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B38" s="44"/>
       <c r="C38" s="44"/>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="39" spans="1:64" s="69" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B39" s="44"/>
       <c r="C39" s="44"/>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="40" spans="1:64" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40" s="44"/>
       <c r="C40" s="44"/>
@@ -3537,7 +3537,7 @@
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D1" s="53"/>
       <c r="E1" s="53"/>
@@ -3576,73 +3576,73 @@
         <v>5</v>
       </c>
       <c r="D2" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="L2" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="M2" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="N2" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>157</v>
-      </c>
       <c r="O2" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="S2" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="T2" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="R2" s="28" t="s">
+      <c r="U2" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="V2" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="T2" s="28" t="s">
+      <c r="W2" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="U2" s="28" t="s">
+      <c r="X2" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="V2" s="28" t="s">
+      <c r="Y2" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="W2" s="28" t="s">
+      <c r="Z2" s="28" t="s">
         <v>95</v>
-      </c>
-      <c r="X2" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y2" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z2" s="28" t="s">
-        <v>96</v>
       </c>
       <c r="AA2" s="44"/>
       <c r="AB2" s="44"/>
@@ -3786,14 +3786,14 @@
       <c r="AB5" s="44"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="110" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -3828,12 +3828,12 @@
       <c r="AB6" s="44"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="81"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -3862,14 +3862,14 @@
       <c r="AB7" s="44"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="110" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -3898,12 +3898,12 @@
       <c r="AB8" s="44"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="81"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -3932,14 +3932,14 @@
       <c r="AB9" s="44"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="110" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -3974,12 +3974,12 @@
       <c r="AB10" s="44"/>
     </row>
     <row r="11" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="81"/>
+      <c r="A11" s="110"/>
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -4014,14 +4014,14 @@
       <c r="AB11" s="44"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="110" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -4050,24 +4050,24 @@
       <c r="V12" s="45"/>
       <c r="W12" s="45"/>
       <c r="X12" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y12" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z12" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA12" s="44"/>
       <c r="AB12" s="44"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="81"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -4102,14 +4102,14 @@
       <c r="AB13" s="44"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="110" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -4138,12 +4138,12 @@
       <c r="AB14" s="44"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" s="81"/>
+      <c r="A15" s="110"/>
       <c r="B15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -4172,12 +4172,12 @@
       <c r="AB15" s="44"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="81"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -4206,14 +4206,14 @@
       <c r="AB16" s="44"/>
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A17" s="81" t="s">
-        <v>101</v>
+      <c r="A17" s="110" t="s">
+        <v>100</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -4242,12 +4242,12 @@
       <c r="AB17" s="44"/>
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A18" s="81"/>
+      <c r="A18" s="110"/>
       <c r="B18" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -4282,12 +4282,12 @@
       <c r="AB18" s="44"/>
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A19" s="81"/>
+      <c r="A19" s="110"/>
       <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -4323,13 +4323,13 @@
     </row>
     <row r="20" spans="1:64" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -4358,14 +4358,14 @@
       <c r="AB20" s="44"/>
     </row>
     <row r="21" spans="1:64" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="110" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -4394,12 +4394,12 @@
       <c r="AB21" s="44"/>
     </row>
     <row r="22" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A22" s="81"/>
+      <c r="A22" s="110"/>
       <c r="B22" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -4429,13 +4429,13 @@
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -4470,14 +4470,14 @@
       <c r="AB23" s="44"/>
     </row>
     <row r="24" spans="1:64" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="81" t="s">
-        <v>109</v>
+      <c r="A24" s="110" t="s">
+        <v>108</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -4506,12 +4506,12 @@
       <c r="AB24" s="44"/>
     </row>
     <row r="25" spans="1:64" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="81"/>
+      <c r="A25" s="110"/>
       <c r="B25" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -4602,10 +4602,10 @@
       <c r="AB27" s="44"/>
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A28" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="83"/>
+      <c r="A28" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="115"/>
       <c r="C28" s="58"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -4615,10 +4615,10 @@
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
-      <c r="L28" s="82">
+      <c r="L28" s="117">
         <v>2</v>
       </c>
-      <c r="M28" s="82"/>
+      <c r="M28" s="117"/>
       <c r="N28" s="45"/>
       <c r="O28" s="45"/>
       <c r="P28" s="45"/>
@@ -4636,10 +4636,10 @@
       <c r="AB28" s="44"/>
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A29" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="83"/>
+      <c r="A29" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="115"/>
       <c r="C29" s="58"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -4650,10 +4650,10 @@
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
-      <c r="M29" s="82">
+      <c r="M29" s="117">
         <v>2</v>
       </c>
-      <c r="N29" s="82"/>
+      <c r="N29" s="117"/>
       <c r="O29" s="45"/>
       <c r="P29" s="45"/>
       <c r="Q29" s="45"/>
@@ -4670,10 +4670,10 @@
       <c r="AB29" s="44"/>
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A30" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="83"/>
+      <c r="A30" s="115" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="115"/>
       <c r="C30" s="58"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -4684,10 +4684,10 @@
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
-      <c r="M30" s="82">
+      <c r="M30" s="117">
         <v>2</v>
       </c>
-      <c r="N30" s="82"/>
+      <c r="N30" s="117"/>
       <c r="O30" s="45"/>
       <c r="P30" s="45"/>
       <c r="Q30" s="45"/>
@@ -4704,10 +4704,10 @@
       <c r="AB30" s="44"/>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A31" s="83" t="s">
+      <c r="A31" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="83"/>
+      <c r="B31" s="115"/>
       <c r="C31" s="58"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -4742,10 +4742,10 @@
       <c r="AB31" s="44"/>
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A32" s="83" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="83"/>
+      <c r="A32" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="115"/>
       <c r="C32" s="58"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -4761,11 +4761,11 @@
       <c r="O32" s="45"/>
       <c r="P32" s="45"/>
       <c r="Q32" s="45"/>
-      <c r="R32" s="84">
+      <c r="R32" s="116">
         <v>2</v>
       </c>
-      <c r="S32" s="84"/>
-      <c r="T32" s="84"/>
+      <c r="S32" s="116"/>
+      <c r="T32" s="116"/>
       <c r="U32" s="45"/>
       <c r="V32" s="45"/>
       <c r="W32" s="45"/>
@@ -4812,10 +4812,10 @@
       <c r="BL32" s="61"/>
     </row>
     <row r="33" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A33" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="83"/>
+      <c r="A33" s="115" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="115"/>
       <c r="C33" s="58"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -4831,11 +4831,11 @@
       <c r="O33" s="45"/>
       <c r="P33" s="45"/>
       <c r="Q33" s="45"/>
-      <c r="R33" s="84">
+      <c r="R33" s="116">
         <v>2</v>
       </c>
-      <c r="S33" s="84"/>
-      <c r="T33" s="84"/>
+      <c r="S33" s="116"/>
+      <c r="T33" s="116"/>
       <c r="U33" s="45"/>
       <c r="V33" s="45"/>
       <c r="W33" s="45"/>
@@ -4882,10 +4882,10 @@
       <c r="BL33" s="61"/>
     </row>
     <row r="34" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A34" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" s="83"/>
+      <c r="A34" s="115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="115"/>
       <c r="C34" s="58"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
@@ -4904,10 +4904,10 @@
       <c r="R34" s="45"/>
       <c r="S34" s="45"/>
       <c r="T34" s="45"/>
-      <c r="U34" s="84">
+      <c r="U34" s="116">
         <v>2</v>
       </c>
-      <c r="V34" s="84"/>
+      <c r="V34" s="116"/>
       <c r="W34" s="45"/>
       <c r="X34" s="45"/>
       <c r="Y34" s="45"/>
@@ -4952,10 +4952,10 @@
       <c r="BL34" s="61"/>
     </row>
     <row r="35" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A35" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" s="83"/>
+      <c r="A35" s="115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="115"/>
       <c r="C35" s="58"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
@@ -4975,10 +4975,10 @@
       <c r="S35" s="45"/>
       <c r="T35" s="45"/>
       <c r="U35" s="45"/>
-      <c r="V35" s="84">
+      <c r="V35" s="116">
         <v>2</v>
       </c>
-      <c r="W35" s="84"/>
+      <c r="W35" s="116"/>
       <c r="X35" s="45"/>
       <c r="Y35" s="45"/>
       <c r="Z35" s="45"/>
@@ -5089,7 +5089,7 @@
     </row>
     <row r="37" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B37" s="44"/>
       <c r="C37" s="44"/>
@@ -5156,13 +5156,13 @@
       <c r="BL37" s="61"/>
     </row>
     <row r="38" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A38" s="106" t="s">
-        <v>171</v>
-      </c>
-      <c r="B38" s="112" t="s">
-        <v>161</v>
-      </c>
-      <c r="C38" s="108"/>
+      <c r="A38" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="93"/>
       <c r="D38" s="44"/>
       <c r="E38" s="44"/>
       <c r="F38" s="44"/>
@@ -5226,16 +5226,16 @@
       <c r="BL38" s="61"/>
     </row>
     <row r="39" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A39" s="110" t="s">
+      <c r="A39" s="118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="102" t="s">
+      <c r="C39" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="96" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="105"/>
+      <c r="D39" s="90"/>
       <c r="E39" s="44"/>
       <c r="F39" s="44"/>
       <c r="G39" s="44"/>
@@ -5298,16 +5298,16 @@
       <c r="BL39" s="61"/>
     </row>
     <row r="40" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A40" s="116"/>
+      <c r="A40" s="119"/>
       <c r="B40" s="72">
         <v>5058</v>
       </c>
-      <c r="C40" s="98">
+      <c r="C40" s="85">
         <v>5549</v>
       </c>
-      <c r="D40" s="114"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
       <c r="G40" s="44"/>
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
@@ -5368,25 +5368,25 @@
       <c r="BL40" s="61"/>
     </row>
     <row r="41" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A41" s="101" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" s="102">
+      <c r="A41" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="88">
         <v>5</v>
       </c>
-      <c r="C41" s="102">
+      <c r="C41" s="88">
         <v>6</v>
       </c>
-      <c r="D41" s="102">
+      <c r="D41" s="88">
         <v>7</v>
       </c>
-      <c r="E41" s="102">
+      <c r="E41" s="88">
         <v>8</v>
       </c>
-      <c r="F41" s="96">
+      <c r="F41" s="83">
         <v>9</v>
       </c>
-      <c r="G41" s="113"/>
+      <c r="G41" s="95"/>
       <c r="H41" s="44"/>
       <c r="I41" s="44"/>
       <c r="J41" s="44"/>
@@ -5446,23 +5446,23 @@
       <c r="BL41" s="61"/>
     </row>
     <row r="42" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A42" s="103"/>
-      <c r="B42" s="104">
+      <c r="A42" s="114"/>
+      <c r="B42" s="89">
         <v>29</v>
       </c>
-      <c r="C42" s="104">
+      <c r="C42" s="89">
         <v>30</v>
       </c>
-      <c r="D42" s="104">
+      <c r="D42" s="89">
         <v>32</v>
       </c>
-      <c r="E42" s="104">
+      <c r="E42" s="89">
         <v>33</v>
       </c>
-      <c r="F42" s="97">
+      <c r="F42" s="84">
         <v>33</v>
       </c>
-      <c r="G42" s="105"/>
+      <c r="G42" s="90"/>
       <c r="H42" s="44"/>
       <c r="I42" s="44"/>
       <c r="J42" s="44"/>
@@ -5522,25 +5522,25 @@
       <c r="BL42" s="61"/>
     </row>
     <row r="43" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A43" s="101" t="s">
-        <v>172</v>
-      </c>
-      <c r="B43" s="102">
+      <c r="A43" s="113" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" s="88">
         <v>5</v>
       </c>
-      <c r="C43" s="102">
+      <c r="C43" s="88">
         <v>6</v>
       </c>
-      <c r="D43" s="102">
+      <c r="D43" s="88">
         <v>7</v>
       </c>
-      <c r="E43" s="102">
+      <c r="E43" s="88">
         <v>8</v>
       </c>
-      <c r="F43" s="96">
+      <c r="F43" s="83">
         <v>9</v>
       </c>
-      <c r="G43" s="113"/>
+      <c r="G43" s="95"/>
       <c r="H43" s="44"/>
       <c r="I43" s="44"/>
       <c r="J43" s="44"/>
@@ -5600,23 +5600,23 @@
       <c r="BL43" s="61"/>
     </row>
     <row r="44" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A44" s="103"/>
-      <c r="B44" s="104">
+      <c r="A44" s="114"/>
+      <c r="B44" s="89">
         <v>34</v>
       </c>
-      <c r="C44" s="104">
+      <c r="C44" s="89">
         <v>34</v>
       </c>
-      <c r="D44" s="104">
+      <c r="D44" s="89">
         <v>34</v>
       </c>
-      <c r="E44" s="104">
+      <c r="E44" s="89">
         <v>34</v>
       </c>
-      <c r="F44" s="97">
+      <c r="F44" s="84">
         <v>33</v>
       </c>
-      <c r="G44" s="105"/>
+      <c r="G44" s="90"/>
       <c r="H44" s="44"/>
       <c r="I44" s="44"/>
       <c r="J44" s="44"/>
@@ -5677,15 +5677,15 @@
     </row>
     <row r="45" spans="1:64" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="B45" s="99" t="s">
-        <v>165</v>
-      </c>
-      <c r="C45" s="100"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="100"/>
-      <c r="F45" s="100"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
       <c r="G45" s="44"/>
       <c r="H45" s="44"/>
       <c r="I45" s="44"/>
@@ -5813,7 +5813,7 @@
     </row>
     <row r="47" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B47" s="44"/>
       <c r="C47" s="44"/>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="48" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A48" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B48" s="44"/>
       <c r="C48" s="44"/>
@@ -5949,7 +5949,7 @@
     </row>
     <row r="49" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B49" s="44"/>
       <c r="C49" s="44"/>
@@ -5981,7 +5981,7 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B50" s="44"/>
       <c r="C50" s="44"/>
@@ -6107,6 +6107,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="A33:B33"/>
@@ -6120,19 +6133,6 @@
     <mergeCell ref="R32:T32"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6143,8 +6143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="59" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="U73" sqref="U73"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="59" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="V52" sqref="V52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6170,127 +6170,127 @@
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="89" t="s">
-        <v>155</v>
-      </c>
-      <c r="O1" s="89"/>
+        <v>158</v>
+      </c>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="122" t="s">
+        <v>154</v>
+      </c>
+      <c r="O1" s="122"/>
       <c r="P1" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="R1" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="X1" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="Y1" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="Z1" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="AA1" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AB1" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AC1" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AD1" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="AC1" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD1" s="89" t="s">
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89" t="s">
+      <c r="AG1" s="122"/>
+      <c r="AH1" s="122" t="s">
         <v>149</v>
       </c>
-      <c r="AG1" s="89"/>
-      <c r="AH1" s="89" t="s">
+      <c r="AI1" s="122"/>
+      <c r="AJ1" s="122" t="s">
         <v>150</v>
       </c>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="89" t="s">
+      <c r="AK1" s="122"/>
+      <c r="AL1" s="122" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM1" s="122"/>
+      <c r="AN1" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="AK1" s="89"/>
-      <c r="AL1" s="89" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM1" s="89"/>
-      <c r="AN1" s="89" t="s">
+      <c r="AO1" s="122"/>
+      <c r="AP1" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="122"/>
+      <c r="AR1" s="122" t="s">
         <v>152</v>
       </c>
-      <c r="AO1" s="89"/>
-      <c r="AP1" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ1" s="89"/>
-      <c r="AR1" s="89" t="s">
+      <c r="AS1" s="122"/>
+      <c r="AT1" s="122" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU1" s="122"/>
+      <c r="AV1" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW1" s="122"/>
+      <c r="AX1" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY1" s="122"/>
+      <c r="AZ1" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="BA1" s="122"/>
+      <c r="BB1" s="122" t="s">
         <v>153</v>
       </c>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU1" s="89"/>
-      <c r="AV1" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW1" s="89"/>
-      <c r="AX1" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY1" s="89"/>
-      <c r="AZ1" s="89" t="s">
-        <v>152</v>
-      </c>
-      <c r="BA1" s="89"/>
-      <c r="BB1" s="89" t="s">
+      <c r="BC1" s="122"/>
+      <c r="BD1" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="BC1" s="89"/>
-      <c r="BD1" s="28" t="s">
-        <v>155</v>
-      </c>
       <c r="BE1" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BF1" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BG1" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BH1" s="27"/>
       <c r="BI1" s="27"/>
@@ -6312,130 +6312,130 @@
         <v>6</v>
       </c>
       <c r="F2" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="I2" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="J2" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="K2" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="L2" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="M2" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>92</v>
-      </c>
       <c r="N2" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="P2" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="Q2" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="R2" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="U2" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="V2" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="X2" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y2" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z2" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA2" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB2" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC2" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD2" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="AE2" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="R2" s="28" t="s">
+      <c r="AF2" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="AG2" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="T2" s="28" t="s">
+      <c r="AH2" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="U2" s="28" t="s">
+      <c r="AI2" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="V2" s="28" t="s">
+      <c r="AJ2" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="W2" s="28" t="s">
+      <c r="AK2" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="X2" s="28" t="s">
+      <c r="AL2" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="Y2" s="28" t="s">
+      <c r="AM2" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="Z2" s="28" t="s">
+      <c r="AN2" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AA2" s="28" t="s">
+      <c r="AO2" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AB2" s="28" t="s">
+      <c r="AP2" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AC2" s="28" t="s">
+      <c r="AQ2" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="AD2" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE2" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF2" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG2" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH2" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI2" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ2" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK2" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL2" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="AM2" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN2" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO2" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="AP2" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="AQ2" s="28" t="s">
-        <v>138</v>
-      </c>
       <c r="AR2" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AS2" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AT2" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AU2" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AV2" s="28" t="s">
         <v>7</v>
@@ -6450,22 +6450,22 @@
         <v>7</v>
       </c>
       <c r="AZ2" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA2" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB2" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC2" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD2" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="BA2" s="28" t="s">
+      <c r="BE2" s="31" t="s">
         <v>139</v>
-      </c>
-      <c r="BB2" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="BC2" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="BD2" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="BE2" s="31" t="s">
-        <v>140</v>
       </c>
       <c r="BF2" s="31" t="s">
         <v>8</v>
@@ -6780,7 +6780,7 @@
       <c r="BI5" s="27"/>
     </row>
     <row r="6" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="110" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -6865,7 +6865,7 @@
       <c r="BI6" s="27"/>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A7" s="81"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -6944,7 +6944,7 @@
       <c r="BI7" s="27"/>
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="110" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -7013,7 +7013,7 @@
       <c r="BI8" s="27"/>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A9" s="81"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
@@ -7080,7 +7080,7 @@
       <c r="BI9" s="27"/>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="110" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -7165,7 +7165,7 @@
       <c r="BI10" s="27"/>
     </row>
     <row r="11" spans="1:61" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="81"/>
+      <c r="A11" s="110"/>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
@@ -7232,7 +7232,7 @@
       <c r="BI11" s="27"/>
     </row>
     <row r="12" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="110" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -7241,194 +7241,194 @@
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="85">
-        <v>1</v>
-      </c>
-      <c r="E12" s="86"/>
-      <c r="F12" s="85">
-        <v>1</v>
-      </c>
-      <c r="G12" s="86"/>
-      <c r="H12" s="85">
-        <v>1</v>
-      </c>
-      <c r="I12" s="86"/>
-      <c r="J12" s="85">
-        <v>1</v>
-      </c>
-      <c r="K12" s="86"/>
-      <c r="L12" s="85">
-        <v>1</v>
-      </c>
-      <c r="M12" s="86"/>
-      <c r="N12" s="85">
-        <v>1</v>
-      </c>
-      <c r="O12" s="86"/>
-      <c r="P12" s="85">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="85">
-        <v>1</v>
-      </c>
-      <c r="S12" s="86"/>
-      <c r="T12" s="85">
-        <v>1</v>
-      </c>
-      <c r="U12" s="86"/>
-      <c r="V12" s="85">
-        <v>1</v>
-      </c>
-      <c r="W12" s="86"/>
-      <c r="X12" s="85">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="85">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="85">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="86"/>
-      <c r="AD12" s="85">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="86"/>
-      <c r="AF12" s="85">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="86"/>
-      <c r="AH12" s="85">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="86"/>
-      <c r="AJ12" s="85">
-        <v>1</v>
-      </c>
-      <c r="AK12" s="86"/>
-      <c r="AL12" s="85">
-        <v>1</v>
-      </c>
-      <c r="AM12" s="86"/>
+      <c r="D12" s="127">
+        <v>1</v>
+      </c>
+      <c r="E12" s="128"/>
+      <c r="F12" s="127">
+        <v>1</v>
+      </c>
+      <c r="G12" s="128"/>
+      <c r="H12" s="127">
+        <v>1</v>
+      </c>
+      <c r="I12" s="128"/>
+      <c r="J12" s="127">
+        <v>1</v>
+      </c>
+      <c r="K12" s="128"/>
+      <c r="L12" s="127">
+        <v>1</v>
+      </c>
+      <c r="M12" s="128"/>
+      <c r="N12" s="127">
+        <v>1</v>
+      </c>
+      <c r="O12" s="128"/>
+      <c r="P12" s="127">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="128"/>
+      <c r="R12" s="127">
+        <v>1</v>
+      </c>
+      <c r="S12" s="128"/>
+      <c r="T12" s="127">
+        <v>1</v>
+      </c>
+      <c r="U12" s="128"/>
+      <c r="V12" s="127">
+        <v>1</v>
+      </c>
+      <c r="W12" s="128"/>
+      <c r="X12" s="127">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="128"/>
+      <c r="Z12" s="127">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="128"/>
+      <c r="AB12" s="127">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="128"/>
+      <c r="AD12" s="127">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="128"/>
+      <c r="AF12" s="127">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="128"/>
+      <c r="AH12" s="127">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="128"/>
+      <c r="AJ12" s="127">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="128"/>
+      <c r="AL12" s="127">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="128"/>
       <c r="AN12" s="40">
         <v>1</v>
       </c>
       <c r="AO12" s="40">
         <v>1</v>
       </c>
-      <c r="AP12" s="85">
-        <v>1</v>
-      </c>
-      <c r="AQ12" s="86"/>
-      <c r="AR12" s="85">
-        <v>1</v>
-      </c>
-      <c r="AS12" s="86"/>
-      <c r="AT12" s="85">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="86"/>
-      <c r="AV12" s="85">
-        <v>1</v>
-      </c>
-      <c r="AW12" s="86"/>
-      <c r="AX12" s="85">
-        <v>1</v>
-      </c>
-      <c r="AY12" s="86"/>
+      <c r="AP12" s="127">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="128"/>
+      <c r="AR12" s="127">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="128"/>
+      <c r="AT12" s="127">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="128"/>
+      <c r="AV12" s="127">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="128"/>
+      <c r="AX12" s="127">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="128"/>
       <c r="AZ12" s="40">
         <v>1</v>
       </c>
       <c r="BA12" s="40">
         <v>1</v>
       </c>
-      <c r="BB12" s="85">
-        <v>1</v>
-      </c>
-      <c r="BC12" s="86"/>
-      <c r="BD12" s="85">
-        <v>1</v>
-      </c>
-      <c r="BE12" s="86"/>
-      <c r="BF12" s="85">
-        <v>1</v>
-      </c>
-      <c r="BG12" s="86"/>
+      <c r="BB12" s="127">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="128"/>
+      <c r="BD12" s="127">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="128"/>
+      <c r="BF12" s="127">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="128"/>
       <c r="BH12" s="27"/>
       <c r="BI12" s="27"/>
     </row>
     <row r="13" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="81"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="88"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="88"/>
-      <c r="AB13" s="87"/>
-      <c r="AC13" s="88"/>
-      <c r="AD13" s="87"/>
-      <c r="AE13" s="88"/>
-      <c r="AF13" s="87"/>
-      <c r="AG13" s="88"/>
-      <c r="AH13" s="87"/>
-      <c r="AI13" s="88"/>
-      <c r="AJ13" s="87"/>
-      <c r="AK13" s="88"/>
-      <c r="AL13" s="87"/>
-      <c r="AM13" s="88"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="130"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="130"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="130"/>
+      <c r="T13" s="129"/>
+      <c r="U13" s="130"/>
+      <c r="V13" s="129"/>
+      <c r="W13" s="130"/>
+      <c r="X13" s="129"/>
+      <c r="Y13" s="130"/>
+      <c r="Z13" s="129"/>
+      <c r="AA13" s="130"/>
+      <c r="AB13" s="129"/>
+      <c r="AC13" s="130"/>
+      <c r="AD13" s="129"/>
+      <c r="AE13" s="130"/>
+      <c r="AF13" s="129"/>
+      <c r="AG13" s="130"/>
+      <c r="AH13" s="129"/>
+      <c r="AI13" s="130"/>
+      <c r="AJ13" s="129"/>
+      <c r="AK13" s="130"/>
+      <c r="AL13" s="129"/>
+      <c r="AM13" s="130"/>
       <c r="AN13" s="33"/>
       <c r="AO13" s="33"/>
-      <c r="AP13" s="87"/>
-      <c r="AQ13" s="88"/>
-      <c r="AR13" s="87"/>
-      <c r="AS13" s="88"/>
-      <c r="AT13" s="87"/>
-      <c r="AU13" s="88"/>
-      <c r="AV13" s="87"/>
-      <c r="AW13" s="88"/>
-      <c r="AX13" s="87"/>
-      <c r="AY13" s="88"/>
+      <c r="AP13" s="129"/>
+      <c r="AQ13" s="130"/>
+      <c r="AR13" s="129"/>
+      <c r="AS13" s="130"/>
+      <c r="AT13" s="129"/>
+      <c r="AU13" s="130"/>
+      <c r="AV13" s="129"/>
+      <c r="AW13" s="130"/>
+      <c r="AX13" s="129"/>
+      <c r="AY13" s="130"/>
       <c r="AZ13" s="33"/>
       <c r="BA13" s="33"/>
-      <c r="BB13" s="87"/>
-      <c r="BC13" s="88"/>
-      <c r="BD13" s="87"/>
-      <c r="BE13" s="88"/>
-      <c r="BF13" s="87"/>
-      <c r="BG13" s="88"/>
+      <c r="BB13" s="129"/>
+      <c r="BC13" s="130"/>
+      <c r="BD13" s="129"/>
+      <c r="BE13" s="130"/>
+      <c r="BF13" s="129"/>
+      <c r="BG13" s="130"/>
       <c r="BH13" s="27"/>
       <c r="BI13" s="27"/>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A14" s="81"/>
+      <c r="A14" s="110"/>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
@@ -7503,7 +7503,7 @@
       <c r="BI14" s="27"/>
     </row>
     <row r="15" spans="1:61" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="81"/>
+      <c r="A15" s="110"/>
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
@@ -7574,7 +7574,7 @@
       <c r="BI15" s="27"/>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A16" s="81"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
@@ -7645,7 +7645,7 @@
       <c r="BI16" s="27"/>
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A17" s="81"/>
+      <c r="A17" s="110"/>
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
@@ -7712,7 +7712,7 @@
       <c r="BI17" s="27"/>
     </row>
     <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="110" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -7843,7 +7843,7 @@
       <c r="BI18" s="27"/>
     </row>
     <row r="19" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="81"/>
+      <c r="A19" s="110"/>
       <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
@@ -7942,7 +7942,7 @@
       <c r="BI19" s="27"/>
     </row>
     <row r="20" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="110" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -8057,7 +8057,7 @@
       <c r="BI20" s="27"/>
     </row>
     <row r="21" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A21" s="81"/>
+      <c r="A21" s="110"/>
       <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
@@ -8146,7 +8146,7 @@
       <c r="BI21" s="27"/>
     </row>
     <row r="22" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="81"/>
+      <c r="A22" s="110"/>
       <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
@@ -8234,7 +8234,7 @@
       <c r="BI22" s="27"/>
     </row>
     <row r="23" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="81"/>
+      <c r="A23" s="110"/>
       <c r="B23" s="6" t="s">
         <v>38</v>
       </c>
@@ -8301,7 +8301,7 @@
       <c r="BI23" s="27"/>
     </row>
     <row r="24" spans="1:61" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="110" t="s">
         <v>39</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -8370,7 +8370,7 @@
       <c r="BI24" s="27"/>
     </row>
     <row r="25" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="81"/>
+      <c r="A25" s="110"/>
       <c r="B25" s="2" t="s">
         <v>41</v>
       </c>
@@ -8437,7 +8437,7 @@
       <c r="BI25" s="27"/>
     </row>
     <row r="26" spans="1:61" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="81"/>
+      <c r="A26" s="110"/>
       <c r="B26" s="6" t="s">
         <v>42</v>
       </c>
@@ -8504,10 +8504,10 @@
       <c r="BI26" s="27"/>
     </row>
     <row r="27" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="93"/>
+      <c r="B27" s="125"/>
       <c r="C27" s="17"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -8697,10 +8697,10 @@
       <c r="BI29" s="27"/>
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A30" s="91" t="s">
+      <c r="A30" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="91"/>
+      <c r="B30" s="124"/>
       <c r="C30" s="18"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -8712,10 +8712,10 @@
       <c r="K30" s="33"/>
       <c r="L30" s="33"/>
       <c r="M30" s="33"/>
-      <c r="N30" s="90">
+      <c r="N30" s="126">
         <v>2</v>
       </c>
-      <c r="O30" s="90"/>
+      <c r="O30" s="126"/>
       <c r="P30" s="33"/>
       <c r="Q30" s="33"/>
       <c r="R30" s="33"/>
@@ -8764,10 +8764,10 @@
       <c r="BI30" s="27"/>
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A31" s="91" t="s">
+      <c r="A31" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="91"/>
+      <c r="B31" s="124"/>
       <c r="C31" s="18"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -8831,10 +8831,10 @@
       <c r="BI31" s="27"/>
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="91"/>
+      <c r="B32" s="124"/>
       <c r="C32" s="18"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -8848,10 +8848,10 @@
       <c r="M32" s="33"/>
       <c r="N32" s="33"/>
       <c r="O32" s="33"/>
-      <c r="P32" s="90">
+      <c r="P32" s="126">
         <v>2</v>
       </c>
-      <c r="Q32" s="90"/>
+      <c r="Q32" s="126"/>
       <c r="R32" s="42"/>
       <c r="S32" s="42"/>
       <c r="T32" s="42"/>
@@ -8898,10 +8898,10 @@
       <c r="BI32" s="27"/>
     </row>
     <row r="33" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="91" t="s">
+      <c r="A33" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="91"/>
+      <c r="B33" s="124"/>
       <c r="C33" s="18"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -8915,10 +8915,10 @@
       <c r="M33" s="33"/>
       <c r="N33" s="33"/>
       <c r="O33" s="33"/>
-      <c r="P33" s="90">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="90"/>
+      <c r="P33" s="126">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="126"/>
       <c r="R33" s="42"/>
       <c r="S33" s="42"/>
       <c r="T33" s="42"/>
@@ -8965,10 +8965,10 @@
       <c r="BI33" s="27"/>
     </row>
     <row r="34" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="91" t="s">
+      <c r="A34" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="91"/>
+      <c r="B34" s="124"/>
       <c r="C34" s="18"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -8984,10 +8984,10 @@
       <c r="O34" s="33"/>
       <c r="P34" s="42"/>
       <c r="Q34" s="42"/>
-      <c r="R34" s="90">
-        <v>1</v>
-      </c>
-      <c r="S34" s="90"/>
+      <c r="R34" s="126">
+        <v>1</v>
+      </c>
+      <c r="S34" s="126"/>
       <c r="T34" s="42"/>
       <c r="U34" s="42"/>
       <c r="V34" s="33"/>
@@ -9032,10 +9032,10 @@
       <c r="BI34" s="27"/>
     </row>
     <row r="35" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="91"/>
+      <c r="B35" s="124"/>
       <c r="C35" s="18"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -9051,10 +9051,10 @@
       <c r="O35" s="33"/>
       <c r="P35" s="42"/>
       <c r="Q35" s="42"/>
-      <c r="R35" s="90">
+      <c r="R35" s="126">
         <v>2</v>
       </c>
-      <c r="S35" s="90"/>
+      <c r="S35" s="126"/>
       <c r="T35" s="42"/>
       <c r="U35" s="42"/>
       <c r="V35" s="33"/>
@@ -9099,10 +9099,10 @@
       <c r="BI35" s="27"/>
     </row>
     <row r="36" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="91" t="s">
+      <c r="A36" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="91"/>
+      <c r="B36" s="124"/>
       <c r="C36" s="18"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -9120,10 +9120,10 @@
       <c r="Q36" s="42"/>
       <c r="R36" s="33"/>
       <c r="S36" s="33"/>
-      <c r="T36" s="90">
+      <c r="T36" s="126">
         <v>2</v>
       </c>
-      <c r="U36" s="90"/>
+      <c r="U36" s="126"/>
       <c r="V36" s="33"/>
       <c r="W36" s="33"/>
       <c r="X36" s="33"/>
@@ -9166,10 +9166,10 @@
       <c r="BI36" s="27"/>
     </row>
     <row r="37" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="91" t="s">
+      <c r="A37" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="91"/>
+      <c r="B37" s="124"/>
       <c r="C37" s="18"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -9187,10 +9187,10 @@
       <c r="Q37" s="42"/>
       <c r="R37" s="33"/>
       <c r="S37" s="33"/>
-      <c r="T37" s="90">
+      <c r="T37" s="126">
         <v>2</v>
       </c>
-      <c r="U37" s="90"/>
+      <c r="U37" s="126"/>
       <c r="V37" s="33"/>
       <c r="W37" s="33"/>
       <c r="X37" s="33"/>
@@ -9233,10 +9233,10 @@
       <c r="BI37" s="27"/>
     </row>
     <row r="38" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A38" s="91" t="s">
+      <c r="A38" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="91"/>
+      <c r="B38" s="124"/>
       <c r="C38" s="18"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -9256,10 +9256,10 @@
       <c r="S38" s="33"/>
       <c r="T38" s="33"/>
       <c r="U38" s="33"/>
-      <c r="V38" s="90">
+      <c r="V38" s="126">
         <v>2</v>
       </c>
-      <c r="W38" s="90"/>
+      <c r="W38" s="126"/>
       <c r="X38" s="33"/>
       <c r="Y38" s="33"/>
       <c r="Z38" s="33"/>
@@ -9300,10 +9300,10 @@
       <c r="BI38" s="27"/>
     </row>
     <row r="39" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A39" s="91" t="s">
+      <c r="A39" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="91"/>
+      <c r="B39" s="124"/>
       <c r="C39" s="18"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -9323,10 +9323,10 @@
       <c r="S39" s="33"/>
       <c r="T39" s="33"/>
       <c r="U39" s="33"/>
-      <c r="V39" s="90">
+      <c r="V39" s="126">
         <v>2</v>
       </c>
-      <c r="W39" s="90"/>
+      <c r="W39" s="126"/>
       <c r="X39" s="33"/>
       <c r="Y39" s="33"/>
       <c r="Z39" s="33"/>
@@ -9367,10 +9367,10 @@
       <c r="BI39" s="27"/>
     </row>
     <row r="40" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A40" s="91" t="s">
+      <c r="A40" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="91"/>
+      <c r="B40" s="124"/>
       <c r="C40" s="18"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -9392,10 +9392,10 @@
       <c r="U40" s="33"/>
       <c r="V40" s="33"/>
       <c r="W40" s="33"/>
-      <c r="X40" s="90">
+      <c r="X40" s="126">
         <v>2</v>
       </c>
-      <c r="Y40" s="90"/>
+      <c r="Y40" s="126"/>
       <c r="Z40" s="33"/>
       <c r="AA40" s="33"/>
       <c r="AB40" s="33"/>
@@ -9434,10 +9434,10 @@
       <c r="BI40" s="27"/>
     </row>
     <row r="41" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A41" s="91" t="s">
+      <c r="A41" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="91"/>
+      <c r="B41" s="124"/>
       <c r="C41" s="18"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -9459,10 +9459,10 @@
       <c r="U41" s="33"/>
       <c r="V41" s="33"/>
       <c r="W41" s="33"/>
-      <c r="X41" s="90">
+      <c r="X41" s="126">
         <v>2</v>
       </c>
-      <c r="Y41" s="90"/>
+      <c r="Y41" s="126"/>
       <c r="Z41" s="33"/>
       <c r="AA41" s="33"/>
       <c r="AB41" s="33"/>
@@ -9501,10 +9501,10 @@
       <c r="BI41" s="27"/>
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A42" s="91" t="s">
+      <c r="A42" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="91"/>
+      <c r="B42" s="124"/>
       <c r="C42" s="18"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -9528,10 +9528,10 @@
       <c r="W42" s="33"/>
       <c r="X42" s="33"/>
       <c r="Y42" s="33"/>
-      <c r="Z42" s="90">
+      <c r="Z42" s="126">
         <v>2</v>
       </c>
-      <c r="AA42" s="90"/>
+      <c r="AA42" s="126"/>
       <c r="AB42" s="33"/>
       <c r="AC42" s="33"/>
       <c r="AD42" s="33"/>
@@ -9568,10 +9568,10 @@
       <c r="BI42" s="27"/>
     </row>
     <row r="43" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A43" s="91" t="s">
+      <c r="A43" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="91"/>
+      <c r="B43" s="124"/>
       <c r="C43" s="18"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -9595,10 +9595,10 @@
       <c r="W43" s="33"/>
       <c r="X43" s="33"/>
       <c r="Y43" s="33"/>
-      <c r="Z43" s="90">
+      <c r="Z43" s="126">
         <v>2</v>
       </c>
-      <c r="AA43" s="90"/>
+      <c r="AA43" s="126"/>
       <c r="AB43" s="33"/>
       <c r="AC43" s="33"/>
       <c r="AD43" s="33"/>
@@ -9635,10 +9635,10 @@
       <c r="BI43" s="27"/>
     </row>
     <row r="44" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A44" s="91" t="s">
+      <c r="A44" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="91"/>
+      <c r="B44" s="124"/>
       <c r="C44" s="18"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -9688,14 +9688,14 @@
       <c r="AW44" s="33"/>
       <c r="AX44" s="33"/>
       <c r="AY44" s="33"/>
-      <c r="AZ44" s="90">
+      <c r="AZ44" s="126">
         <v>2</v>
       </c>
-      <c r="BA44" s="90"/>
-      <c r="BB44" s="90">
+      <c r="BA44" s="126"/>
+      <c r="BB44" s="126">
         <v>2</v>
       </c>
-      <c r="BC44" s="90"/>
+      <c r="BC44" s="126"/>
       <c r="BD44" s="33"/>
       <c r="BE44" s="33"/>
       <c r="BF44" s="33"/>
@@ -9704,10 +9704,10 @@
       <c r="BI44" s="27"/>
     </row>
     <row r="45" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A45" s="91" t="s">
+      <c r="A45" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="91"/>
+      <c r="B45" s="124"/>
       <c r="C45" s="18"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -9757,10 +9757,10 @@
       <c r="AW45" s="33"/>
       <c r="AX45" s="33"/>
       <c r="AY45" s="33"/>
-      <c r="AZ45" s="90">
+      <c r="AZ45" s="126">
         <v>2</v>
       </c>
-      <c r="BA45" s="90"/>
+      <c r="BA45" s="126"/>
       <c r="BB45" s="33"/>
       <c r="BC45" s="33"/>
       <c r="BD45" s="33"/>
@@ -9771,10 +9771,10 @@
       <c r="BI45" s="27"/>
     </row>
     <row r="46" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A46" s="91" t="s">
+      <c r="A46" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="91"/>
+      <c r="B46" s="124"/>
       <c r="C46" s="18"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -9826,10 +9826,10 @@
       <c r="AY46" s="33"/>
       <c r="AZ46" s="33"/>
       <c r="BA46" s="33"/>
-      <c r="BB46" s="90">
+      <c r="BB46" s="126">
         <v>2</v>
       </c>
-      <c r="BC46" s="90"/>
+      <c r="BC46" s="126"/>
       <c r="BD46" s="33"/>
       <c r="BE46" s="33"/>
       <c r="BF46" s="33"/>
@@ -9838,10 +9838,10 @@
       <c r="BI46" s="27"/>
     </row>
     <row r="47" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A47" s="91" t="s">
+      <c r="A47" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="91"/>
+      <c r="B47" s="124"/>
       <c r="C47" s="18"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -9895,20 +9895,20 @@
       <c r="BA47" s="33"/>
       <c r="BB47" s="33"/>
       <c r="BC47" s="33"/>
-      <c r="BD47" s="90">
+      <c r="BD47" s="126">
         <v>2</v>
       </c>
-      <c r="BE47" s="90"/>
+      <c r="BE47" s="126"/>
       <c r="BF47" s="33"/>
       <c r="BG47" s="33"/>
       <c r="BH47" s="27"/>
       <c r="BI47" s="27"/>
     </row>
     <row r="48" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A48" s="91" t="s">
+      <c r="A48" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="91"/>
+      <c r="B48" s="124"/>
       <c r="C48" s="18"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -9962,20 +9962,20 @@
       <c r="BA48" s="33"/>
       <c r="BB48" s="33"/>
       <c r="BC48" s="33"/>
-      <c r="BD48" s="90">
+      <c r="BD48" s="126">
         <v>2</v>
       </c>
-      <c r="BE48" s="90"/>
+      <c r="BE48" s="126"/>
       <c r="BF48" s="33"/>
       <c r="BG48" s="33"/>
       <c r="BH48" s="27"/>
       <c r="BI48" s="27"/>
     </row>
     <row r="49" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A49" s="91" t="s">
+      <c r="A49" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="91"/>
+      <c r="B49" s="124"/>
       <c r="C49" s="18"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -10031,18 +10031,18 @@
       <c r="BC49" s="33"/>
       <c r="BD49" s="33"/>
       <c r="BE49" s="33"/>
-      <c r="BF49" s="90">
+      <c r="BF49" s="126">
         <v>2</v>
       </c>
-      <c r="BG49" s="90"/>
+      <c r="BG49" s="126"/>
       <c r="BH49" s="27"/>
       <c r="BI49" s="27"/>
     </row>
     <row r="50" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A50" s="91" t="s">
+      <c r="A50" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="91"/>
+      <c r="B50" s="124"/>
       <c r="C50" s="18"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -10098,18 +10098,18 @@
       <c r="BC50" s="33"/>
       <c r="BD50" s="33"/>
       <c r="BE50" s="33"/>
-      <c r="BF50" s="90">
+      <c r="BF50" s="126">
         <v>2</v>
       </c>
-      <c r="BG50" s="90"/>
+      <c r="BG50" s="126"/>
       <c r="BH50" s="27"/>
       <c r="BI50" s="27"/>
     </row>
     <row r="51" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A51" s="91" t="s">
+      <c r="A51" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="91"/>
+      <c r="B51" s="124"/>
       <c r="C51" s="18"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -10137,42 +10137,42 @@
       <c r="AA51" s="33"/>
       <c r="AB51" s="33"/>
       <c r="AC51" s="33"/>
-      <c r="AD51" s="90">
-        <v>1</v>
-      </c>
-      <c r="AE51" s="90"/>
-      <c r="AF51" s="90">
-        <v>1</v>
-      </c>
-      <c r="AG51" s="90"/>
-      <c r="AH51" s="90">
-        <v>1</v>
-      </c>
-      <c r="AI51" s="90"/>
-      <c r="AJ51" s="90">
-        <v>1</v>
-      </c>
-      <c r="AK51" s="90"/>
-      <c r="AL51" s="90">
-        <v>1</v>
-      </c>
-      <c r="AM51" s="90"/>
-      <c r="AN51" s="90">
-        <v>1</v>
-      </c>
-      <c r="AO51" s="90"/>
-      <c r="AP51" s="90">
-        <v>1</v>
-      </c>
-      <c r="AQ51" s="90"/>
-      <c r="AR51" s="90">
-        <v>1</v>
-      </c>
-      <c r="AS51" s="90"/>
-      <c r="AT51" s="90">
-        <v>1</v>
-      </c>
-      <c r="AU51" s="90"/>
+      <c r="AD51" s="126">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="126"/>
+      <c r="AF51" s="126">
+        <v>1</v>
+      </c>
+      <c r="AG51" s="126"/>
+      <c r="AH51" s="126">
+        <v>1</v>
+      </c>
+      <c r="AI51" s="126"/>
+      <c r="AJ51" s="126">
+        <v>1</v>
+      </c>
+      <c r="AK51" s="126"/>
+      <c r="AL51" s="126">
+        <v>1</v>
+      </c>
+      <c r="AM51" s="126"/>
+      <c r="AN51" s="126">
+        <v>1</v>
+      </c>
+      <c r="AO51" s="126"/>
+      <c r="AP51" s="126">
+        <v>1</v>
+      </c>
+      <c r="AQ51" s="126"/>
+      <c r="AR51" s="126">
+        <v>1</v>
+      </c>
+      <c r="AS51" s="126"/>
+      <c r="AT51" s="126">
+        <v>1</v>
+      </c>
+      <c r="AU51" s="126"/>
       <c r="AV51" s="33"/>
       <c r="AW51" s="33"/>
       <c r="AX51" s="33"/>
@@ -10189,10 +10189,10 @@
       <c r="BI51" s="27"/>
     </row>
     <row r="52" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A52" s="91" t="s">
+      <c r="A52" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="91"/>
+      <c r="B52" s="124"/>
       <c r="C52" s="18"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -10226,10 +10226,10 @@
       <c r="AG52" s="33"/>
       <c r="AH52" s="33"/>
       <c r="AI52" s="33"/>
-      <c r="AJ52" s="90">
-        <v>1</v>
-      </c>
-      <c r="AK52" s="90"/>
+      <c r="AJ52" s="126">
+        <v>1</v>
+      </c>
+      <c r="AK52" s="126"/>
       <c r="AL52" s="33"/>
       <c r="AM52" s="33"/>
       <c r="AN52" s="33"/>
@@ -10256,10 +10256,10 @@
       <c r="BI52" s="27"/>
     </row>
     <row r="53" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A53" s="91" t="s">
+      <c r="A53" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="91"/>
+      <c r="B53" s="124"/>
       <c r="C53" s="18"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -10285,10 +10285,10 @@
       <c r="Y53" s="33"/>
       <c r="Z53" s="33"/>
       <c r="AA53" s="33"/>
-      <c r="AB53" s="90">
+      <c r="AB53" s="126">
         <v>2</v>
       </c>
-      <c r="AC53" s="90"/>
+      <c r="AC53" s="126"/>
       <c r="AD53" s="33"/>
       <c r="AE53" s="33"/>
       <c r="AF53" s="33"/>
@@ -10323,10 +10323,10 @@
       <c r="BI53" s="27"/>
     </row>
     <row r="54" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A54" s="91" t="s">
+      <c r="A54" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="91"/>
+      <c r="B54" s="124"/>
       <c r="C54" s="18"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -10352,10 +10352,10 @@
       <c r="Y54" s="33"/>
       <c r="Z54" s="33"/>
       <c r="AA54" s="33"/>
-      <c r="AB54" s="90">
-        <v>1</v>
-      </c>
-      <c r="AC54" s="90"/>
+      <c r="AB54" s="126">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="126"/>
       <c r="AD54" s="33"/>
       <c r="AE54" s="33"/>
       <c r="AF54" s="33"/>
@@ -10390,10 +10390,10 @@
       <c r="BI54" s="27"/>
     </row>
     <row r="55" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A55" s="91" t="s">
+      <c r="A55" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="91"/>
+      <c r="B55" s="124"/>
       <c r="C55" s="18"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -10419,10 +10419,10 @@
       <c r="Y55" s="33"/>
       <c r="Z55" s="33"/>
       <c r="AA55" s="33"/>
-      <c r="AB55" s="90">
-        <v>1</v>
-      </c>
-      <c r="AC55" s="90"/>
+      <c r="AB55" s="126">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="126"/>
       <c r="AD55" s="33"/>
       <c r="AE55" s="33"/>
       <c r="AF55" s="33"/>
@@ -10457,10 +10457,10 @@
       <c r="BI55" s="27"/>
     </row>
     <row r="56" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A56" s="91" t="s">
+      <c r="A56" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="91"/>
+      <c r="B56" s="124"/>
       <c r="C56" s="18"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -10484,10 +10484,10 @@
       <c r="W56" s="33"/>
       <c r="X56" s="33"/>
       <c r="Y56" s="33"/>
-      <c r="Z56" s="90">
+      <c r="Z56" s="126">
         <v>2</v>
       </c>
-      <c r="AA56" s="90"/>
+      <c r="AA56" s="126"/>
       <c r="AB56" s="33"/>
       <c r="AC56" s="33"/>
       <c r="AD56" s="33"/>
@@ -10524,10 +10524,10 @@
       <c r="BI56" s="27"/>
     </row>
     <row r="57" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="91" t="s">
+      <c r="A57" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="91"/>
+      <c r="B57" s="124"/>
       <c r="C57" s="18"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -10551,10 +10551,10 @@
       <c r="W57" s="33"/>
       <c r="X57" s="33"/>
       <c r="Y57" s="33"/>
-      <c r="Z57" s="90">
+      <c r="Z57" s="126">
         <v>2</v>
       </c>
-      <c r="AA57" s="90"/>
+      <c r="AA57" s="126"/>
       <c r="AB57" s="33"/>
       <c r="AC57" s="33"/>
       <c r="AD57" s="33"/>
@@ -10591,10 +10591,10 @@
       <c r="BI57" s="27"/>
     </row>
     <row r="58" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A58" s="91" t="s">
+      <c r="A58" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="91"/>
+      <c r="B58" s="124"/>
       <c r="C58" s="18"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -10622,10 +10622,10 @@
       <c r="AA58" s="33"/>
       <c r="AB58" s="33"/>
       <c r="AC58" s="33"/>
-      <c r="AD58" s="90">
-        <v>1</v>
-      </c>
-      <c r="AE58" s="90"/>
+      <c r="AD58" s="126">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="126"/>
       <c r="AF58" s="33"/>
       <c r="AG58" s="33"/>
       <c r="AH58" s="33"/>
@@ -10658,10 +10658,10 @@
       <c r="BI58" s="27"/>
     </row>
     <row r="59" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A59" s="91" t="s">
+      <c r="A59" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="91"/>
+      <c r="B59" s="124"/>
       <c r="C59" s="18"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -10691,10 +10691,10 @@
       <c r="AC59" s="33"/>
       <c r="AD59" s="33"/>
       <c r="AE59" s="33"/>
-      <c r="AF59" s="90">
-        <v>1</v>
-      </c>
-      <c r="AG59" s="90"/>
+      <c r="AF59" s="126">
+        <v>1</v>
+      </c>
+      <c r="AG59" s="126"/>
       <c r="AH59" s="33"/>
       <c r="AI59" s="33"/>
       <c r="AJ59" s="33"/>
@@ -10725,10 +10725,10 @@
       <c r="BI59" s="27"/>
     </row>
     <row r="60" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A60" s="91" t="s">
+      <c r="A60" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="91"/>
+      <c r="B60" s="124"/>
       <c r="C60" s="18"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -10760,10 +10760,10 @@
       <c r="AE60" s="33"/>
       <c r="AF60" s="33"/>
       <c r="AG60" s="33"/>
-      <c r="AH60" s="90">
-        <v>1</v>
-      </c>
-      <c r="AI60" s="90"/>
+      <c r="AH60" s="126">
+        <v>1</v>
+      </c>
+      <c r="AI60" s="126"/>
       <c r="AJ60" s="33"/>
       <c r="AK60" s="33"/>
       <c r="AL60" s="33"/>
@@ -10792,10 +10792,10 @@
       <c r="BI60" s="27"/>
     </row>
     <row r="61" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A61" s="91" t="s">
+      <c r="A61" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="91"/>
+      <c r="B61" s="124"/>
       <c r="C61" s="18"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -10831,10 +10831,10 @@
       <c r="AI61" s="33"/>
       <c r="AJ61" s="33"/>
       <c r="AK61" s="33"/>
-      <c r="AL61" s="90">
-        <v>1</v>
-      </c>
-      <c r="AM61" s="90"/>
+      <c r="AL61" s="126">
+        <v>1</v>
+      </c>
+      <c r="AM61" s="126"/>
       <c r="AN61" s="33"/>
       <c r="AO61" s="33"/>
       <c r="AP61" s="33"/>
@@ -10859,10 +10859,10 @@
       <c r="BI61" s="27"/>
     </row>
     <row r="62" spans="1:61" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="91" t="s">
+      <c r="A62" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="B62" s="91"/>
+      <c r="B62" s="124"/>
       <c r="C62" s="18"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -10898,10 +10898,10 @@
       <c r="AI62" s="33"/>
       <c r="AJ62" s="33"/>
       <c r="AK62" s="33"/>
-      <c r="AL62" s="90">
-        <v>1</v>
-      </c>
-      <c r="AM62" s="90"/>
+      <c r="AL62" s="126">
+        <v>1</v>
+      </c>
+      <c r="AM62" s="126"/>
       <c r="AN62" s="33"/>
       <c r="AO62" s="33"/>
       <c r="AP62" s="33"/>
@@ -10926,10 +10926,10 @@
       <c r="BI62" s="27"/>
     </row>
     <row r="63" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A63" s="91" t="s">
+      <c r="A63" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="91"/>
+      <c r="B63" s="124"/>
       <c r="C63" s="18"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -10967,10 +10967,10 @@
       <c r="AK63" s="35"/>
       <c r="AL63" s="35"/>
       <c r="AM63" s="35"/>
-      <c r="AN63" s="90">
-        <v>1</v>
-      </c>
-      <c r="AO63" s="90"/>
+      <c r="AN63" s="126">
+        <v>1</v>
+      </c>
+      <c r="AO63" s="126"/>
       <c r="AP63" s="33"/>
       <c r="AQ63" s="33"/>
       <c r="AR63" s="33"/>
@@ -10993,10 +10993,10 @@
       <c r="BI63" s="27"/>
     </row>
     <row r="64" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A64" s="91" t="s">
+      <c r="A64" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="91"/>
+      <c r="B64" s="124"/>
       <c r="C64" s="18"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -11034,10 +11034,10 @@
       <c r="AK64" s="35"/>
       <c r="AL64" s="35"/>
       <c r="AM64" s="35"/>
-      <c r="AN64" s="90">
-        <v>1</v>
-      </c>
-      <c r="AO64" s="90"/>
+      <c r="AN64" s="126">
+        <v>1</v>
+      </c>
+      <c r="AO64" s="126"/>
       <c r="AP64" s="33"/>
       <c r="AQ64" s="33"/>
       <c r="AR64" s="33"/>
@@ -11060,10 +11060,10 @@
       <c r="BI64" s="27"/>
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A65" s="91" t="s">
+      <c r="A65" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="91"/>
+      <c r="B65" s="124"/>
       <c r="C65" s="18"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -11103,10 +11103,10 @@
       <c r="AM65" s="35"/>
       <c r="AN65" s="33"/>
       <c r="AO65" s="33"/>
-      <c r="AP65" s="90">
-        <v>1</v>
-      </c>
-      <c r="AQ65" s="90"/>
+      <c r="AP65" s="126">
+        <v>1</v>
+      </c>
+      <c r="AQ65" s="126"/>
       <c r="AR65" s="33"/>
       <c r="AS65" s="33"/>
       <c r="AT65" s="33"/>
@@ -11127,10 +11127,10 @@
       <c r="BI65" s="27"/>
     </row>
     <row r="66" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A66" s="91" t="s">
+      <c r="A66" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="91"/>
+      <c r="B66" s="124"/>
       <c r="C66" s="18"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -11170,10 +11170,10 @@
       <c r="AM66" s="35"/>
       <c r="AN66" s="33"/>
       <c r="AO66" s="33"/>
-      <c r="AP66" s="90">
-        <v>1</v>
-      </c>
-      <c r="AQ66" s="90"/>
+      <c r="AP66" s="126">
+        <v>1</v>
+      </c>
+      <c r="AQ66" s="126"/>
       <c r="AR66" s="33"/>
       <c r="AS66" s="33"/>
       <c r="AT66" s="33"/>
@@ -11194,10 +11194,10 @@
       <c r="BI66" s="27"/>
     </row>
     <row r="67" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A67" s="91" t="s">
+      <c r="A67" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="91"/>
+      <c r="B67" s="124"/>
       <c r="C67" s="18"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -11241,10 +11241,10 @@
       <c r="AQ67" s="33"/>
       <c r="AR67" s="33"/>
       <c r="AS67" s="33"/>
-      <c r="AT67" s="90">
+      <c r="AT67" s="126">
         <v>3</v>
       </c>
-      <c r="AU67" s="90"/>
+      <c r="AU67" s="126"/>
       <c r="AV67" s="33"/>
       <c r="AW67" s="33"/>
       <c r="AX67" s="33"/>
@@ -11261,10 +11261,10 @@
       <c r="BI67" s="27"/>
     </row>
     <row r="68" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A68" s="91" t="s">
+      <c r="A68" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="91"/>
+      <c r="B68" s="124"/>
       <c r="C68" s="18"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -11308,10 +11308,10 @@
       <c r="AQ68" s="33"/>
       <c r="AR68" s="33"/>
       <c r="AS68" s="33"/>
-      <c r="AT68" s="90">
+      <c r="AT68" s="126">
         <v>2</v>
       </c>
-      <c r="AU68" s="90"/>
+      <c r="AU68" s="126"/>
       <c r="AV68" s="33"/>
       <c r="AW68" s="33"/>
       <c r="AX68" s="33"/>
@@ -11328,10 +11328,10 @@
       <c r="BI68" s="27"/>
     </row>
     <row r="69" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A69" s="91" t="s">
+      <c r="A69" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="91"/>
+      <c r="B69" s="124"/>
       <c r="C69" s="18"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -11379,10 +11379,10 @@
       <c r="AU69" s="33"/>
       <c r="AV69" s="33"/>
       <c r="AW69" s="33"/>
-      <c r="AX69" s="90">
+      <c r="AX69" s="126">
         <v>2</v>
       </c>
-      <c r="AY69" s="90"/>
+      <c r="AY69" s="126"/>
       <c r="AZ69" s="33"/>
       <c r="BA69" s="33"/>
       <c r="BB69" s="33"/>
@@ -11395,10 +11395,10 @@
       <c r="BI69" s="27"/>
     </row>
     <row r="70" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A70" s="91" t="s">
+      <c r="A70" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="B70" s="91"/>
+      <c r="B70" s="124"/>
       <c r="C70" s="18"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -11446,10 +11446,10 @@
       <c r="AU70" s="33"/>
       <c r="AV70" s="33"/>
       <c r="AW70" s="33"/>
-      <c r="AX70" s="90">
+      <c r="AX70" s="126">
         <v>2</v>
       </c>
-      <c r="AY70" s="90"/>
+      <c r="AY70" s="126"/>
       <c r="AZ70" s="33"/>
       <c r="BA70" s="33"/>
       <c r="BB70" s="33"/>
@@ -11462,10 +11462,10 @@
       <c r="BI70" s="27"/>
     </row>
     <row r="71" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A71" s="91" t="s">
+      <c r="A71" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="91"/>
+      <c r="B71" s="124"/>
       <c r="C71" s="18"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -11513,10 +11513,10 @@
       <c r="AU71" s="33"/>
       <c r="AV71" s="33"/>
       <c r="AW71" s="33"/>
-      <c r="AX71" s="90">
+      <c r="AX71" s="126">
         <v>2</v>
       </c>
-      <c r="AY71" s="90"/>
+      <c r="AY71" s="126"/>
       <c r="AZ71" s="33"/>
       <c r="BA71" s="33"/>
       <c r="BB71" s="33"/>
@@ -11529,10 +11529,10 @@
       <c r="BI71" s="27"/>
     </row>
     <row r="72" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A72" s="91" t="s">
+      <c r="A72" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="B72" s="91"/>
+      <c r="B72" s="124"/>
       <c r="C72" s="18"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -11580,10 +11580,10 @@
       <c r="AU72" s="33"/>
       <c r="AV72" s="33"/>
       <c r="AW72" s="33"/>
-      <c r="AX72" s="90">
+      <c r="AX72" s="126">
         <v>2</v>
       </c>
-      <c r="AY72" s="90"/>
+      <c r="AY72" s="126"/>
       <c r="AZ72" s="33"/>
       <c r="BA72" s="33"/>
       <c r="BB72" s="33"/>
@@ -11596,10 +11596,10 @@
       <c r="BI72" s="27"/>
     </row>
     <row r="73" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="91" t="s">
+      <c r="A73" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="91"/>
+      <c r="B73" s="124"/>
       <c r="C73" s="18"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -11645,10 +11645,10 @@
       <c r="AS73" s="33"/>
       <c r="AT73" s="33"/>
       <c r="AU73" s="33"/>
-      <c r="AV73" s="90" t="s">
-        <v>167</v>
-      </c>
-      <c r="AW73" s="90"/>
+      <c r="AV73" s="126" t="s">
+        <v>166</v>
+      </c>
+      <c r="AW73" s="126"/>
       <c r="AX73" s="33"/>
       <c r="AY73" s="33"/>
       <c r="AZ73" s="33"/>
@@ -11663,10 +11663,10 @@
       <c r="BI73" s="27"/>
     </row>
     <row r="74" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A74" s="91" t="s">
+      <c r="A74" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="B74" s="91"/>
+      <c r="B74" s="124"/>
       <c r="C74" s="18"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -11712,8 +11712,8 @@
       <c r="AS74" s="33"/>
       <c r="AT74" s="33"/>
       <c r="AU74" s="33"/>
-      <c r="AV74" s="90"/>
-      <c r="AW74" s="90"/>
+      <c r="AV74" s="126"/>
+      <c r="AW74" s="126"/>
       <c r="AX74" s="33"/>
       <c r="AY74" s="33"/>
       <c r="AZ74" s="33"/>
@@ -11728,10 +11728,10 @@
       <c r="BI74" s="27"/>
     </row>
     <row r="75" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A75" s="91" t="s">
+      <c r="A75" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="B75" s="91"/>
+      <c r="B75" s="124"/>
       <c r="C75" s="18"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -11777,8 +11777,8 @@
       <c r="AS75" s="33"/>
       <c r="AT75" s="33"/>
       <c r="AU75" s="33"/>
-      <c r="AV75" s="90"/>
-      <c r="AW75" s="90"/>
+      <c r="AV75" s="126"/>
+      <c r="AW75" s="126"/>
       <c r="AX75" s="33"/>
       <c r="AY75" s="33"/>
       <c r="AZ75" s="33"/>
@@ -11793,10 +11793,10 @@
       <c r="BI75" s="27"/>
     </row>
     <row r="76" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="B76" s="91"/>
+      <c r="A76" s="124" t="s">
+        <v>172</v>
+      </c>
+      <c r="B76" s="124"/>
       <c r="C76" s="18"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -11842,8 +11842,8 @@
       <c r="AS76" s="33"/>
       <c r="AT76" s="33"/>
       <c r="AU76" s="33"/>
-      <c r="AV76" s="90"/>
-      <c r="AW76" s="90"/>
+      <c r="AV76" s="126"/>
+      <c r="AW76" s="126"/>
       <c r="AX76" s="33"/>
       <c r="AY76" s="33"/>
       <c r="AZ76" s="33"/>
@@ -11858,10 +11858,10 @@
       <c r="BI76" s="27"/>
     </row>
     <row r="77" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A77" s="91" t="s">
-        <v>168</v>
-      </c>
-      <c r="B77" s="91"/>
+      <c r="A77" s="124" t="s">
+        <v>167</v>
+      </c>
+      <c r="B77" s="124"/>
       <c r="C77" s="18"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -11907,8 +11907,8 @@
       <c r="AS77" s="33"/>
       <c r="AT77" s="33"/>
       <c r="AU77" s="33"/>
-      <c r="AV77" s="90"/>
-      <c r="AW77" s="90"/>
+      <c r="AV77" s="126"/>
+      <c r="AW77" s="126"/>
       <c r="AX77" s="33"/>
       <c r="AY77" s="33"/>
       <c r="AZ77" s="33"/>
@@ -11923,10 +11923,10 @@
       <c r="BI77" s="27"/>
     </row>
     <row r="78" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="B78" s="91"/>
+      <c r="A78" s="124" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" s="124"/>
       <c r="C78" s="18"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -11972,8 +11972,8 @@
       <c r="AS78" s="33"/>
       <c r="AT78" s="33"/>
       <c r="AU78" s="33"/>
-      <c r="AV78" s="90"/>
-      <c r="AW78" s="90"/>
+      <c r="AV78" s="126"/>
+      <c r="AW78" s="126"/>
       <c r="AX78" s="33"/>
       <c r="AY78" s="33"/>
       <c r="AZ78" s="33"/>
@@ -12052,7 +12052,7 @@
     </row>
     <row r="80" spans="1:61" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -12116,13 +12116,13 @@
       <c r="BI80" s="27"/>
     </row>
     <row r="81" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="106" t="s">
-        <v>171</v>
-      </c>
-      <c r="B81" s="107" t="s">
-        <v>162</v>
-      </c>
-      <c r="C81" s="108"/>
+      <c r="A81" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81" s="92" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="93"/>
       <c r="D81" s="44"/>
       <c r="E81" s="44"/>
       <c r="F81" s="44"/>
@@ -12183,16 +12183,16 @@
       <c r="BI81" s="27"/>
     </row>
     <row r="82" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A82" s="110" t="s">
+      <c r="A82" s="118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="B82" s="102" t="s">
+      <c r="C82" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="C82" s="96" t="s">
-        <v>121</v>
-      </c>
-      <c r="D82" s="105"/>
+      <c r="D82" s="90"/>
       <c r="E82" s="44"/>
       <c r="F82" s="44"/>
       <c r="G82" s="44"/>
@@ -12252,14 +12252,14 @@
       <c r="BI82" s="27"/>
     </row>
     <row r="83" spans="1:61" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="111"/>
-      <c r="B83" s="104">
+      <c r="A83" s="121"/>
+      <c r="B83" s="89">
         <v>2170</v>
       </c>
-      <c r="C83" s="97">
+      <c r="C83" s="84">
         <v>2590</v>
       </c>
-      <c r="D83" s="105"/>
+      <c r="D83" s="90"/>
       <c r="E83" s="44"/>
       <c r="F83" s="44"/>
       <c r="G83" s="44"/>
@@ -12319,16 +12319,16 @@
       <c r="BI83" s="27"/>
     </row>
     <row r="84" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A84" s="109" t="s">
-        <v>118</v>
+      <c r="A84" s="120" t="s">
+        <v>117</v>
       </c>
       <c r="B84" s="72">
         <v>10</v>
       </c>
-      <c r="C84" s="98">
+      <c r="C84" s="85">
         <v>11</v>
       </c>
-      <c r="D84" s="94"/>
+      <c r="D84" s="81"/>
       <c r="E84" s="44"/>
       <c r="F84" s="44"/>
       <c r="G84" s="44"/>
@@ -12388,14 +12388,14 @@
       <c r="BI84" s="27"/>
     </row>
     <row r="85" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A85" s="103"/>
-      <c r="B85" s="104">
+      <c r="A85" s="114"/>
+      <c r="B85" s="89">
         <v>34</v>
       </c>
-      <c r="C85" s="97">
+      <c r="C85" s="84">
         <v>34</v>
       </c>
-      <c r="D85" s="95"/>
+      <c r="D85" s="82"/>
       <c r="E85" s="44"/>
       <c r="F85" s="44"/>
       <c r="G85" s="44"/>
@@ -12455,16 +12455,16 @@
       <c r="BI85" s="27"/>
     </row>
     <row r="86" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A86" s="101" t="s">
-        <v>172</v>
-      </c>
-      <c r="B86" s="102">
+      <c r="A86" s="113" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" s="88">
         <v>10</v>
       </c>
-      <c r="C86" s="96">
+      <c r="C86" s="83">
         <v>11</v>
       </c>
-      <c r="D86" s="94"/>
+      <c r="D86" s="81"/>
       <c r="E86" s="44"/>
       <c r="F86" s="44"/>
       <c r="G86" s="44"/>
@@ -12524,14 +12524,14 @@
       <c r="BI86" s="27"/>
     </row>
     <row r="87" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A87" s="103"/>
-      <c r="B87" s="104">
+      <c r="A87" s="114"/>
+      <c r="B87" s="89">
         <v>34</v>
       </c>
-      <c r="C87" s="97">
+      <c r="C87" s="84">
         <v>33</v>
       </c>
-      <c r="D87" s="95"/>
+      <c r="D87" s="82"/>
       <c r="E87" s="44"/>
       <c r="F87" s="44"/>
       <c r="G87" s="44"/>
@@ -12592,12 +12592,12 @@
     </row>
     <row r="88" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A88" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="B88" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="B88" s="99" t="s">
-        <v>165</v>
-      </c>
-      <c r="C88" s="100"/>
+      <c r="C88" s="87"/>
       <c r="D88" s="27"/>
       <c r="E88" s="44"/>
       <c r="F88" s="44"/>
@@ -12722,7 +12722,7 @@
     </row>
     <row r="90" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A90" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -12787,7 +12787,7 @@
     </row>
     <row r="91" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A91" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -12852,7 +12852,7 @@
     </row>
     <row r="92" spans="1:61" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -12917,7 +12917,7 @@
     </row>
     <row r="93" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A93" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
@@ -12982,6 +12982,139 @@
     </row>
   </sheetData>
   <mergeCells count="157">
+    <mergeCell ref="P12:Q13"/>
+    <mergeCell ref="R12:S13"/>
+    <mergeCell ref="AV12:AW13"/>
+    <mergeCell ref="T12:U13"/>
+    <mergeCell ref="V12:W13"/>
+    <mergeCell ref="X12:Y13"/>
+    <mergeCell ref="Z12:AA13"/>
+    <mergeCell ref="BD12:BE13"/>
+    <mergeCell ref="BF12:BG13"/>
+    <mergeCell ref="AL12:AM13"/>
+    <mergeCell ref="AP12:AQ13"/>
+    <mergeCell ref="AR12:AS13"/>
+    <mergeCell ref="AT12:AU13"/>
+    <mergeCell ref="AB12:AC13"/>
+    <mergeCell ref="AD12:AE13"/>
+    <mergeCell ref="AF12:AG13"/>
+    <mergeCell ref="AH12:AI13"/>
+    <mergeCell ref="AJ12:AK13"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="AX1:AY1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AX12:AY13"/>
+    <mergeCell ref="BB12:BC13"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="J12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="BD47:BE47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="BD48:BE48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="BF49:BG49"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="AZ44:BA44"/>
+    <mergeCell ref="BB44:BC44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="AZ45:BA45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="BB46:BC46"/>
+    <mergeCell ref="BF50:BG50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="AD51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="AH51:AI51"/>
+    <mergeCell ref="AJ51:AK51"/>
+    <mergeCell ref="AL51:AM51"/>
+    <mergeCell ref="AN51:AO51"/>
+    <mergeCell ref="AP51:AQ51"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="AB55:AC55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="AR51:AS51"/>
+    <mergeCell ref="AT51:AU51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="AJ52:AK52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="AP65:AQ65"/>
+    <mergeCell ref="AH60:AI60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="AL61:AM61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="AL62:AM62"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="AD58:AE58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="AF59:AG59"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="AX72:AY72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="AV73:AW78"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="AX69:AY69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="AX70:AY70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="AX71:AY71"/>
+    <mergeCell ref="AP66:AQ66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="AT67:AU67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="AT68:AU68"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="AN63:AO63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="AN64:AO64"/>
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="A82:A83"/>
     <mergeCell ref="A86:A87"/>
@@ -13006,139 +13139,6 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="AX72:AY72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="AV73:AW78"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="AX69:AY69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="AX70:AY70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="AX71:AY71"/>
-    <mergeCell ref="AP66:AQ66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="AT67:AU67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="AT68:AU68"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="AN63:AO63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="AN64:AO64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="AP65:AQ65"/>
-    <mergeCell ref="AH60:AI60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="AL61:AM61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="AL62:AM62"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="AD58:AE58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="AF59:AG59"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="AB55:AC55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="AR51:AS51"/>
-    <mergeCell ref="AT51:AU51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="AJ52:AK52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="BF50:BG50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="AD51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="AH51:AI51"/>
-    <mergeCell ref="AJ51:AK51"/>
-    <mergeCell ref="AL51:AM51"/>
-    <mergeCell ref="AN51:AO51"/>
-    <mergeCell ref="AP51:AQ51"/>
-    <mergeCell ref="BD47:BE47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="BD48:BE48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="BF49:BG49"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="AZ44:BA44"/>
-    <mergeCell ref="BB44:BC44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="AZ45:BA45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="BB46:BC46"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="Z42:AA42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="AZ1:BA1"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="AX1:AY1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AX12:AY13"/>
-    <mergeCell ref="BB12:BC13"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="J12:K13"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="P12:Q13"/>
-    <mergeCell ref="R12:S13"/>
-    <mergeCell ref="AV12:AW13"/>
-    <mergeCell ref="T12:U13"/>
-    <mergeCell ref="V12:W13"/>
-    <mergeCell ref="X12:Y13"/>
-    <mergeCell ref="Z12:AA13"/>
-    <mergeCell ref="BD12:BE13"/>
-    <mergeCell ref="BF12:BG13"/>
-    <mergeCell ref="AL12:AM13"/>
-    <mergeCell ref="AP12:AQ13"/>
-    <mergeCell ref="AR12:AS13"/>
-    <mergeCell ref="AT12:AU13"/>
-    <mergeCell ref="AB12:AC13"/>
-    <mergeCell ref="AD12:AE13"/>
-    <mergeCell ref="AF12:AG13"/>
-    <mergeCell ref="AH12:AI13"/>
-    <mergeCell ref="AJ12:AK13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/extraResources/2022.xlsx
+++ b/src/extraResources/2022.xlsx
@@ -275,9 +275,6 @@
     <t>Основы технологий искусственного интеллекта</t>
   </si>
   <si>
-    <t>Создание цыфровых двойников</t>
-  </si>
-  <si>
     <t>Программирование микроконтроллеров</t>
   </si>
   <si>
@@ -546,6 +543,9 @@
   </si>
   <si>
     <t>Информационная безопасность</t>
+  </si>
+  <si>
+    <t>Создание цифровых двойников</t>
   </si>
 </sst>
 </file>
@@ -1096,10 +1096,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1111,27 +1111,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1142,6 +1121,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1445,7 +1445,7 @@
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D1" s="53"/>
       <c r="E1" s="53"/>
@@ -1465,16 +1465,16 @@
         <v>5</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
@@ -1524,13 +1524,13 @@
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" s="110" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -1542,10 +1542,10 @@
     <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="110"/>
       <c r="B7" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -1556,13 +1556,13 @@
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A8" s="110" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -1574,10 +1574,10 @@
     <row r="9" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="110"/>
       <c r="B9" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -1588,13 +1588,13 @@
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -1611,7 +1611,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -1622,13 +1622,13 @@
     </row>
     <row r="12" spans="1:64" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -1639,13 +1639,13 @@
     </row>
     <row r="13" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="110" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1657,7 +1657,7 @@
     <row r="14" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="110"/>
       <c r="B14" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -1670,7 +1670,7 @@
     <row r="15" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="110"/>
       <c r="B15" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -1683,7 +1683,7 @@
     <row r="16" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="110"/>
       <c r="B16" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -1751,7 +1751,7 @@
     <row r="17" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="110"/>
       <c r="B17" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
@@ -1819,7 +1819,7 @@
     <row r="18" spans="1:64" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="110"/>
       <c r="B18" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
@@ -1887,7 +1887,7 @@
     <row r="19" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="110"/>
       <c r="B19" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
@@ -1954,13 +1954,13 @@
     </row>
     <row r="20" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="110" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>105</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -2027,10 +2027,10 @@
     <row r="21" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A21" s="110"/>
       <c r="B21" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="22" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -2174,7 +2174,7 @@
         <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -2440,7 +2440,7 @@
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B27" s="44"/>
       <c r="C27" s="11"/>
@@ -2508,10 +2508,10 @@
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A28" s="91" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" s="94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C28" s="99"/>
       <c r="D28" s="44"/>
@@ -2578,13 +2578,13 @@
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A29" s="111" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="102" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="102" t="s">
+      <c r="C29" s="103" t="s">
         <v>119</v>
-      </c>
-      <c r="C29" s="103" t="s">
-        <v>120</v>
       </c>
       <c r="D29" s="98"/>
       <c r="E29" s="76"/>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A31" s="113" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31" s="104">
         <v>1</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="33" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A33" s="113" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B33" s="104">
         <v>1</v>
@@ -3020,10 +3020,10 @@
     </row>
     <row r="35" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A35" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="86" t="s">
         <v>163</v>
-      </c>
-      <c r="B35" s="86" t="s">
-        <v>164</v>
       </c>
       <c r="C35" s="87"/>
       <c r="D35" s="97"/>
@@ -3156,7 +3156,7 @@
     </row>
     <row r="37" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B37" s="77"/>
       <c r="C37" s="44"/>
@@ -3224,7 +3224,7 @@
     </row>
     <row r="38" spans="1:64" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B38" s="44"/>
       <c r="C38" s="44"/>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="39" spans="1:64" s="69" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B39" s="44"/>
       <c r="C39" s="44"/>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="40" spans="1:64" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40" s="44"/>
       <c r="C40" s="44"/>
@@ -3537,7 +3537,7 @@
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D1" s="53"/>
       <c r="E1" s="53"/>
@@ -3576,73 +3576,73 @@
         <v>5</v>
       </c>
       <c r="D2" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="L2" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="M2" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="N2" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>156</v>
-      </c>
       <c r="O2" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="S2" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="T2" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="R2" s="28" t="s">
+      <c r="U2" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="V2" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="T2" s="28" t="s">
+      <c r="W2" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="U2" s="28" t="s">
+      <c r="X2" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="V2" s="28" t="s">
+      <c r="Y2" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="W2" s="28" t="s">
+      <c r="Z2" s="28" t="s">
         <v>94</v>
-      </c>
-      <c r="X2" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y2" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z2" s="28" t="s">
-        <v>95</v>
       </c>
       <c r="AA2" s="44"/>
       <c r="AB2" s="44"/>
@@ -3793,7 +3793,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -3833,7 +3833,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -3869,7 +3869,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -3903,7 +3903,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -3939,7 +3939,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -3979,7 +3979,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -4021,7 +4021,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -4050,13 +4050,13 @@
       <c r="V12" s="45"/>
       <c r="W12" s="45"/>
       <c r="X12" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y12" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z12" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA12" s="44"/>
       <c r="AB12" s="44"/>
@@ -4067,7 +4067,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -4103,13 +4103,13 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -4143,7 +4143,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -4177,7 +4177,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -4207,13 +4207,13 @@
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A17" s="110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -4244,10 +4244,10 @@
     <row r="18" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A18" s="110"/>
       <c r="B18" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -4287,7 +4287,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -4323,13 +4323,13 @@
     </row>
     <row r="20" spans="1:64" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -4359,13 +4359,13 @@
     </row>
     <row r="21" spans="1:64" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="110" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -4396,10 +4396,10 @@
     <row r="22" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A22" s="110"/>
       <c r="B22" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -4429,13 +4429,13 @@
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -4471,13 +4471,13 @@
     </row>
     <row r="24" spans="1:64" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -4511,7 +4511,7 @@
         <v>42</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -4602,10 +4602,10 @@
       <c r="AB27" s="44"/>
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A28" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="115"/>
+      <c r="A28" s="116" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="116"/>
       <c r="C28" s="58"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -4636,10 +4636,10 @@
       <c r="AB28" s="44"/>
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A29" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="115"/>
+      <c r="A29" s="116" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="116"/>
       <c r="C29" s="58"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -4670,10 +4670,10 @@
       <c r="AB29" s="44"/>
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A30" s="115" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="115"/>
+      <c r="A30" s="116" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="116"/>
       <c r="C30" s="58"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -4704,10 +4704,10 @@
       <c r="AB30" s="44"/>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A31" s="115" t="s">
+      <c r="A31" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="115"/>
+      <c r="B31" s="116"/>
       <c r="C31" s="58"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -4742,10 +4742,10 @@
       <c r="AB31" s="44"/>
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A32" s="115" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="115"/>
+      <c r="A32" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="116"/>
       <c r="C32" s="58"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -4761,11 +4761,11 @@
       <c r="O32" s="45"/>
       <c r="P32" s="45"/>
       <c r="Q32" s="45"/>
-      <c r="R32" s="116">
+      <c r="R32" s="115">
         <v>2</v>
       </c>
-      <c r="S32" s="116"/>
-      <c r="T32" s="116"/>
+      <c r="S32" s="115"/>
+      <c r="T32" s="115"/>
       <c r="U32" s="45"/>
       <c r="V32" s="45"/>
       <c r="W32" s="45"/>
@@ -4812,10 +4812,10 @@
       <c r="BL32" s="61"/>
     </row>
     <row r="33" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A33" s="115" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="115"/>
+      <c r="A33" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="116"/>
       <c r="C33" s="58"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -4831,11 +4831,11 @@
       <c r="O33" s="45"/>
       <c r="P33" s="45"/>
       <c r="Q33" s="45"/>
-      <c r="R33" s="116">
+      <c r="R33" s="115">
         <v>2</v>
       </c>
-      <c r="S33" s="116"/>
-      <c r="T33" s="116"/>
+      <c r="S33" s="115"/>
+      <c r="T33" s="115"/>
       <c r="U33" s="45"/>
       <c r="V33" s="45"/>
       <c r="W33" s="45"/>
@@ -4882,10 +4882,10 @@
       <c r="BL33" s="61"/>
     </row>
     <row r="34" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A34" s="115" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="115"/>
+      <c r="A34" s="116" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="116"/>
       <c r="C34" s="58"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
@@ -4904,10 +4904,10 @@
       <c r="R34" s="45"/>
       <c r="S34" s="45"/>
       <c r="T34" s="45"/>
-      <c r="U34" s="116">
+      <c r="U34" s="115">
         <v>2</v>
       </c>
-      <c r="V34" s="116"/>
+      <c r="V34" s="115"/>
       <c r="W34" s="45"/>
       <c r="X34" s="45"/>
       <c r="Y34" s="45"/>
@@ -4952,10 +4952,10 @@
       <c r="BL34" s="61"/>
     </row>
     <row r="35" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A35" s="115" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="115"/>
+      <c r="A35" s="116" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="116"/>
       <c r="C35" s="58"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
@@ -4975,10 +4975,10 @@
       <c r="S35" s="45"/>
       <c r="T35" s="45"/>
       <c r="U35" s="45"/>
-      <c r="V35" s="116">
+      <c r="V35" s="115">
         <v>2</v>
       </c>
-      <c r="W35" s="116"/>
+      <c r="W35" s="115"/>
       <c r="X35" s="45"/>
       <c r="Y35" s="45"/>
       <c r="Z35" s="45"/>
@@ -5089,7 +5089,7 @@
     </row>
     <row r="37" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B37" s="44"/>
       <c r="C37" s="44"/>
@@ -5157,10 +5157,10 @@
     </row>
     <row r="38" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A38" s="91" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B38" s="94" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C38" s="93"/>
       <c r="D38" s="44"/>
@@ -5227,13 +5227,13 @@
     </row>
     <row r="39" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A39" s="118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="88" t="s">
+      <c r="C39" s="83" t="s">
         <v>119</v>
-      </c>
-      <c r="C39" s="83" t="s">
-        <v>120</v>
       </c>
       <c r="D39" s="90"/>
       <c r="E39" s="44"/>
@@ -5369,7 +5369,7 @@
     </row>
     <row r="41" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A41" s="113" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B41" s="88">
         <v>5</v>
@@ -5523,7 +5523,7 @@
     </row>
     <row r="43" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A43" s="113" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B43" s="88">
         <v>5</v>
@@ -5677,10 +5677,10 @@
     </row>
     <row r="45" spans="1:64" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="86" t="s">
         <v>163</v>
-      </c>
-      <c r="B45" s="86" t="s">
-        <v>164</v>
       </c>
       <c r="C45" s="87"/>
       <c r="D45" s="97"/>
@@ -5813,7 +5813,7 @@
     </row>
     <row r="47" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B47" s="44"/>
       <c r="C47" s="44"/>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="48" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A48" s="50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B48" s="44"/>
       <c r="C48" s="44"/>
@@ -5949,7 +5949,7 @@
     </row>
     <row r="49" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B49" s="44"/>
       <c r="C49" s="44"/>
@@ -5981,7 +5981,7 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B50" s="44"/>
       <c r="C50" s="44"/>
@@ -6107,6 +6107,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="U34:V34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="V35:W35"/>
@@ -6120,19 +6133,6 @@
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A34:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6144,7 +6144,7 @@
   <dimension ref="A1:BI93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScale="59" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="V52" sqref="V52"/>
+      <selection activeCell="A67" sqref="A67:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6170,127 +6170,127 @@
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="122" t="s">
-        <v>154</v>
-      </c>
-      <c r="O1" s="122"/>
+        <v>157</v>
+      </c>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="124" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1" s="124"/>
       <c r="P1" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="R1" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="X1" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="Y1" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="Z1" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="AA1" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AB1" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AC1" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AD1" s="124" t="s">
         <v>146</v>
       </c>
-      <c r="AC1" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD1" s="122" t="s">
+      <c r="AE1" s="124"/>
+      <c r="AF1" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="AE1" s="122"/>
-      <c r="AF1" s="122" t="s">
+      <c r="AG1" s="124"/>
+      <c r="AH1" s="124" t="s">
         <v>148</v>
       </c>
-      <c r="AG1" s="122"/>
-      <c r="AH1" s="122" t="s">
+      <c r="AI1" s="124"/>
+      <c r="AJ1" s="124" t="s">
         <v>149</v>
       </c>
-      <c r="AI1" s="122"/>
-      <c r="AJ1" s="122" t="s">
+      <c r="AK1" s="124"/>
+      <c r="AL1" s="124" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM1" s="124"/>
+      <c r="AN1" s="124" t="s">
         <v>150</v>
       </c>
-      <c r="AK1" s="122"/>
-      <c r="AL1" s="122" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM1" s="122"/>
-      <c r="AN1" s="122" t="s">
+      <c r="AO1" s="124"/>
+      <c r="AP1" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="124"/>
+      <c r="AR1" s="124" t="s">
         <v>151</v>
       </c>
-      <c r="AO1" s="122"/>
-      <c r="AP1" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ1" s="122"/>
-      <c r="AR1" s="122" t="s">
+      <c r="AS1" s="124"/>
+      <c r="AT1" s="124" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU1" s="124"/>
+      <c r="AV1" s="124" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW1" s="124"/>
+      <c r="AX1" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY1" s="124"/>
+      <c r="AZ1" s="124" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA1" s="124"/>
+      <c r="BB1" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="AS1" s="122"/>
-      <c r="AT1" s="122" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU1" s="122"/>
-      <c r="AV1" s="122" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW1" s="122"/>
-      <c r="AX1" s="122" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY1" s="122"/>
-      <c r="AZ1" s="122" t="s">
-        <v>151</v>
-      </c>
-      <c r="BA1" s="122"/>
-      <c r="BB1" s="122" t="s">
+      <c r="BC1" s="124"/>
+      <c r="BD1" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="BC1" s="122"/>
-      <c r="BD1" s="28" t="s">
-        <v>154</v>
-      </c>
       <c r="BE1" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BF1" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BG1" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BH1" s="27"/>
       <c r="BI1" s="27"/>
@@ -6312,130 +6312,130 @@
         <v>6</v>
       </c>
       <c r="F2" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="I2" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="J2" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="K2" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="L2" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="M2" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>91</v>
-      </c>
       <c r="N2" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="P2" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="Q2" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="R2" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="U2" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="V2" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="X2" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y2" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z2" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA2" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB2" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC2" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD2" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="AE2" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="R2" s="28" t="s">
+      <c r="AF2" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="AG2" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="T2" s="28" t="s">
+      <c r="AH2" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="U2" s="28" t="s">
+      <c r="AI2" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="V2" s="28" t="s">
+      <c r="AJ2" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="W2" s="28" t="s">
+      <c r="AK2" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="X2" s="28" t="s">
+      <c r="AL2" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="Y2" s="28" t="s">
+      <c r="AM2" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="Z2" s="28" t="s">
+      <c r="AN2" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="AA2" s="28" t="s">
+      <c r="AO2" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="AB2" s="28" t="s">
+      <c r="AP2" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="AC2" s="28" t="s">
+      <c r="AQ2" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="AD2" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE2" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF2" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG2" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH2" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI2" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="AJ2" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK2" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL2" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="AM2" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="AN2" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="AO2" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="AP2" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="AQ2" s="28" t="s">
-        <v>137</v>
-      </c>
       <c r="AR2" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AS2" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AT2" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AU2" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AV2" s="28" t="s">
         <v>7</v>
@@ -6450,22 +6450,22 @@
         <v>7</v>
       </c>
       <c r="AZ2" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="BA2" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB2" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="BC2" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="BD2" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="BA2" s="28" t="s">
+      <c r="BE2" s="31" t="s">
         <v>138</v>
-      </c>
-      <c r="BB2" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="BC2" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="BD2" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="BE2" s="31" t="s">
-        <v>139</v>
       </c>
       <c r="BF2" s="31" t="s">
         <v>8</v>
@@ -7241,122 +7241,122 @@
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="127">
-        <v>1</v>
-      </c>
-      <c r="E12" s="128"/>
-      <c r="F12" s="127">
-        <v>1</v>
-      </c>
-      <c r="G12" s="128"/>
-      <c r="H12" s="127">
-        <v>1</v>
-      </c>
-      <c r="I12" s="128"/>
-      <c r="J12" s="127">
-        <v>1</v>
-      </c>
-      <c r="K12" s="128"/>
-      <c r="L12" s="127">
-        <v>1</v>
-      </c>
-      <c r="M12" s="128"/>
-      <c r="N12" s="127">
-        <v>1</v>
-      </c>
-      <c r="O12" s="128"/>
-      <c r="P12" s="127">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="128"/>
-      <c r="R12" s="127">
-        <v>1</v>
-      </c>
-      <c r="S12" s="128"/>
-      <c r="T12" s="127">
-        <v>1</v>
-      </c>
-      <c r="U12" s="128"/>
-      <c r="V12" s="127">
-        <v>1</v>
-      </c>
-      <c r="W12" s="128"/>
-      <c r="X12" s="127">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="128"/>
-      <c r="Z12" s="127">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="128"/>
-      <c r="AB12" s="127">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="128"/>
-      <c r="AD12" s="127">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="128"/>
-      <c r="AF12" s="127">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="128"/>
-      <c r="AH12" s="127">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="128"/>
-      <c r="AJ12" s="127">
-        <v>1</v>
-      </c>
-      <c r="AK12" s="128"/>
-      <c r="AL12" s="127">
-        <v>1</v>
-      </c>
-      <c r="AM12" s="128"/>
+      <c r="D12" s="120">
+        <v>1</v>
+      </c>
+      <c r="E12" s="121"/>
+      <c r="F12" s="120">
+        <v>1</v>
+      </c>
+      <c r="G12" s="121"/>
+      <c r="H12" s="120">
+        <v>1</v>
+      </c>
+      <c r="I12" s="121"/>
+      <c r="J12" s="120">
+        <v>1</v>
+      </c>
+      <c r="K12" s="121"/>
+      <c r="L12" s="120">
+        <v>1</v>
+      </c>
+      <c r="M12" s="121"/>
+      <c r="N12" s="120">
+        <v>1</v>
+      </c>
+      <c r="O12" s="121"/>
+      <c r="P12" s="120">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="121"/>
+      <c r="R12" s="120">
+        <v>1</v>
+      </c>
+      <c r="S12" s="121"/>
+      <c r="T12" s="120">
+        <v>1</v>
+      </c>
+      <c r="U12" s="121"/>
+      <c r="V12" s="120">
+        <v>1</v>
+      </c>
+      <c r="W12" s="121"/>
+      <c r="X12" s="120">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="120">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="121"/>
+      <c r="AB12" s="120">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="121"/>
+      <c r="AD12" s="120">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="121"/>
+      <c r="AF12" s="120">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="121"/>
+      <c r="AH12" s="120">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="121"/>
+      <c r="AJ12" s="120">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="121"/>
+      <c r="AL12" s="120">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="121"/>
       <c r="AN12" s="40">
         <v>1</v>
       </c>
       <c r="AO12" s="40">
         <v>1</v>
       </c>
-      <c r="AP12" s="127">
-        <v>1</v>
-      </c>
-      <c r="AQ12" s="128"/>
-      <c r="AR12" s="127">
-        <v>1</v>
-      </c>
-      <c r="AS12" s="128"/>
-      <c r="AT12" s="127">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="128"/>
-      <c r="AV12" s="127">
-        <v>1</v>
-      </c>
-      <c r="AW12" s="128"/>
-      <c r="AX12" s="127">
-        <v>1</v>
-      </c>
-      <c r="AY12" s="128"/>
+      <c r="AP12" s="120">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="121"/>
+      <c r="AR12" s="120">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="121"/>
+      <c r="AT12" s="120">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="121"/>
+      <c r="AV12" s="120">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="121"/>
+      <c r="AX12" s="120">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="121"/>
       <c r="AZ12" s="40">
         <v>1</v>
       </c>
       <c r="BA12" s="40">
         <v>1</v>
       </c>
-      <c r="BB12" s="127">
-        <v>1</v>
-      </c>
-      <c r="BC12" s="128"/>
-      <c r="BD12" s="127">
-        <v>1</v>
-      </c>
-      <c r="BE12" s="128"/>
-      <c r="BF12" s="127">
-        <v>1</v>
-      </c>
-      <c r="BG12" s="128"/>
+      <c r="BB12" s="120">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="121"/>
+      <c r="BD12" s="120">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="121"/>
+      <c r="BF12" s="120">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="121"/>
       <c r="BH12" s="27"/>
       <c r="BI12" s="27"/>
     </row>
@@ -7368,62 +7368,62 @@
       <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="130"/>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="130"/>
-      <c r="R13" s="129"/>
-      <c r="S13" s="130"/>
-      <c r="T13" s="129"/>
-      <c r="U13" s="130"/>
-      <c r="V13" s="129"/>
-      <c r="W13" s="130"/>
-      <c r="X13" s="129"/>
-      <c r="Y13" s="130"/>
-      <c r="Z13" s="129"/>
-      <c r="AA13" s="130"/>
-      <c r="AB13" s="129"/>
-      <c r="AC13" s="130"/>
-      <c r="AD13" s="129"/>
-      <c r="AE13" s="130"/>
-      <c r="AF13" s="129"/>
-      <c r="AG13" s="130"/>
-      <c r="AH13" s="129"/>
-      <c r="AI13" s="130"/>
-      <c r="AJ13" s="129"/>
-      <c r="AK13" s="130"/>
-      <c r="AL13" s="129"/>
-      <c r="AM13" s="130"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="122"/>
+      <c r="U13" s="123"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="123"/>
+      <c r="X13" s="122"/>
+      <c r="Y13" s="123"/>
+      <c r="Z13" s="122"/>
+      <c r="AA13" s="123"/>
+      <c r="AB13" s="122"/>
+      <c r="AC13" s="123"/>
+      <c r="AD13" s="122"/>
+      <c r="AE13" s="123"/>
+      <c r="AF13" s="122"/>
+      <c r="AG13" s="123"/>
+      <c r="AH13" s="122"/>
+      <c r="AI13" s="123"/>
+      <c r="AJ13" s="122"/>
+      <c r="AK13" s="123"/>
+      <c r="AL13" s="122"/>
+      <c r="AM13" s="123"/>
       <c r="AN13" s="33"/>
       <c r="AO13" s="33"/>
-      <c r="AP13" s="129"/>
-      <c r="AQ13" s="130"/>
-      <c r="AR13" s="129"/>
-      <c r="AS13" s="130"/>
-      <c r="AT13" s="129"/>
-      <c r="AU13" s="130"/>
-      <c r="AV13" s="129"/>
-      <c r="AW13" s="130"/>
-      <c r="AX13" s="129"/>
-      <c r="AY13" s="130"/>
+      <c r="AP13" s="122"/>
+      <c r="AQ13" s="123"/>
+      <c r="AR13" s="122"/>
+      <c r="AS13" s="123"/>
+      <c r="AT13" s="122"/>
+      <c r="AU13" s="123"/>
+      <c r="AV13" s="122"/>
+      <c r="AW13" s="123"/>
+      <c r="AX13" s="122"/>
+      <c r="AY13" s="123"/>
       <c r="AZ13" s="33"/>
       <c r="BA13" s="33"/>
-      <c r="BB13" s="129"/>
-      <c r="BC13" s="130"/>
-      <c r="BD13" s="129"/>
-      <c r="BE13" s="130"/>
-      <c r="BF13" s="129"/>
-      <c r="BG13" s="130"/>
+      <c r="BB13" s="122"/>
+      <c r="BC13" s="123"/>
+      <c r="BD13" s="122"/>
+      <c r="BE13" s="123"/>
+      <c r="BF13" s="122"/>
+      <c r="BG13" s="123"/>
       <c r="BH13" s="27"/>
       <c r="BI13" s="27"/>
     </row>
@@ -8504,10 +8504,10 @@
       <c r="BI26" s="27"/>
     </row>
     <row r="27" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="125" t="s">
+      <c r="A27" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="125"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="17"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -8697,10 +8697,10 @@
       <c r="BI29" s="27"/>
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A30" s="124" t="s">
+      <c r="A30" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="124"/>
+      <c r="B30" s="126"/>
       <c r="C30" s="18"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -8712,10 +8712,10 @@
       <c r="K30" s="33"/>
       <c r="L30" s="33"/>
       <c r="M30" s="33"/>
-      <c r="N30" s="126">
+      <c r="N30" s="125">
         <v>2</v>
       </c>
-      <c r="O30" s="126"/>
+      <c r="O30" s="125"/>
       <c r="P30" s="33"/>
       <c r="Q30" s="33"/>
       <c r="R30" s="33"/>
@@ -8764,10 +8764,10 @@
       <c r="BI30" s="27"/>
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A31" s="124" t="s">
+      <c r="A31" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="124"/>
+      <c r="B31" s="126"/>
       <c r="C31" s="18"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -8831,10 +8831,10 @@
       <c r="BI31" s="27"/>
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A32" s="124" t="s">
+      <c r="A32" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="124"/>
+      <c r="B32" s="126"/>
       <c r="C32" s="18"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -8848,10 +8848,10 @@
       <c r="M32" s="33"/>
       <c r="N32" s="33"/>
       <c r="O32" s="33"/>
-      <c r="P32" s="126">
+      <c r="P32" s="125">
         <v>2</v>
       </c>
-      <c r="Q32" s="126"/>
+      <c r="Q32" s="125"/>
       <c r="R32" s="42"/>
       <c r="S32" s="42"/>
       <c r="T32" s="42"/>
@@ -8898,10 +8898,10 @@
       <c r="BI32" s="27"/>
     </row>
     <row r="33" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="124" t="s">
+      <c r="A33" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="124"/>
+      <c r="B33" s="126"/>
       <c r="C33" s="18"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -8915,10 +8915,10 @@
       <c r="M33" s="33"/>
       <c r="N33" s="33"/>
       <c r="O33" s="33"/>
-      <c r="P33" s="126">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="126"/>
+      <c r="P33" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="125"/>
       <c r="R33" s="42"/>
       <c r="S33" s="42"/>
       <c r="T33" s="42"/>
@@ -8965,10 +8965,10 @@
       <c r="BI33" s="27"/>
     </row>
     <row r="34" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="124" t="s">
+      <c r="A34" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="124"/>
+      <c r="B34" s="126"/>
       <c r="C34" s="18"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -8984,10 +8984,10 @@
       <c r="O34" s="33"/>
       <c r="P34" s="42"/>
       <c r="Q34" s="42"/>
-      <c r="R34" s="126">
-        <v>1</v>
-      </c>
-      <c r="S34" s="126"/>
+      <c r="R34" s="125">
+        <v>1</v>
+      </c>
+      <c r="S34" s="125"/>
       <c r="T34" s="42"/>
       <c r="U34" s="42"/>
       <c r="V34" s="33"/>
@@ -9032,10 +9032,10 @@
       <c r="BI34" s="27"/>
     </row>
     <row r="35" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="124" t="s">
+      <c r="A35" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="124"/>
+      <c r="B35" s="126"/>
       <c r="C35" s="18"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -9051,10 +9051,10 @@
       <c r="O35" s="33"/>
       <c r="P35" s="42"/>
       <c r="Q35" s="42"/>
-      <c r="R35" s="126">
+      <c r="R35" s="125">
         <v>2</v>
       </c>
-      <c r="S35" s="126"/>
+      <c r="S35" s="125"/>
       <c r="T35" s="42"/>
       <c r="U35" s="42"/>
       <c r="V35" s="33"/>
@@ -9099,10 +9099,10 @@
       <c r="BI35" s="27"/>
     </row>
     <row r="36" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="124" t="s">
+      <c r="A36" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="124"/>
+      <c r="B36" s="126"/>
       <c r="C36" s="18"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -9120,10 +9120,10 @@
       <c r="Q36" s="42"/>
       <c r="R36" s="33"/>
       <c r="S36" s="33"/>
-      <c r="T36" s="126">
+      <c r="T36" s="125">
         <v>2</v>
       </c>
-      <c r="U36" s="126"/>
+      <c r="U36" s="125"/>
       <c r="V36" s="33"/>
       <c r="W36" s="33"/>
       <c r="X36" s="33"/>
@@ -9166,10 +9166,10 @@
       <c r="BI36" s="27"/>
     </row>
     <row r="37" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="124" t="s">
+      <c r="A37" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="124"/>
+      <c r="B37" s="126"/>
       <c r="C37" s="18"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -9187,10 +9187,10 @@
       <c r="Q37" s="42"/>
       <c r="R37" s="33"/>
       <c r="S37" s="33"/>
-      <c r="T37" s="126">
+      <c r="T37" s="125">
         <v>2</v>
       </c>
-      <c r="U37" s="126"/>
+      <c r="U37" s="125"/>
       <c r="V37" s="33"/>
       <c r="W37" s="33"/>
       <c r="X37" s="33"/>
@@ -9233,10 +9233,10 @@
       <c r="BI37" s="27"/>
     </row>
     <row r="38" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A38" s="124" t="s">
+      <c r="A38" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="124"/>
+      <c r="B38" s="126"/>
       <c r="C38" s="18"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -9256,10 +9256,10 @@
       <c r="S38" s="33"/>
       <c r="T38" s="33"/>
       <c r="U38" s="33"/>
-      <c r="V38" s="126">
+      <c r="V38" s="125">
         <v>2</v>
       </c>
-      <c r="W38" s="126"/>
+      <c r="W38" s="125"/>
       <c r="X38" s="33"/>
       <c r="Y38" s="33"/>
       <c r="Z38" s="33"/>
@@ -9300,10 +9300,10 @@
       <c r="BI38" s="27"/>
     </row>
     <row r="39" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A39" s="124" t="s">
+      <c r="A39" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="124"/>
+      <c r="B39" s="126"/>
       <c r="C39" s="18"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -9323,10 +9323,10 @@
       <c r="S39" s="33"/>
       <c r="T39" s="33"/>
       <c r="U39" s="33"/>
-      <c r="V39" s="126">
+      <c r="V39" s="125">
         <v>2</v>
       </c>
-      <c r="W39" s="126"/>
+      <c r="W39" s="125"/>
       <c r="X39" s="33"/>
       <c r="Y39" s="33"/>
       <c r="Z39" s="33"/>
@@ -9367,10 +9367,10 @@
       <c r="BI39" s="27"/>
     </row>
     <row r="40" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A40" s="124" t="s">
+      <c r="A40" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="124"/>
+      <c r="B40" s="126"/>
       <c r="C40" s="18"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -9392,10 +9392,10 @@
       <c r="U40" s="33"/>
       <c r="V40" s="33"/>
       <c r="W40" s="33"/>
-      <c r="X40" s="126">
+      <c r="X40" s="125">
         <v>2</v>
       </c>
-      <c r="Y40" s="126"/>
+      <c r="Y40" s="125"/>
       <c r="Z40" s="33"/>
       <c r="AA40" s="33"/>
       <c r="AB40" s="33"/>
@@ -9434,10 +9434,10 @@
       <c r="BI40" s="27"/>
     </row>
     <row r="41" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A41" s="124" t="s">
+      <c r="A41" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="124"/>
+      <c r="B41" s="126"/>
       <c r="C41" s="18"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -9459,10 +9459,10 @@
       <c r="U41" s="33"/>
       <c r="V41" s="33"/>
       <c r="W41" s="33"/>
-      <c r="X41" s="126">
+      <c r="X41" s="125">
         <v>2</v>
       </c>
-      <c r="Y41" s="126"/>
+      <c r="Y41" s="125"/>
       <c r="Z41" s="33"/>
       <c r="AA41" s="33"/>
       <c r="AB41" s="33"/>
@@ -9501,10 +9501,10 @@
       <c r="BI41" s="27"/>
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A42" s="124" t="s">
+      <c r="A42" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="124"/>
+      <c r="B42" s="126"/>
       <c r="C42" s="18"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -9528,10 +9528,10 @@
       <c r="W42" s="33"/>
       <c r="X42" s="33"/>
       <c r="Y42" s="33"/>
-      <c r="Z42" s="126">
+      <c r="Z42" s="125">
         <v>2</v>
       </c>
-      <c r="AA42" s="126"/>
+      <c r="AA42" s="125"/>
       <c r="AB42" s="33"/>
       <c r="AC42" s="33"/>
       <c r="AD42" s="33"/>
@@ -9568,10 +9568,10 @@
       <c r="BI42" s="27"/>
     </row>
     <row r="43" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A43" s="124" t="s">
+      <c r="A43" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="124"/>
+      <c r="B43" s="126"/>
       <c r="C43" s="18"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -9595,10 +9595,10 @@
       <c r="W43" s="33"/>
       <c r="X43" s="33"/>
       <c r="Y43" s="33"/>
-      <c r="Z43" s="126">
+      <c r="Z43" s="125">
         <v>2</v>
       </c>
-      <c r="AA43" s="126"/>
+      <c r="AA43" s="125"/>
       <c r="AB43" s="33"/>
       <c r="AC43" s="33"/>
       <c r="AD43" s="33"/>
@@ -9635,10 +9635,10 @@
       <c r="BI43" s="27"/>
     </row>
     <row r="44" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A44" s="124" t="s">
+      <c r="A44" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="124"/>
+      <c r="B44" s="126"/>
       <c r="C44" s="18"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -9688,14 +9688,14 @@
       <c r="AW44" s="33"/>
       <c r="AX44" s="33"/>
       <c r="AY44" s="33"/>
-      <c r="AZ44" s="126">
+      <c r="AZ44" s="125">
         <v>2</v>
       </c>
-      <c r="BA44" s="126"/>
-      <c r="BB44" s="126">
+      <c r="BA44" s="125"/>
+      <c r="BB44" s="125">
         <v>2</v>
       </c>
-      <c r="BC44" s="126"/>
+      <c r="BC44" s="125"/>
       <c r="BD44" s="33"/>
       <c r="BE44" s="33"/>
       <c r="BF44" s="33"/>
@@ -9704,10 +9704,10 @@
       <c r="BI44" s="27"/>
     </row>
     <row r="45" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A45" s="124" t="s">
+      <c r="A45" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="124"/>
+      <c r="B45" s="126"/>
       <c r="C45" s="18"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -9757,10 +9757,10 @@
       <c r="AW45" s="33"/>
       <c r="AX45" s="33"/>
       <c r="AY45" s="33"/>
-      <c r="AZ45" s="126">
+      <c r="AZ45" s="125">
         <v>2</v>
       </c>
-      <c r="BA45" s="126"/>
+      <c r="BA45" s="125"/>
       <c r="BB45" s="33"/>
       <c r="BC45" s="33"/>
       <c r="BD45" s="33"/>
@@ -9771,10 +9771,10 @@
       <c r="BI45" s="27"/>
     </row>
     <row r="46" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A46" s="124" t="s">
+      <c r="A46" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="124"/>
+      <c r="B46" s="126"/>
       <c r="C46" s="18"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -9826,10 +9826,10 @@
       <c r="AY46" s="33"/>
       <c r="AZ46" s="33"/>
       <c r="BA46" s="33"/>
-      <c r="BB46" s="126">
+      <c r="BB46" s="125">
         <v>2</v>
       </c>
-      <c r="BC46" s="126"/>
+      <c r="BC46" s="125"/>
       <c r="BD46" s="33"/>
       <c r="BE46" s="33"/>
       <c r="BF46" s="33"/>
@@ -9838,10 +9838,10 @@
       <c r="BI46" s="27"/>
     </row>
     <row r="47" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A47" s="124" t="s">
+      <c r="A47" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="124"/>
+      <c r="B47" s="126"/>
       <c r="C47" s="18"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -9895,20 +9895,20 @@
       <c r="BA47" s="33"/>
       <c r="BB47" s="33"/>
       <c r="BC47" s="33"/>
-      <c r="BD47" s="126">
+      <c r="BD47" s="125">
         <v>2</v>
       </c>
-      <c r="BE47" s="126"/>
+      <c r="BE47" s="125"/>
       <c r="BF47" s="33"/>
       <c r="BG47" s="33"/>
       <c r="BH47" s="27"/>
       <c r="BI47" s="27"/>
     </row>
     <row r="48" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A48" s="124" t="s">
+      <c r="A48" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="124"/>
+      <c r="B48" s="126"/>
       <c r="C48" s="18"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -9962,20 +9962,20 @@
       <c r="BA48" s="33"/>
       <c r="BB48" s="33"/>
       <c r="BC48" s="33"/>
-      <c r="BD48" s="126">
+      <c r="BD48" s="125">
         <v>2</v>
       </c>
-      <c r="BE48" s="126"/>
+      <c r="BE48" s="125"/>
       <c r="BF48" s="33"/>
       <c r="BG48" s="33"/>
       <c r="BH48" s="27"/>
       <c r="BI48" s="27"/>
     </row>
     <row r="49" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A49" s="124" t="s">
+      <c r="A49" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="124"/>
+      <c r="B49" s="126"/>
       <c r="C49" s="18"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -10031,18 +10031,18 @@
       <c r="BC49" s="33"/>
       <c r="BD49" s="33"/>
       <c r="BE49" s="33"/>
-      <c r="BF49" s="126">
+      <c r="BF49" s="125">
         <v>2</v>
       </c>
-      <c r="BG49" s="126"/>
+      <c r="BG49" s="125"/>
       <c r="BH49" s="27"/>
       <c r="BI49" s="27"/>
     </row>
     <row r="50" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A50" s="124" t="s">
+      <c r="A50" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="124"/>
+      <c r="B50" s="126"/>
       <c r="C50" s="18"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -10098,18 +10098,18 @@
       <c r="BC50" s="33"/>
       <c r="BD50" s="33"/>
       <c r="BE50" s="33"/>
-      <c r="BF50" s="126">
+      <c r="BF50" s="125">
         <v>2</v>
       </c>
-      <c r="BG50" s="126"/>
+      <c r="BG50" s="125"/>
       <c r="BH50" s="27"/>
       <c r="BI50" s="27"/>
     </row>
     <row r="51" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A51" s="124" t="s">
+      <c r="A51" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="124"/>
+      <c r="B51" s="126"/>
       <c r="C51" s="18"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -10137,42 +10137,42 @@
       <c r="AA51" s="33"/>
       <c r="AB51" s="33"/>
       <c r="AC51" s="33"/>
-      <c r="AD51" s="126">
-        <v>1</v>
-      </c>
-      <c r="AE51" s="126"/>
-      <c r="AF51" s="126">
-        <v>1</v>
-      </c>
-      <c r="AG51" s="126"/>
-      <c r="AH51" s="126">
-        <v>1</v>
-      </c>
-      <c r="AI51" s="126"/>
-      <c r="AJ51" s="126">
-        <v>1</v>
-      </c>
-      <c r="AK51" s="126"/>
-      <c r="AL51" s="126">
-        <v>1</v>
-      </c>
-      <c r="AM51" s="126"/>
-      <c r="AN51" s="126">
-        <v>1</v>
-      </c>
-      <c r="AO51" s="126"/>
-      <c r="AP51" s="126">
-        <v>1</v>
-      </c>
-      <c r="AQ51" s="126"/>
-      <c r="AR51" s="126">
-        <v>1</v>
-      </c>
-      <c r="AS51" s="126"/>
-      <c r="AT51" s="126">
-        <v>1</v>
-      </c>
-      <c r="AU51" s="126"/>
+      <c r="AD51" s="125">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="125"/>
+      <c r="AF51" s="125">
+        <v>1</v>
+      </c>
+      <c r="AG51" s="125"/>
+      <c r="AH51" s="125">
+        <v>1</v>
+      </c>
+      <c r="AI51" s="125"/>
+      <c r="AJ51" s="125">
+        <v>1</v>
+      </c>
+      <c r="AK51" s="125"/>
+      <c r="AL51" s="125">
+        <v>1</v>
+      </c>
+      <c r="AM51" s="125"/>
+      <c r="AN51" s="125">
+        <v>1</v>
+      </c>
+      <c r="AO51" s="125"/>
+      <c r="AP51" s="125">
+        <v>1</v>
+      </c>
+      <c r="AQ51" s="125"/>
+      <c r="AR51" s="125">
+        <v>1</v>
+      </c>
+      <c r="AS51" s="125"/>
+      <c r="AT51" s="125">
+        <v>1</v>
+      </c>
+      <c r="AU51" s="125"/>
       <c r="AV51" s="33"/>
       <c r="AW51" s="33"/>
       <c r="AX51" s="33"/>
@@ -10189,10 +10189,10 @@
       <c r="BI51" s="27"/>
     </row>
     <row r="52" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A52" s="124" t="s">
+      <c r="A52" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="124"/>
+      <c r="B52" s="126"/>
       <c r="C52" s="18"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -10226,10 +10226,10 @@
       <c r="AG52" s="33"/>
       <c r="AH52" s="33"/>
       <c r="AI52" s="33"/>
-      <c r="AJ52" s="126">
-        <v>1</v>
-      </c>
-      <c r="AK52" s="126"/>
+      <c r="AJ52" s="125">
+        <v>1</v>
+      </c>
+      <c r="AK52" s="125"/>
       <c r="AL52" s="33"/>
       <c r="AM52" s="33"/>
       <c r="AN52" s="33"/>
@@ -10256,10 +10256,10 @@
       <c r="BI52" s="27"/>
     </row>
     <row r="53" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A53" s="124" t="s">
+      <c r="A53" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="124"/>
+      <c r="B53" s="126"/>
       <c r="C53" s="18"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -10285,10 +10285,10 @@
       <c r="Y53" s="33"/>
       <c r="Z53" s="33"/>
       <c r="AA53" s="33"/>
-      <c r="AB53" s="126">
+      <c r="AB53" s="125">
         <v>2</v>
       </c>
-      <c r="AC53" s="126"/>
+      <c r="AC53" s="125"/>
       <c r="AD53" s="33"/>
       <c r="AE53" s="33"/>
       <c r="AF53" s="33"/>
@@ -10323,10 +10323,10 @@
       <c r="BI53" s="27"/>
     </row>
     <row r="54" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A54" s="124" t="s">
+      <c r="A54" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="124"/>
+      <c r="B54" s="126"/>
       <c r="C54" s="18"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -10352,10 +10352,10 @@
       <c r="Y54" s="33"/>
       <c r="Z54" s="33"/>
       <c r="AA54" s="33"/>
-      <c r="AB54" s="126">
-        <v>1</v>
-      </c>
-      <c r="AC54" s="126"/>
+      <c r="AB54" s="125">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="125"/>
       <c r="AD54" s="33"/>
       <c r="AE54" s="33"/>
       <c r="AF54" s="33"/>
@@ -10390,10 +10390,10 @@
       <c r="BI54" s="27"/>
     </row>
     <row r="55" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A55" s="124" t="s">
+      <c r="A55" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="124"/>
+      <c r="B55" s="126"/>
       <c r="C55" s="18"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -10419,10 +10419,10 @@
       <c r="Y55" s="33"/>
       <c r="Z55" s="33"/>
       <c r="AA55" s="33"/>
-      <c r="AB55" s="126">
-        <v>1</v>
-      </c>
-      <c r="AC55" s="126"/>
+      <c r="AB55" s="125">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="125"/>
       <c r="AD55" s="33"/>
       <c r="AE55" s="33"/>
       <c r="AF55" s="33"/>
@@ -10457,10 +10457,10 @@
       <c r="BI55" s="27"/>
     </row>
     <row r="56" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A56" s="124" t="s">
+      <c r="A56" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="124"/>
+      <c r="B56" s="126"/>
       <c r="C56" s="18"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -10484,10 +10484,10 @@
       <c r="W56" s="33"/>
       <c r="X56" s="33"/>
       <c r="Y56" s="33"/>
-      <c r="Z56" s="126">
+      <c r="Z56" s="125">
         <v>2</v>
       </c>
-      <c r="AA56" s="126"/>
+      <c r="AA56" s="125"/>
       <c r="AB56" s="33"/>
       <c r="AC56" s="33"/>
       <c r="AD56" s="33"/>
@@ -10524,10 +10524,10 @@
       <c r="BI56" s="27"/>
     </row>
     <row r="57" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="124" t="s">
+      <c r="A57" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="124"/>
+      <c r="B57" s="126"/>
       <c r="C57" s="18"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -10551,10 +10551,10 @@
       <c r="W57" s="33"/>
       <c r="X57" s="33"/>
       <c r="Y57" s="33"/>
-      <c r="Z57" s="126">
+      <c r="Z57" s="125">
         <v>2</v>
       </c>
-      <c r="AA57" s="126"/>
+      <c r="AA57" s="125"/>
       <c r="AB57" s="33"/>
       <c r="AC57" s="33"/>
       <c r="AD57" s="33"/>
@@ -10591,10 +10591,10 @@
       <c r="BI57" s="27"/>
     </row>
     <row r="58" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A58" s="124" t="s">
+      <c r="A58" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="124"/>
+      <c r="B58" s="126"/>
       <c r="C58" s="18"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -10622,10 +10622,10 @@
       <c r="AA58" s="33"/>
       <c r="AB58" s="33"/>
       <c r="AC58" s="33"/>
-      <c r="AD58" s="126">
-        <v>1</v>
-      </c>
-      <c r="AE58" s="126"/>
+      <c r="AD58" s="125">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="125"/>
       <c r="AF58" s="33"/>
       <c r="AG58" s="33"/>
       <c r="AH58" s="33"/>
@@ -10658,10 +10658,10 @@
       <c r="BI58" s="27"/>
     </row>
     <row r="59" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A59" s="124" t="s">
+      <c r="A59" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="124"/>
+      <c r="B59" s="126"/>
       <c r="C59" s="18"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -10691,10 +10691,10 @@
       <c r="AC59" s="33"/>
       <c r="AD59" s="33"/>
       <c r="AE59" s="33"/>
-      <c r="AF59" s="126">
-        <v>1</v>
-      </c>
-      <c r="AG59" s="126"/>
+      <c r="AF59" s="125">
+        <v>1</v>
+      </c>
+      <c r="AG59" s="125"/>
       <c r="AH59" s="33"/>
       <c r="AI59" s="33"/>
       <c r="AJ59" s="33"/>
@@ -10725,10 +10725,10 @@
       <c r="BI59" s="27"/>
     </row>
     <row r="60" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A60" s="124" t="s">
+      <c r="A60" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="124"/>
+      <c r="B60" s="126"/>
       <c r="C60" s="18"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -10760,10 +10760,10 @@
       <c r="AE60" s="33"/>
       <c r="AF60" s="33"/>
       <c r="AG60" s="33"/>
-      <c r="AH60" s="126">
-        <v>1</v>
-      </c>
-      <c r="AI60" s="126"/>
+      <c r="AH60" s="125">
+        <v>1</v>
+      </c>
+      <c r="AI60" s="125"/>
       <c r="AJ60" s="33"/>
       <c r="AK60" s="33"/>
       <c r="AL60" s="33"/>
@@ -10792,10 +10792,10 @@
       <c r="BI60" s="27"/>
     </row>
     <row r="61" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A61" s="124" t="s">
+      <c r="A61" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="124"/>
+      <c r="B61" s="126"/>
       <c r="C61" s="18"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -10831,10 +10831,10 @@
       <c r="AI61" s="33"/>
       <c r="AJ61" s="33"/>
       <c r="AK61" s="33"/>
-      <c r="AL61" s="126">
-        <v>1</v>
-      </c>
-      <c r="AM61" s="126"/>
+      <c r="AL61" s="125">
+        <v>1</v>
+      </c>
+      <c r="AM61" s="125"/>
       <c r="AN61" s="33"/>
       <c r="AO61" s="33"/>
       <c r="AP61" s="33"/>
@@ -10859,10 +10859,10 @@
       <c r="BI61" s="27"/>
     </row>
     <row r="62" spans="1:61" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="124" t="s">
+      <c r="A62" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="B62" s="124"/>
+      <c r="B62" s="126"/>
       <c r="C62" s="18"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -10898,10 +10898,10 @@
       <c r="AI62" s="33"/>
       <c r="AJ62" s="33"/>
       <c r="AK62" s="33"/>
-      <c r="AL62" s="126">
-        <v>1</v>
-      </c>
-      <c r="AM62" s="126"/>
+      <c r="AL62" s="125">
+        <v>1</v>
+      </c>
+      <c r="AM62" s="125"/>
       <c r="AN62" s="33"/>
       <c r="AO62" s="33"/>
       <c r="AP62" s="33"/>
@@ -10926,10 +10926,10 @@
       <c r="BI62" s="27"/>
     </row>
     <row r="63" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A63" s="124" t="s">
+      <c r="A63" s="126" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="124"/>
+      <c r="B63" s="126"/>
       <c r="C63" s="18"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -10967,10 +10967,10 @@
       <c r="AK63" s="35"/>
       <c r="AL63" s="35"/>
       <c r="AM63" s="35"/>
-      <c r="AN63" s="126">
-        <v>1</v>
-      </c>
-      <c r="AO63" s="126"/>
+      <c r="AN63" s="125">
+        <v>1</v>
+      </c>
+      <c r="AO63" s="125"/>
       <c r="AP63" s="33"/>
       <c r="AQ63" s="33"/>
       <c r="AR63" s="33"/>
@@ -10993,10 +10993,10 @@
       <c r="BI63" s="27"/>
     </row>
     <row r="64" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A64" s="124" t="s">
+      <c r="A64" s="126" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="124"/>
+      <c r="B64" s="126"/>
       <c r="C64" s="18"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -11034,10 +11034,10 @@
       <c r="AK64" s="35"/>
       <c r="AL64" s="35"/>
       <c r="AM64" s="35"/>
-      <c r="AN64" s="126">
-        <v>1</v>
-      </c>
-      <c r="AO64" s="126"/>
+      <c r="AN64" s="125">
+        <v>1</v>
+      </c>
+      <c r="AO64" s="125"/>
       <c r="AP64" s="33"/>
       <c r="AQ64" s="33"/>
       <c r="AR64" s="33"/>
@@ -11060,10 +11060,10 @@
       <c r="BI64" s="27"/>
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A65" s="124" t="s">
+      <c r="A65" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="124"/>
+      <c r="B65" s="126"/>
       <c r="C65" s="18"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -11103,10 +11103,10 @@
       <c r="AM65" s="35"/>
       <c r="AN65" s="33"/>
       <c r="AO65" s="33"/>
-      <c r="AP65" s="126">
-        <v>1</v>
-      </c>
-      <c r="AQ65" s="126"/>
+      <c r="AP65" s="125">
+        <v>1</v>
+      </c>
+      <c r="AQ65" s="125"/>
       <c r="AR65" s="33"/>
       <c r="AS65" s="33"/>
       <c r="AT65" s="33"/>
@@ -11127,10 +11127,10 @@
       <c r="BI65" s="27"/>
     </row>
     <row r="66" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A66" s="124" t="s">
+      <c r="A66" s="126" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="124"/>
+      <c r="B66" s="126"/>
       <c r="C66" s="18"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -11170,10 +11170,10 @@
       <c r="AM66" s="35"/>
       <c r="AN66" s="33"/>
       <c r="AO66" s="33"/>
-      <c r="AP66" s="126">
-        <v>1</v>
-      </c>
-      <c r="AQ66" s="126"/>
+      <c r="AP66" s="125">
+        <v>1</v>
+      </c>
+      <c r="AQ66" s="125"/>
       <c r="AR66" s="33"/>
       <c r="AS66" s="33"/>
       <c r="AT66" s="33"/>
@@ -11194,10 +11194,10 @@
       <c r="BI66" s="27"/>
     </row>
     <row r="67" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A67" s="124" t="s">
+      <c r="A67" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="124"/>
+      <c r="B67" s="126"/>
       <c r="C67" s="18"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -11241,10 +11241,10 @@
       <c r="AQ67" s="33"/>
       <c r="AR67" s="33"/>
       <c r="AS67" s="33"/>
-      <c r="AT67" s="126">
+      <c r="AT67" s="125">
         <v>3</v>
       </c>
-      <c r="AU67" s="126"/>
+      <c r="AU67" s="125"/>
       <c r="AV67" s="33"/>
       <c r="AW67" s="33"/>
       <c r="AX67" s="33"/>
@@ -11261,10 +11261,10 @@
       <c r="BI67" s="27"/>
     </row>
     <row r="68" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A68" s="124" t="s">
+      <c r="A68" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="124"/>
+      <c r="B68" s="126"/>
       <c r="C68" s="18"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -11308,10 +11308,10 @@
       <c r="AQ68" s="33"/>
       <c r="AR68" s="33"/>
       <c r="AS68" s="33"/>
-      <c r="AT68" s="126">
+      <c r="AT68" s="125">
         <v>2</v>
       </c>
-      <c r="AU68" s="126"/>
+      <c r="AU68" s="125"/>
       <c r="AV68" s="33"/>
       <c r="AW68" s="33"/>
       <c r="AX68" s="33"/>
@@ -11328,10 +11328,10 @@
       <c r="BI68" s="27"/>
     </row>
     <row r="69" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A69" s="124" t="s">
+      <c r="A69" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="124"/>
+      <c r="B69" s="126"/>
       <c r="C69" s="18"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -11379,10 +11379,10 @@
       <c r="AU69" s="33"/>
       <c r="AV69" s="33"/>
       <c r="AW69" s="33"/>
-      <c r="AX69" s="126">
+      <c r="AX69" s="125">
         <v>2</v>
       </c>
-      <c r="AY69" s="126"/>
+      <c r="AY69" s="125"/>
       <c r="AZ69" s="33"/>
       <c r="BA69" s="33"/>
       <c r="BB69" s="33"/>
@@ -11395,10 +11395,10 @@
       <c r="BI69" s="27"/>
     </row>
     <row r="70" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A70" s="124" t="s">
-        <v>82</v>
-      </c>
-      <c r="B70" s="124"/>
+      <c r="A70" s="126" t="s">
+        <v>172</v>
+      </c>
+      <c r="B70" s="126"/>
       <c r="C70" s="18"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -11446,10 +11446,10 @@
       <c r="AU70" s="33"/>
       <c r="AV70" s="33"/>
       <c r="AW70" s="33"/>
-      <c r="AX70" s="126">
+      <c r="AX70" s="125">
         <v>2</v>
       </c>
-      <c r="AY70" s="126"/>
+      <c r="AY70" s="125"/>
       <c r="AZ70" s="33"/>
       <c r="BA70" s="33"/>
       <c r="BB70" s="33"/>
@@ -11462,10 +11462,10 @@
       <c r="BI70" s="27"/>
     </row>
     <row r="71" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A71" s="124" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71" s="124"/>
+      <c r="A71" s="126" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="126"/>
       <c r="C71" s="18"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -11513,10 +11513,10 @@
       <c r="AU71" s="33"/>
       <c r="AV71" s="33"/>
       <c r="AW71" s="33"/>
-      <c r="AX71" s="126">
+      <c r="AX71" s="125">
         <v>2</v>
       </c>
-      <c r="AY71" s="126"/>
+      <c r="AY71" s="125"/>
       <c r="AZ71" s="33"/>
       <c r="BA71" s="33"/>
       <c r="BB71" s="33"/>
@@ -11529,10 +11529,10 @@
       <c r="BI71" s="27"/>
     </row>
     <row r="72" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A72" s="124" t="s">
-        <v>84</v>
-      </c>
-      <c r="B72" s="124"/>
+      <c r="A72" s="126" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="126"/>
       <c r="C72" s="18"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -11580,10 +11580,10 @@
       <c r="AU72" s="33"/>
       <c r="AV72" s="33"/>
       <c r="AW72" s="33"/>
-      <c r="AX72" s="126">
+      <c r="AX72" s="125">
         <v>2</v>
       </c>
-      <c r="AY72" s="126"/>
+      <c r="AY72" s="125"/>
       <c r="AZ72" s="33"/>
       <c r="BA72" s="33"/>
       <c r="BB72" s="33"/>
@@ -11596,10 +11596,10 @@
       <c r="BI72" s="27"/>
     </row>
     <row r="73" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="124" t="s">
+      <c r="A73" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="124"/>
+      <c r="B73" s="126"/>
       <c r="C73" s="18"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -11645,10 +11645,10 @@
       <c r="AS73" s="33"/>
       <c r="AT73" s="33"/>
       <c r="AU73" s="33"/>
-      <c r="AV73" s="126" t="s">
-        <v>166</v>
-      </c>
-      <c r="AW73" s="126"/>
+      <c r="AV73" s="125" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW73" s="125"/>
       <c r="AX73" s="33"/>
       <c r="AY73" s="33"/>
       <c r="AZ73" s="33"/>
@@ -11663,10 +11663,10 @@
       <c r="BI73" s="27"/>
     </row>
     <row r="74" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A74" s="124" t="s">
-        <v>85</v>
-      </c>
-      <c r="B74" s="124"/>
+      <c r="A74" s="126" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="126"/>
       <c r="C74" s="18"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -11712,8 +11712,8 @@
       <c r="AS74" s="33"/>
       <c r="AT74" s="33"/>
       <c r="AU74" s="33"/>
-      <c r="AV74" s="126"/>
-      <c r="AW74" s="126"/>
+      <c r="AV74" s="125"/>
+      <c r="AW74" s="125"/>
       <c r="AX74" s="33"/>
       <c r="AY74" s="33"/>
       <c r="AZ74" s="33"/>
@@ -11728,10 +11728,10 @@
       <c r="BI74" s="27"/>
     </row>
     <row r="75" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A75" s="124" t="s">
-        <v>86</v>
-      </c>
-      <c r="B75" s="124"/>
+      <c r="A75" s="126" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="126"/>
       <c r="C75" s="18"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -11777,8 +11777,8 @@
       <c r="AS75" s="33"/>
       <c r="AT75" s="33"/>
       <c r="AU75" s="33"/>
-      <c r="AV75" s="126"/>
-      <c r="AW75" s="126"/>
+      <c r="AV75" s="125"/>
+      <c r="AW75" s="125"/>
       <c r="AX75" s="33"/>
       <c r="AY75" s="33"/>
       <c r="AZ75" s="33"/>
@@ -11793,10 +11793,10 @@
       <c r="BI75" s="27"/>
     </row>
     <row r="76" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="124" t="s">
-        <v>172</v>
-      </c>
-      <c r="B76" s="124"/>
+      <c r="A76" s="126" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76" s="126"/>
       <c r="C76" s="18"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -11842,8 +11842,8 @@
       <c r="AS76" s="33"/>
       <c r="AT76" s="33"/>
       <c r="AU76" s="33"/>
-      <c r="AV76" s="126"/>
-      <c r="AW76" s="126"/>
+      <c r="AV76" s="125"/>
+      <c r="AW76" s="125"/>
       <c r="AX76" s="33"/>
       <c r="AY76" s="33"/>
       <c r="AZ76" s="33"/>
@@ -11858,10 +11858,10 @@
       <c r="BI76" s="27"/>
     </row>
     <row r="77" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A77" s="124" t="s">
-        <v>167</v>
-      </c>
-      <c r="B77" s="124"/>
+      <c r="A77" s="126" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" s="126"/>
       <c r="C77" s="18"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -11907,8 +11907,8 @@
       <c r="AS77" s="33"/>
       <c r="AT77" s="33"/>
       <c r="AU77" s="33"/>
-      <c r="AV77" s="126"/>
-      <c r="AW77" s="126"/>
+      <c r="AV77" s="125"/>
+      <c r="AW77" s="125"/>
       <c r="AX77" s="33"/>
       <c r="AY77" s="33"/>
       <c r="AZ77" s="33"/>
@@ -11923,10 +11923,10 @@
       <c r="BI77" s="27"/>
     </row>
     <row r="78" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="124" t="s">
-        <v>87</v>
-      </c>
-      <c r="B78" s="124"/>
+      <c r="A78" s="126" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" s="126"/>
       <c r="C78" s="18"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -11972,8 +11972,8 @@
       <c r="AS78" s="33"/>
       <c r="AT78" s="33"/>
       <c r="AU78" s="33"/>
-      <c r="AV78" s="126"/>
-      <c r="AW78" s="126"/>
+      <c r="AV78" s="125"/>
+      <c r="AW78" s="125"/>
       <c r="AX78" s="33"/>
       <c r="AY78" s="33"/>
       <c r="AZ78" s="33"/>
@@ -12052,7 +12052,7 @@
     </row>
     <row r="80" spans="1:61" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -12117,10 +12117,10 @@
     </row>
     <row r="81" spans="1:61" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="91" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B81" s="92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C81" s="93"/>
       <c r="D81" s="44"/>
@@ -12184,13 +12184,13 @@
     </row>
     <row r="82" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A82" s="118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B82" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="B82" s="88" t="s">
+      <c r="C82" s="83" t="s">
         <v>119</v>
-      </c>
-      <c r="C82" s="83" t="s">
-        <v>120</v>
       </c>
       <c r="D82" s="90"/>
       <c r="E82" s="44"/>
@@ -12252,7 +12252,7 @@
       <c r="BI82" s="27"/>
     </row>
     <row r="83" spans="1:61" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="121"/>
+      <c r="A83" s="128"/>
       <c r="B83" s="89">
         <v>2170</v>
       </c>
@@ -12319,8 +12319,8 @@
       <c r="BI83" s="27"/>
     </row>
     <row r="84" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A84" s="120" t="s">
-        <v>117</v>
+      <c r="A84" s="127" t="s">
+        <v>116</v>
       </c>
       <c r="B84" s="72">
         <v>10</v>
@@ -12456,7 +12456,7 @@
     </row>
     <row r="86" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A86" s="113" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B86" s="88">
         <v>10</v>
@@ -12592,10 +12592,10 @@
     </row>
     <row r="88" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A88" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="B88" s="86" t="s">
         <v>163</v>
-      </c>
-      <c r="B88" s="86" t="s">
-        <v>164</v>
       </c>
       <c r="C88" s="87"/>
       <c r="D88" s="27"/>
@@ -12722,7 +12722,7 @@
     </row>
     <row r="90" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A90" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
@@ -12787,7 +12787,7 @@
     </row>
     <row r="91" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A91" s="50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -12852,7 +12852,7 @@
     </row>
     <row r="92" spans="1:61" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -12917,7 +12917,7 @@
     </row>
     <row r="93" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A93" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
@@ -12982,24 +12982,121 @@
     </row>
   </sheetData>
   <mergeCells count="157">
-    <mergeCell ref="P12:Q13"/>
-    <mergeCell ref="R12:S13"/>
-    <mergeCell ref="AV12:AW13"/>
-    <mergeCell ref="T12:U13"/>
-    <mergeCell ref="V12:W13"/>
-    <mergeCell ref="X12:Y13"/>
-    <mergeCell ref="Z12:AA13"/>
-    <mergeCell ref="BD12:BE13"/>
-    <mergeCell ref="BF12:BG13"/>
-    <mergeCell ref="AL12:AM13"/>
-    <mergeCell ref="AP12:AQ13"/>
-    <mergeCell ref="AR12:AS13"/>
-    <mergeCell ref="AT12:AU13"/>
-    <mergeCell ref="AB12:AC13"/>
-    <mergeCell ref="AD12:AE13"/>
-    <mergeCell ref="AF12:AG13"/>
-    <mergeCell ref="AH12:AI13"/>
-    <mergeCell ref="AJ12:AK13"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="AX72:AY72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="AV73:AW78"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="AX69:AY69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="AX70:AY70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="AX71:AY71"/>
+    <mergeCell ref="AP66:AQ66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="AT67:AU67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="AT68:AU68"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="AN63:AO63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="AN64:AO64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="AP65:AQ65"/>
+    <mergeCell ref="AH60:AI60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="AL61:AM61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="AL62:AM62"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="AD58:AE58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="AF59:AG59"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="AB55:AC55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="AR51:AS51"/>
+    <mergeCell ref="AT51:AU51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="AJ52:AK52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="BF50:BG50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="AD51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="AH51:AI51"/>
+    <mergeCell ref="AJ51:AK51"/>
+    <mergeCell ref="AL51:AM51"/>
+    <mergeCell ref="AN51:AO51"/>
+    <mergeCell ref="AP51:AQ51"/>
+    <mergeCell ref="BD47:BE47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="BD48:BE48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="BF49:BG49"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="AZ44:BA44"/>
+    <mergeCell ref="BB44:BC44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="AZ45:BA45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="BB46:BC46"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="R34:S34"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="AZ1:BA1"/>
@@ -13024,121 +13121,24 @@
     <mergeCell ref="J12:K13"/>
     <mergeCell ref="L12:M13"/>
     <mergeCell ref="N12:O13"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="Z42:AA42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="BD47:BE47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="BD48:BE48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="BF49:BG49"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="AZ44:BA44"/>
-    <mergeCell ref="BB44:BC44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="AZ45:BA45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="BB46:BC46"/>
-    <mergeCell ref="BF50:BG50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="AD51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="AH51:AI51"/>
-    <mergeCell ref="AJ51:AK51"/>
-    <mergeCell ref="AL51:AM51"/>
-    <mergeCell ref="AN51:AO51"/>
-    <mergeCell ref="AP51:AQ51"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="AB55:AC55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="AR51:AS51"/>
-    <mergeCell ref="AT51:AU51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="AJ52:AK52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="AP65:AQ65"/>
-    <mergeCell ref="AH60:AI60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="AL61:AM61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="AL62:AM62"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="AD58:AE58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="AF59:AG59"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="AX72:AY72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="AV73:AW78"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="AX69:AY69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="AX70:AY70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="AX71:AY71"/>
-    <mergeCell ref="AP66:AQ66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="AT67:AU67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="AT68:AU68"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="AN63:AO63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="AN64:AO64"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="P12:Q13"/>
+    <mergeCell ref="R12:S13"/>
+    <mergeCell ref="AV12:AW13"/>
+    <mergeCell ref="T12:U13"/>
+    <mergeCell ref="V12:W13"/>
+    <mergeCell ref="X12:Y13"/>
+    <mergeCell ref="Z12:AA13"/>
+    <mergeCell ref="BD12:BE13"/>
+    <mergeCell ref="BF12:BG13"/>
+    <mergeCell ref="AL12:AM13"/>
+    <mergeCell ref="AP12:AQ13"/>
+    <mergeCell ref="AR12:AS13"/>
+    <mergeCell ref="AT12:AU13"/>
+    <mergeCell ref="AB12:AC13"/>
+    <mergeCell ref="AD12:AE13"/>
+    <mergeCell ref="AF12:AG13"/>
+    <mergeCell ref="AH12:AI13"/>
+    <mergeCell ref="AJ12:AK13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
